--- a/data/disasters/raw/FisheryDisasters_1989-2021.xlsx
+++ b/data/disasters/raw/FisheryDisasters_1989-2021.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyall.bellquist.TNC\Box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_mhw_case_studies/data/disasters/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC2EEEA-7AD2-46BE-A630-54C414CFE188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC14D444-9E3C-844B-BFD2-02C980D79540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9324FBC6-1EA7-4D56-A831-61743E6D7D0B}"/>
+    <workbookView xWindow="1720" yWindow="5040" windowWidth="34680" windowHeight="17960" xr2:uid="{9324FBC6-1EA7-4D56-A831-61743E6D7D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Fishery disasters since 1989" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fishery disasters since 1989'!$A$1:$AH$113</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4648,7 +4642,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5182,49 +5176,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AF5E7D-3BAC-4B54-BF11-2A19389C46F1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI1465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1640625" style="5"/>
     <col min="2" max="2" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="158.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="123.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="191.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="158.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="123.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="191.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="5" customWidth="1"/>
     <col min="17" max="17" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="51.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="51.5" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="55" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="76.140625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="76.1640625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="31.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="156" style="5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="68" style="5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.140625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="39.1640625" style="5" customWidth="1"/>
     <col min="31" max="31" width="38" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="76.7109375" style="5" customWidth="1"/>
-    <col min="33" max="33" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="5"/>
+    <col min="32" max="32" width="76.6640625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="35.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +5320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5377,7 +5372,7 @@
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5429,7 +5424,7 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5484,7 +5479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5536,7 +5531,7 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -5588,7 +5583,7 @@
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
     </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -5640,7 +5635,7 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
     </row>
-    <row r="8" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -5692,7 +5687,7 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
     </row>
-    <row r="9" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -5744,7 +5739,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
     </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5796,7 +5791,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:35" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="4" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -5848,7 +5843,7 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
     </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5900,7 +5895,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -5973,7 +5968,7 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
     </row>
-    <row r="14" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -6042,7 +6037,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -6111,7 +6106,7 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
     </row>
-    <row r="16" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -6180,7 +6175,7 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
     </row>
-    <row r="17" spans="1:35" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -6269,7 +6264,7 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
     </row>
-    <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="17.25" hidden="1" customHeight="1">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>44376</v>
       </c>
       <c r="S18" s="17">
-        <f t="shared" ref="S18:S24" si="0">R18-L18</f>
+        <f t="shared" ref="S18:S23" si="0">R18-L18</f>
         <v>474</v>
       </c>
       <c r="T18" s="5">
@@ -6355,7 +6350,7 @@
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
     </row>
-    <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="17.25" hidden="1" customHeight="1">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -6411,7 +6406,7 @@
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" hidden="1">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -6474,7 +6469,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" hidden="1">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -6563,7 +6558,7 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
     </row>
-    <row r="22" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" s="4" customFormat="1" ht="16" hidden="1">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -6653,7 +6648,7 @@
       <c r="AF22" s="25"/>
       <c r="AG22" s="5"/>
     </row>
-    <row r="23" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" s="4" customFormat="1" ht="16" hidden="1">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -6745,7 +6740,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" hidden="1">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -6842,7 +6837,7 @@
       </c>
       <c r="AF24" s="25"/>
     </row>
-    <row r="25" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="16.5" hidden="1" customHeight="1">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -6936,7 +6931,7 @@
         <v>88301898</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="16" hidden="1">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -6995,7 +6990,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="16" hidden="1">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -7093,7 +7088,7 @@
         <v>3395929.86</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="16" hidden="1">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -7191,7 +7186,7 @@
         <v>2270589.36</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="16" hidden="1">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -7289,7 +7284,7 @@
         <v>10533579.779999999</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="16" hidden="1">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -7387,7 +7382,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="16" hidden="1">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -7482,7 +7477,7 @@
         <v>8124480</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="16" hidden="1">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -7581,7 +7576,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="16" hidden="1">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -7679,7 +7674,7 @@
         <v>24904768.800000001</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="16" hidden="1">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -7777,7 +7772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="16" hidden="1">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -7872,7 +7867,7 @@
         <v>14503073.520000001</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="16" hidden="1">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -7967,7 +7962,7 @@
         <v>1008800</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="16" hidden="1">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="16" hidden="1">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -8155,7 +8150,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="16" hidden="1">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -8250,7 +8245,7 @@
         <v>1705600</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="16" hidden="1">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -8348,7 +8343,7 @@
         <v>9241440</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -8443,7 +8438,7 @@
         <v>4010240</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="16">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -8544,7 +8539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="16" hidden="1">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -8642,7 +8637,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="16" hidden="1">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -8743,7 +8738,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="16" hidden="1">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -8844,7 +8839,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="16" hidden="1">
       <c r="A46" s="4">
         <v>1</v>
       </c>
@@ -8945,7 +8940,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="16" hidden="1">
       <c r="A47" s="4">
         <v>1</v>
       </c>
@@ -9049,7 +9044,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="16" hidden="1">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -9150,7 +9145,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="16" hidden="1">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -9250,7 +9245,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="16" hidden="1">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -9348,7 +9343,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="16" hidden="1">
       <c r="A51" s="4">
         <v>1</v>
       </c>
@@ -9446,7 +9441,7 @@
         <v>2125200</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="16" hidden="1">
       <c r="A52" s="4">
         <v>1</v>
       </c>
@@ -9524,7 +9519,7 @@
       </c>
       <c r="AE52" s="28"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="16" hidden="1">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -9619,7 +9614,7 @@
         <v>8944622.3999999985</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="16" hidden="1">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -9700,7 +9695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="16" hidden="1">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -9797,7 +9792,7 @@
         <v>7074516.9600000009</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="16" hidden="1">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -9898,7 +9893,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="16" hidden="1">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -9982,7 +9977,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="16" hidden="1">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -10083,7 +10078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="16" hidden="1">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -10184,7 +10179,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="16" hidden="1">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -10270,7 +10265,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="16" hidden="1">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -10366,7 +10361,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="16" hidden="1">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -10452,7 +10447,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="16" hidden="1">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -10553,7 +10548,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="16" hidden="1">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -10646,7 +10641,7 @@
       <c r="AD64"/>
       <c r="AE64" s="28"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="16" hidden="1">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -10744,7 +10739,7 @@
         <v>30940000</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="16" hidden="1">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -10827,7 +10822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="16" hidden="1">
       <c r="A67" s="4">
         <v>1</v>
       </c>
@@ -10928,7 +10923,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="16" hidden="1">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -11024,7 +11019,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="16" hidden="1">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -11122,7 +11117,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="16" hidden="1">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -11205,7 +11200,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="16" hidden="1">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -11298,7 +11293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="16" hidden="1">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -11381,7 +11376,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="16" hidden="1">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -11461,7 +11456,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="16" hidden="1">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -11562,7 +11557,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" ht="16" hidden="1">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -11663,7 +11658,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="16" hidden="1">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -11764,7 +11759,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="16" hidden="1">
       <c r="A77" s="4">
         <v>1</v>
       </c>
@@ -11862,7 +11857,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="16" hidden="1">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -11957,7 +11952,7 @@
         <v>207400000</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="16" hidden="1">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -12037,7 +12032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="16" hidden="1">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -12117,7 +12112,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="16" hidden="1">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -12217,7 +12212,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="16" hidden="1">
       <c r="A82" s="4">
         <v>1</v>
       </c>
@@ -12297,7 +12292,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="16" hidden="1">
       <c r="A83" s="4">
         <v>1</v>
       </c>
@@ -12398,7 +12393,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="16" hidden="1">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -12496,7 +12491,7 @@
         <v>78520000</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="16" hidden="1">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -12594,7 +12589,7 @@
         <v>988000000</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="16" hidden="1">
       <c r="A86" s="4">
         <v>1</v>
       </c>
@@ -12669,7 +12664,7 @@
       </c>
       <c r="AE86" s="28"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="16" hidden="1">
       <c r="A87" s="4">
         <v>1</v>
       </c>
@@ -12767,7 +12762,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="16" hidden="1">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -12865,7 +12860,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="16" hidden="1">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -12966,7 +12961,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="16" hidden="1">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -13044,7 +13039,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="16" hidden="1">
       <c r="A91" s="4">
         <v>1</v>
       </c>
@@ -13142,7 +13137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="16" hidden="1">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -13243,7 +13238,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="16" hidden="1">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -13344,7 +13339,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -13424,7 +13419,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="16" hidden="1">
       <c r="A95" s="4">
         <v>1</v>
       </c>
@@ -13521,7 +13516,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="16" hidden="1">
       <c r="A96" s="4">
         <v>1</v>
       </c>
@@ -13622,7 +13617,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="16" hidden="1">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -13720,7 +13715,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="16" hidden="1">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -13800,7 +13795,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="16" hidden="1">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -13893,7 +13888,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="16" hidden="1">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -13991,7 +13986,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="16" hidden="1">
       <c r="A101" s="4">
         <v>1</v>
       </c>
@@ -14089,7 +14084,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="16" hidden="1">
       <c r="A102" s="4">
         <v>1</v>
       </c>
@@ -14184,7 +14179,7 @@
         <v>7536000</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="16" hidden="1">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -14282,7 +14277,7 @@
         <v>79500000</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" ht="16" hidden="1">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -14377,7 +14372,7 @@
         <v>17490000</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="16" hidden="1">
       <c r="A105" s="4">
         <v>1</v>
       </c>
@@ -14471,7 +14466,7 @@
         <v>3180000</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" ht="16" hidden="1">
       <c r="A106" s="4">
         <v>1</v>
       </c>
@@ -14557,7 +14552,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="16" hidden="1">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -14655,7 +14650,7 @@
         <v>11340000</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="16" hidden="1">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -14750,7 +14745,7 @@
         <v>22230000</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="16" hidden="1">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -14846,7 +14841,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" ht="16" hidden="1">
       <c r="A110" s="4">
         <v>1</v>
       </c>
@@ -14939,7 +14934,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="16" hidden="1">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -15033,7 +15028,7 @@
       </c>
       <c r="AG111" s="37"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" hidden="1">
       <c r="A112" s="4">
         <v>1</v>
       </c>
@@ -15129,7 +15124,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" hidden="1">
       <c r="A113" s="4">
         <v>1</v>
       </c>
@@ -15222,6793 +15217,6800 @@
         <v>618</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32">
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
       <c r="AC114" s="34"/>
       <c r="AD114" s="34"/>
       <c r="AE114" s="34"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32">
       <c r="M115" s="17"/>
       <c r="N115" s="40"/>
       <c r="AC115" s="34"/>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32">
       <c r="M116" s="17"/>
       <c r="N116" s="40"/>
       <c r="AC116" s="34"/>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32">
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
       <c r="AC117" s="34"/>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32">
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
       <c r="AC118" s="34"/>
       <c r="AD118" s="34"/>
       <c r="AE118" s="34"/>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32">
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
       <c r="AC119" s="34"/>
       <c r="AD119" s="34"/>
       <c r="AE119" s="34"/>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32">
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
       <c r="AC120" s="34"/>
       <c r="AD120" s="34"/>
       <c r="AE120" s="34"/>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32">
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
       <c r="AC121" s="34"/>
       <c r="AD121" s="34"/>
       <c r="AE121" s="34"/>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32">
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
       <c r="AC122" s="34"/>
       <c r="AD122" s="34"/>
       <c r="AE122" s="34"/>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32">
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
       <c r="AC123" s="34"/>
       <c r="AD123" s="34"/>
       <c r="AE123" s="34"/>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32">
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
       <c r="AC124" s="34"/>
       <c r="AD124" s="34"/>
       <c r="AE124" s="34"/>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32">
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
       <c r="AC125" s="34"/>
       <c r="AD125" s="34"/>
       <c r="AE125" s="34"/>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32">
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="AC126" s="34"/>
       <c r="AD126" s="34"/>
       <c r="AE126" s="34"/>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32">
       <c r="AC127" s="34"/>
       <c r="AD127" s="34"/>
       <c r="AE127" s="34"/>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32">
       <c r="AC128" s="34"/>
       <c r="AD128" s="34"/>
       <c r="AE128" s="34"/>
     </row>
-    <row r="129" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="29:31">
       <c r="AC129" s="34"/>
       <c r="AD129" s="34"/>
       <c r="AE129" s="34"/>
     </row>
-    <row r="130" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="29:31">
       <c r="AC130" s="34"/>
       <c r="AD130" s="34"/>
       <c r="AE130" s="34"/>
     </row>
-    <row r="131" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="29:31">
       <c r="AC131" s="34"/>
       <c r="AD131" s="34"/>
       <c r="AE131" s="34"/>
     </row>
-    <row r="132" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="29:31">
       <c r="AC132" s="34"/>
       <c r="AD132" s="34"/>
       <c r="AE132" s="34"/>
     </row>
-    <row r="133" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="29:31">
       <c r="AC133" s="34"/>
       <c r="AD133" s="34"/>
       <c r="AE133" s="34"/>
     </row>
-    <row r="134" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="29:31">
       <c r="AC134" s="34"/>
       <c r="AD134" s="34"/>
       <c r="AE134" s="34"/>
     </row>
-    <row r="135" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="29:31">
       <c r="AC135" s="34"/>
       <c r="AD135" s="34"/>
       <c r="AE135" s="34"/>
     </row>
-    <row r="136" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="29:31">
       <c r="AC136" s="34"/>
       <c r="AD136" s="34"/>
       <c r="AE136" s="34"/>
     </row>
-    <row r="137" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="29:31">
       <c r="AC137" s="34"/>
       <c r="AD137" s="34"/>
       <c r="AE137" s="34"/>
     </row>
-    <row r="138" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="29:31">
       <c r="AC138" s="34"/>
       <c r="AD138" s="34"/>
       <c r="AE138" s="34"/>
     </row>
-    <row r="139" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="29:31">
       <c r="AC139" s="34"/>
       <c r="AD139" s="34"/>
       <c r="AE139" s="34"/>
     </row>
-    <row r="140" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="29:31">
       <c r="AC140" s="34"/>
       <c r="AD140" s="34"/>
       <c r="AE140" s="34"/>
     </row>
-    <row r="141" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="29:31">
       <c r="AC141" s="34"/>
       <c r="AD141" s="34"/>
       <c r="AE141" s="34"/>
     </row>
-    <row r="142" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="29:31">
       <c r="AC142" s="34"/>
       <c r="AD142" s="34"/>
       <c r="AE142" s="34"/>
     </row>
-    <row r="143" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="29:31">
       <c r="AC143" s="34"/>
       <c r="AD143" s="34"/>
       <c r="AE143" s="34"/>
     </row>
-    <row r="144" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="29:31">
       <c r="AC144" s="34"/>
       <c r="AD144" s="34"/>
       <c r="AE144" s="34"/>
     </row>
-    <row r="145" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="29:31">
       <c r="AC145" s="34"/>
       <c r="AD145" s="34"/>
       <c r="AE145" s="34"/>
     </row>
-    <row r="146" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="29:31">
       <c r="AC146" s="34"/>
       <c r="AD146" s="34"/>
       <c r="AE146" s="34"/>
     </row>
-    <row r="147" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="29:31">
       <c r="AC147" s="34"/>
       <c r="AD147" s="34"/>
       <c r="AE147" s="34"/>
     </row>
-    <row r="148" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="29:31">
       <c r="AC148" s="34"/>
       <c r="AD148" s="34"/>
       <c r="AE148" s="34"/>
     </row>
-    <row r="149" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="29:31">
       <c r="AC149" s="34"/>
       <c r="AD149" s="34"/>
       <c r="AE149" s="34"/>
     </row>
-    <row r="150" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="29:31">
       <c r="AC150" s="34"/>
       <c r="AD150" s="34"/>
       <c r="AE150" s="34"/>
     </row>
-    <row r="151" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="29:31">
       <c r="AC151" s="34"/>
       <c r="AD151" s="34"/>
       <c r="AE151" s="34"/>
     </row>
-    <row r="152" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="29:31">
       <c r="AC152" s="34"/>
       <c r="AD152" s="34"/>
       <c r="AE152" s="34"/>
     </row>
-    <row r="153" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="29:31">
       <c r="AC153" s="34"/>
       <c r="AD153" s="34"/>
       <c r="AE153" s="34"/>
     </row>
-    <row r="154" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="29:31">
       <c r="AC154" s="34"/>
       <c r="AD154" s="34"/>
       <c r="AE154" s="34"/>
     </row>
-    <row r="155" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="29:31">
       <c r="AC155" s="34"/>
       <c r="AD155" s="34"/>
       <c r="AE155" s="34"/>
     </row>
-    <row r="156" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="29:31">
       <c r="AC156" s="34"/>
       <c r="AD156" s="34"/>
       <c r="AE156" s="34"/>
     </row>
-    <row r="157" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="29:31">
       <c r="AC157" s="34"/>
       <c r="AD157" s="34"/>
       <c r="AE157" s="34"/>
     </row>
-    <row r="158" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="29:31">
       <c r="AC158" s="34"/>
       <c r="AD158" s="34"/>
       <c r="AE158" s="34"/>
     </row>
-    <row r="159" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="29:31">
       <c r="AC159" s="34"/>
       <c r="AD159" s="34"/>
       <c r="AE159" s="34"/>
     </row>
-    <row r="160" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="29:31">
       <c r="AC160" s="34"/>
       <c r="AD160" s="34"/>
       <c r="AE160" s="34"/>
     </row>
-    <row r="161" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="29:31">
       <c r="AC161" s="34"/>
       <c r="AD161" s="34"/>
       <c r="AE161" s="34"/>
     </row>
-    <row r="162" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="29:31">
       <c r="AC162" s="34"/>
       <c r="AD162" s="34"/>
       <c r="AE162" s="34"/>
     </row>
-    <row r="163" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="29:31">
       <c r="AC163" s="34"/>
       <c r="AD163" s="34"/>
       <c r="AE163" s="34"/>
     </row>
-    <row r="164" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="29:31">
       <c r="AC164" s="34"/>
       <c r="AD164" s="34"/>
       <c r="AE164" s="34"/>
     </row>
-    <row r="165" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="29:31">
       <c r="AC165" s="34"/>
       <c r="AD165" s="34"/>
       <c r="AE165" s="34"/>
     </row>
-    <row r="166" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="166" spans="29:31">
       <c r="AC166" s="34"/>
       <c r="AD166" s="34"/>
       <c r="AE166" s="34"/>
     </row>
-    <row r="167" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="167" spans="29:31">
       <c r="AC167" s="34"/>
       <c r="AD167" s="34"/>
       <c r="AE167" s="34"/>
     </row>
-    <row r="168" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="168" spans="29:31">
       <c r="AC168" s="34"/>
       <c r="AD168" s="34"/>
       <c r="AE168" s="34"/>
     </row>
-    <row r="169" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="169" spans="29:31">
       <c r="AC169" s="34"/>
       <c r="AD169" s="34"/>
       <c r="AE169" s="34"/>
     </row>
-    <row r="170" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="170" spans="29:31">
       <c r="AC170" s="34"/>
       <c r="AD170" s="34"/>
       <c r="AE170" s="34"/>
     </row>
-    <row r="171" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="171" spans="29:31">
       <c r="AC171" s="34"/>
       <c r="AD171" s="34"/>
       <c r="AE171" s="34"/>
     </row>
-    <row r="172" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="172" spans="29:31">
       <c r="AC172" s="34"/>
       <c r="AD172" s="34"/>
       <c r="AE172" s="34"/>
     </row>
-    <row r="173" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="173" spans="29:31">
       <c r="AC173" s="34"/>
       <c r="AD173" s="34"/>
       <c r="AE173" s="34"/>
     </row>
-    <row r="174" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="174" spans="29:31">
       <c r="AC174" s="34"/>
       <c r="AD174" s="34"/>
       <c r="AE174" s="34"/>
     </row>
-    <row r="175" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="175" spans="29:31">
       <c r="AC175" s="34"/>
       <c r="AD175" s="34"/>
       <c r="AE175" s="34"/>
     </row>
-    <row r="176" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="176" spans="29:31">
       <c r="AC176" s="34"/>
       <c r="AD176" s="34"/>
       <c r="AE176" s="34"/>
     </row>
-    <row r="177" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="177" spans="29:31">
       <c r="AC177" s="34"/>
       <c r="AD177" s="34"/>
       <c r="AE177" s="34"/>
     </row>
-    <row r="178" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="178" spans="29:31">
       <c r="AC178" s="34"/>
       <c r="AD178" s="34"/>
       <c r="AE178" s="34"/>
     </row>
-    <row r="179" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="179" spans="29:31">
       <c r="AC179" s="34"/>
       <c r="AD179" s="34"/>
       <c r="AE179" s="34"/>
     </row>
-    <row r="180" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="180" spans="29:31">
       <c r="AC180" s="34"/>
       <c r="AD180" s="34"/>
       <c r="AE180" s="34"/>
     </row>
-    <row r="181" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="181" spans="29:31">
       <c r="AC181" s="34"/>
       <c r="AD181" s="34"/>
       <c r="AE181" s="34"/>
     </row>
-    <row r="182" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="182" spans="29:31">
       <c r="AC182" s="34"/>
       <c r="AD182" s="34"/>
       <c r="AE182" s="34"/>
     </row>
-    <row r="183" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="183" spans="29:31">
       <c r="AC183" s="34"/>
       <c r="AD183" s="34"/>
       <c r="AE183" s="34"/>
     </row>
-    <row r="184" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="184" spans="29:31">
       <c r="AC184" s="34"/>
       <c r="AD184" s="34"/>
       <c r="AE184" s="34"/>
     </row>
-    <row r="185" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="185" spans="29:31">
       <c r="AC185" s="34"/>
       <c r="AD185" s="34"/>
       <c r="AE185" s="34"/>
     </row>
-    <row r="186" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="186" spans="29:31">
       <c r="AC186" s="34"/>
       <c r="AD186" s="34"/>
       <c r="AE186" s="34"/>
     </row>
-    <row r="187" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="187" spans="29:31">
       <c r="AC187" s="34"/>
       <c r="AD187" s="34"/>
       <c r="AE187" s="34"/>
     </row>
-    <row r="188" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="188" spans="29:31">
       <c r="AC188" s="34"/>
       <c r="AD188" s="34"/>
       <c r="AE188" s="34"/>
     </row>
-    <row r="189" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="189" spans="29:31">
       <c r="AC189" s="34"/>
       <c r="AD189" s="34"/>
       <c r="AE189" s="34"/>
     </row>
-    <row r="190" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="190" spans="29:31">
       <c r="AC190" s="34"/>
       <c r="AD190" s="34"/>
       <c r="AE190" s="34"/>
     </row>
-    <row r="191" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="191" spans="29:31">
       <c r="AC191" s="34"/>
       <c r="AD191" s="34"/>
       <c r="AE191" s="34"/>
     </row>
-    <row r="192" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="192" spans="29:31">
       <c r="AC192" s="34"/>
       <c r="AD192" s="34"/>
       <c r="AE192" s="34"/>
     </row>
-    <row r="193" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="193" spans="29:31">
       <c r="AC193" s="34"/>
       <c r="AD193" s="34"/>
       <c r="AE193" s="34"/>
     </row>
-    <row r="194" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="194" spans="29:31">
       <c r="AC194" s="34"/>
       <c r="AD194" s="34"/>
       <c r="AE194" s="34"/>
     </row>
-    <row r="195" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="195" spans="29:31">
       <c r="AC195" s="34"/>
       <c r="AD195" s="34"/>
       <c r="AE195" s="34"/>
     </row>
-    <row r="196" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="196" spans="29:31">
       <c r="AC196" s="34"/>
       <c r="AD196" s="34"/>
       <c r="AE196" s="34"/>
     </row>
-    <row r="197" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="197" spans="29:31">
       <c r="AC197" s="34"/>
       <c r="AD197" s="34"/>
       <c r="AE197" s="34"/>
     </row>
-    <row r="198" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="198" spans="29:31">
       <c r="AC198" s="34"/>
       <c r="AD198" s="34"/>
       <c r="AE198" s="34"/>
     </row>
-    <row r="199" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="199" spans="29:31">
       <c r="AC199" s="34"/>
       <c r="AD199" s="34"/>
       <c r="AE199" s="34"/>
     </row>
-    <row r="200" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="200" spans="29:31">
       <c r="AC200" s="34"/>
       <c r="AD200" s="34"/>
       <c r="AE200" s="34"/>
     </row>
-    <row r="201" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="201" spans="29:31">
       <c r="AC201" s="34"/>
       <c r="AD201" s="34"/>
       <c r="AE201" s="34"/>
     </row>
-    <row r="202" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="202" spans="29:31">
       <c r="AC202" s="34"/>
       <c r="AD202" s="34"/>
       <c r="AE202" s="34"/>
     </row>
-    <row r="203" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="203" spans="29:31">
       <c r="AC203" s="34"/>
       <c r="AD203" s="34"/>
       <c r="AE203" s="34"/>
     </row>
-    <row r="204" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="204" spans="29:31">
       <c r="AC204" s="34"/>
       <c r="AD204" s="34"/>
       <c r="AE204" s="34"/>
     </row>
-    <row r="205" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="205" spans="29:31">
       <c r="AC205" s="34"/>
       <c r="AD205" s="34"/>
       <c r="AE205" s="34"/>
     </row>
-    <row r="206" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="29:31">
       <c r="AC206" s="34"/>
       <c r="AD206" s="34"/>
       <c r="AE206" s="34"/>
     </row>
-    <row r="207" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="207" spans="29:31">
       <c r="AC207" s="34"/>
       <c r="AD207" s="34"/>
       <c r="AE207" s="34"/>
     </row>
-    <row r="208" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="208" spans="29:31">
       <c r="AC208" s="34"/>
       <c r="AD208" s="34"/>
       <c r="AE208" s="34"/>
     </row>
-    <row r="209" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="209" spans="29:31">
       <c r="AC209" s="34"/>
       <c r="AD209" s="34"/>
       <c r="AE209" s="34"/>
     </row>
-    <row r="210" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="210" spans="29:31">
       <c r="AC210" s="34"/>
       <c r="AD210" s="34"/>
       <c r="AE210" s="34"/>
     </row>
-    <row r="211" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="211" spans="29:31">
       <c r="AC211" s="34"/>
       <c r="AD211" s="34"/>
       <c r="AE211" s="34"/>
     </row>
-    <row r="212" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="212" spans="29:31">
       <c r="AC212" s="34"/>
       <c r="AD212" s="34"/>
       <c r="AE212" s="34"/>
     </row>
-    <row r="213" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="213" spans="29:31">
       <c r="AC213" s="34"/>
       <c r="AD213" s="34"/>
       <c r="AE213" s="34"/>
     </row>
-    <row r="214" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="214" spans="29:31">
       <c r="AC214" s="34"/>
       <c r="AD214" s="34"/>
       <c r="AE214" s="34"/>
     </row>
-    <row r="215" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="215" spans="29:31">
       <c r="AC215" s="34"/>
       <c r="AD215" s="34"/>
       <c r="AE215" s="34"/>
     </row>
-    <row r="216" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="216" spans="29:31">
       <c r="AC216" s="34"/>
       <c r="AD216" s="34"/>
       <c r="AE216" s="34"/>
     </row>
-    <row r="217" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="217" spans="29:31">
       <c r="AC217" s="34"/>
       <c r="AD217" s="34"/>
       <c r="AE217" s="34"/>
     </row>
-    <row r="218" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="218" spans="29:31">
       <c r="AC218" s="34"/>
       <c r="AD218" s="34"/>
       <c r="AE218" s="34"/>
     </row>
-    <row r="219" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="219" spans="29:31">
       <c r="AC219" s="34"/>
       <c r="AD219" s="34"/>
       <c r="AE219" s="34"/>
     </row>
-    <row r="220" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="220" spans="29:31">
       <c r="AC220" s="34"/>
       <c r="AD220" s="34"/>
       <c r="AE220" s="34"/>
     </row>
-    <row r="221" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="221" spans="29:31">
       <c r="AC221" s="34"/>
       <c r="AD221" s="34"/>
       <c r="AE221" s="34"/>
     </row>
-    <row r="222" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="222" spans="29:31">
       <c r="AC222" s="34"/>
       <c r="AD222" s="34"/>
       <c r="AE222" s="34"/>
     </row>
-    <row r="223" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="223" spans="29:31">
       <c r="AC223" s="34"/>
       <c r="AD223" s="34"/>
       <c r="AE223" s="34"/>
     </row>
-    <row r="224" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="224" spans="29:31">
       <c r="AC224" s="34"/>
       <c r="AD224" s="34"/>
       <c r="AE224" s="34"/>
     </row>
-    <row r="225" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="225" spans="29:31">
       <c r="AC225" s="34"/>
       <c r="AD225" s="34"/>
       <c r="AE225" s="34"/>
     </row>
-    <row r="226" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="226" spans="29:31">
       <c r="AC226" s="34"/>
       <c r="AD226" s="34"/>
       <c r="AE226" s="34"/>
     </row>
-    <row r="227" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="227" spans="29:31">
       <c r="AC227" s="34"/>
       <c r="AD227" s="34"/>
       <c r="AE227" s="34"/>
     </row>
-    <row r="228" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="228" spans="29:31">
       <c r="AC228" s="34"/>
       <c r="AD228" s="34"/>
       <c r="AE228" s="34"/>
     </row>
-    <row r="229" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="229" spans="29:31">
       <c r="AC229" s="34"/>
       <c r="AD229" s="34"/>
       <c r="AE229" s="34"/>
     </row>
-    <row r="230" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="230" spans="29:31">
       <c r="AC230" s="34"/>
       <c r="AD230" s="34"/>
       <c r="AE230" s="34"/>
     </row>
-    <row r="231" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="231" spans="29:31">
       <c r="AC231" s="34"/>
       <c r="AD231" s="34"/>
       <c r="AE231" s="34"/>
     </row>
-    <row r="232" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="232" spans="29:31">
       <c r="AC232" s="34"/>
       <c r="AD232" s="34"/>
       <c r="AE232" s="34"/>
     </row>
-    <row r="233" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="233" spans="29:31">
       <c r="AC233" s="34"/>
       <c r="AD233" s="34"/>
       <c r="AE233" s="34"/>
     </row>
-    <row r="234" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="234" spans="29:31">
       <c r="AC234" s="34"/>
       <c r="AD234" s="34"/>
       <c r="AE234" s="34"/>
     </row>
-    <row r="235" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="235" spans="29:31">
       <c r="AC235" s="34"/>
       <c r="AD235" s="34"/>
       <c r="AE235" s="34"/>
     </row>
-    <row r="236" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="236" spans="29:31">
       <c r="AC236" s="34"/>
       <c r="AD236" s="34"/>
       <c r="AE236" s="34"/>
     </row>
-    <row r="237" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="237" spans="29:31">
       <c r="AC237" s="34"/>
       <c r="AD237" s="34"/>
       <c r="AE237" s="34"/>
     </row>
-    <row r="238" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="238" spans="29:31">
       <c r="AC238" s="34"/>
       <c r="AD238" s="34"/>
       <c r="AE238" s="34"/>
     </row>
-    <row r="239" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="239" spans="29:31">
       <c r="AC239" s="34"/>
       <c r="AD239" s="34"/>
       <c r="AE239" s="34"/>
     </row>
-    <row r="240" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="240" spans="29:31">
       <c r="AC240" s="34"/>
       <c r="AD240" s="34"/>
       <c r="AE240" s="34"/>
     </row>
-    <row r="241" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="241" spans="29:31">
       <c r="AC241" s="34"/>
       <c r="AD241" s="34"/>
       <c r="AE241" s="34"/>
     </row>
-    <row r="242" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="242" spans="29:31">
       <c r="AC242" s="34"/>
       <c r="AD242" s="34"/>
       <c r="AE242" s="34"/>
     </row>
-    <row r="243" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="243" spans="29:31">
       <c r="AC243" s="34"/>
       <c r="AD243" s="34"/>
       <c r="AE243" s="34"/>
     </row>
-    <row r="244" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="244" spans="29:31">
       <c r="AC244" s="34"/>
       <c r="AD244" s="34"/>
       <c r="AE244" s="34"/>
     </row>
-    <row r="245" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="245" spans="29:31">
       <c r="AC245" s="34"/>
       <c r="AD245" s="34"/>
       <c r="AE245" s="34"/>
     </row>
-    <row r="246" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="246" spans="29:31">
       <c r="AC246" s="34"/>
       <c r="AD246" s="34"/>
       <c r="AE246" s="34"/>
     </row>
-    <row r="247" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="247" spans="29:31">
       <c r="AC247" s="34"/>
       <c r="AD247" s="34"/>
       <c r="AE247" s="34"/>
     </row>
-    <row r="248" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="248" spans="29:31">
       <c r="AC248" s="34"/>
       <c r="AD248" s="34"/>
       <c r="AE248" s="34"/>
     </row>
-    <row r="249" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="249" spans="29:31">
       <c r="AC249" s="34"/>
       <c r="AD249" s="34"/>
       <c r="AE249" s="34"/>
     </row>
-    <row r="250" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="250" spans="29:31">
       <c r="AC250" s="34"/>
       <c r="AD250" s="34"/>
       <c r="AE250" s="34"/>
     </row>
-    <row r="251" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="251" spans="29:31">
       <c r="AC251" s="34"/>
       <c r="AD251" s="34"/>
       <c r="AE251" s="34"/>
     </row>
-    <row r="252" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="252" spans="29:31">
       <c r="AC252" s="34"/>
       <c r="AD252" s="34"/>
       <c r="AE252" s="34"/>
     </row>
-    <row r="253" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="253" spans="29:31">
       <c r="AC253" s="34"/>
       <c r="AD253" s="34"/>
       <c r="AE253" s="34"/>
     </row>
-    <row r="254" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="254" spans="29:31">
       <c r="AC254" s="34"/>
       <c r="AD254" s="34"/>
       <c r="AE254" s="34"/>
     </row>
-    <row r="255" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="255" spans="29:31">
       <c r="AC255" s="34"/>
       <c r="AD255" s="34"/>
       <c r="AE255" s="34"/>
     </row>
-    <row r="256" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="256" spans="29:31">
       <c r="AC256" s="34"/>
       <c r="AD256" s="34"/>
       <c r="AE256" s="34"/>
     </row>
-    <row r="257" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="257" spans="29:31">
       <c r="AC257" s="34"/>
       <c r="AD257" s="34"/>
       <c r="AE257" s="34"/>
     </row>
-    <row r="258" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="258" spans="29:31">
       <c r="AC258" s="34"/>
       <c r="AD258" s="34"/>
       <c r="AE258" s="34"/>
     </row>
-    <row r="259" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="259" spans="29:31">
       <c r="AC259" s="34"/>
       <c r="AD259" s="34"/>
       <c r="AE259" s="34"/>
     </row>
-    <row r="260" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="260" spans="29:31">
       <c r="AC260" s="34"/>
       <c r="AD260" s="34"/>
       <c r="AE260" s="34"/>
     </row>
-    <row r="261" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="261" spans="29:31">
       <c r="AC261" s="34"/>
       <c r="AD261" s="34"/>
       <c r="AE261" s="34"/>
     </row>
-    <row r="262" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="262" spans="29:31">
       <c r="AC262" s="34"/>
       <c r="AD262" s="34"/>
       <c r="AE262" s="34"/>
     </row>
-    <row r="263" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="263" spans="29:31">
       <c r="AC263" s="34"/>
       <c r="AD263" s="34"/>
       <c r="AE263" s="34"/>
     </row>
-    <row r="264" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="264" spans="29:31">
       <c r="AC264" s="34"/>
       <c r="AD264" s="34"/>
       <c r="AE264" s="34"/>
     </row>
-    <row r="265" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="265" spans="29:31">
       <c r="AC265" s="34"/>
       <c r="AD265" s="34"/>
       <c r="AE265" s="34"/>
     </row>
-    <row r="266" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="266" spans="29:31">
       <c r="AC266" s="34"/>
       <c r="AD266" s="34"/>
       <c r="AE266" s="34"/>
     </row>
-    <row r="267" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="267" spans="29:31">
       <c r="AC267" s="34"/>
       <c r="AD267" s="34"/>
       <c r="AE267" s="34"/>
     </row>
-    <row r="268" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="268" spans="29:31">
       <c r="AC268" s="34"/>
       <c r="AD268" s="34"/>
       <c r="AE268" s="34"/>
     </row>
-    <row r="269" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="269" spans="29:31">
       <c r="AC269" s="34"/>
       <c r="AD269" s="34"/>
       <c r="AE269" s="34"/>
     </row>
-    <row r="270" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="270" spans="29:31">
       <c r="AC270" s="34"/>
       <c r="AD270" s="34"/>
       <c r="AE270" s="34"/>
     </row>
-    <row r="271" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="29:31">
       <c r="AC271" s="34"/>
       <c r="AD271" s="34"/>
       <c r="AE271" s="34"/>
     </row>
-    <row r="272" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="272" spans="29:31">
       <c r="AC272" s="34"/>
       <c r="AD272" s="34"/>
       <c r="AE272" s="34"/>
     </row>
-    <row r="273" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="273" spans="29:31">
       <c r="AC273" s="34"/>
       <c r="AD273" s="34"/>
       <c r="AE273" s="34"/>
     </row>
-    <row r="274" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="274" spans="29:31">
       <c r="AC274" s="34"/>
       <c r="AD274" s="34"/>
       <c r="AE274" s="34"/>
     </row>
-    <row r="275" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="275" spans="29:31">
       <c r="AC275" s="34"/>
       <c r="AD275" s="34"/>
       <c r="AE275" s="34"/>
     </row>
-    <row r="276" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="276" spans="29:31">
       <c r="AC276" s="34"/>
       <c r="AD276" s="34"/>
       <c r="AE276" s="34"/>
     </row>
-    <row r="277" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="277" spans="29:31">
       <c r="AC277" s="34"/>
       <c r="AD277" s="34"/>
       <c r="AE277" s="34"/>
     </row>
-    <row r="278" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="278" spans="29:31">
       <c r="AC278" s="34"/>
       <c r="AD278" s="34"/>
       <c r="AE278" s="34"/>
     </row>
-    <row r="279" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="279" spans="29:31">
       <c r="AC279" s="34"/>
       <c r="AD279" s="34"/>
       <c r="AE279" s="34"/>
     </row>
-    <row r="280" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="280" spans="29:31">
       <c r="AC280" s="34"/>
       <c r="AD280" s="34"/>
       <c r="AE280" s="34"/>
     </row>
-    <row r="281" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="29:31">
       <c r="AC281" s="34"/>
       <c r="AD281" s="34"/>
       <c r="AE281" s="34"/>
     </row>
-    <row r="282" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="29:31">
       <c r="AC282" s="34"/>
       <c r="AD282" s="34"/>
       <c r="AE282" s="34"/>
     </row>
-    <row r="283" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="283" spans="29:31">
       <c r="AC283" s="34"/>
       <c r="AD283" s="34"/>
       <c r="AE283" s="34"/>
     </row>
-    <row r="284" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="284" spans="29:31">
       <c r="AC284" s="34"/>
       <c r="AD284" s="34"/>
       <c r="AE284" s="34"/>
     </row>
-    <row r="285" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="285" spans="29:31">
       <c r="AC285" s="34"/>
       <c r="AD285" s="34"/>
       <c r="AE285" s="34"/>
     </row>
-    <row r="286" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="286" spans="29:31">
       <c r="AC286" s="34"/>
       <c r="AD286" s="34"/>
       <c r="AE286" s="34"/>
     </row>
-    <row r="287" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="287" spans="29:31">
       <c r="AC287" s="34"/>
       <c r="AD287" s="34"/>
       <c r="AE287" s="34"/>
     </row>
-    <row r="288" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="288" spans="29:31">
       <c r="AC288" s="34"/>
       <c r="AD288" s="34"/>
       <c r="AE288" s="34"/>
     </row>
-    <row r="289" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="289" spans="29:31">
       <c r="AC289" s="34"/>
       <c r="AD289" s="34"/>
       <c r="AE289" s="34"/>
     </row>
-    <row r="290" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="290" spans="29:31">
       <c r="AC290" s="34"/>
       <c r="AD290" s="34"/>
       <c r="AE290" s="34"/>
     </row>
-    <row r="291" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="291" spans="29:31">
       <c r="AC291" s="34"/>
       <c r="AD291" s="34"/>
       <c r="AE291" s="34"/>
     </row>
-    <row r="292" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="292" spans="29:31">
       <c r="AC292" s="34"/>
       <c r="AD292" s="34"/>
       <c r="AE292" s="34"/>
     </row>
-    <row r="293" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="293" spans="29:31">
       <c r="AC293" s="34"/>
       <c r="AD293" s="34"/>
       <c r="AE293" s="34"/>
     </row>
-    <row r="294" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="294" spans="29:31">
       <c r="AC294" s="34"/>
       <c r="AD294" s="34"/>
       <c r="AE294" s="34"/>
     </row>
-    <row r="295" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="295" spans="29:31">
       <c r="AC295" s="34"/>
       <c r="AD295" s="34"/>
       <c r="AE295" s="34"/>
     </row>
-    <row r="296" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="296" spans="29:31">
       <c r="AC296" s="34"/>
       <c r="AD296" s="34"/>
       <c r="AE296" s="34"/>
     </row>
-    <row r="297" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="297" spans="29:31">
       <c r="AC297" s="34"/>
       <c r="AD297" s="34"/>
       <c r="AE297" s="34"/>
     </row>
-    <row r="298" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="298" spans="29:31">
       <c r="AC298" s="34"/>
       <c r="AD298" s="34"/>
       <c r="AE298" s="34"/>
     </row>
-    <row r="299" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="299" spans="29:31">
       <c r="AC299" s="34"/>
       <c r="AD299" s="34"/>
       <c r="AE299" s="34"/>
     </row>
-    <row r="300" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="300" spans="29:31">
       <c r="AC300" s="34"/>
       <c r="AD300" s="34"/>
       <c r="AE300" s="34"/>
     </row>
-    <row r="301" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="301" spans="29:31">
       <c r="AC301" s="34"/>
       <c r="AD301" s="34"/>
       <c r="AE301" s="34"/>
     </row>
-    <row r="302" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="302" spans="29:31">
       <c r="AC302" s="34"/>
       <c r="AD302" s="34"/>
       <c r="AE302" s="34"/>
     </row>
-    <row r="303" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="303" spans="29:31">
       <c r="AC303" s="34"/>
       <c r="AD303" s="34"/>
       <c r="AE303" s="34"/>
     </row>
-    <row r="304" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="304" spans="29:31">
       <c r="AC304" s="34"/>
       <c r="AD304" s="34"/>
       <c r="AE304" s="34"/>
     </row>
-    <row r="305" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="305" spans="29:31">
       <c r="AC305" s="34"/>
       <c r="AD305" s="34"/>
       <c r="AE305" s="34"/>
     </row>
-    <row r="306" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="306" spans="29:31">
       <c r="AC306" s="34"/>
       <c r="AD306" s="34"/>
       <c r="AE306" s="34"/>
     </row>
-    <row r="307" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="307" spans="29:31">
       <c r="AC307" s="34"/>
       <c r="AD307" s="34"/>
       <c r="AE307" s="34"/>
     </row>
-    <row r="308" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="308" spans="29:31">
       <c r="AC308" s="34"/>
       <c r="AD308" s="34"/>
       <c r="AE308" s="34"/>
     </row>
-    <row r="309" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="309" spans="29:31">
       <c r="AC309" s="34"/>
       <c r="AD309" s="34"/>
       <c r="AE309" s="34"/>
     </row>
-    <row r="310" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="310" spans="29:31">
       <c r="AC310" s="34"/>
       <c r="AD310" s="34"/>
       <c r="AE310" s="34"/>
     </row>
-    <row r="311" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="311" spans="29:31">
       <c r="AC311" s="34"/>
       <c r="AD311" s="34"/>
       <c r="AE311" s="34"/>
     </row>
-    <row r="312" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="312" spans="29:31">
       <c r="AC312" s="34"/>
       <c r="AD312" s="34"/>
       <c r="AE312" s="34"/>
     </row>
-    <row r="313" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="313" spans="29:31">
       <c r="AC313" s="34"/>
       <c r="AD313" s="34"/>
       <c r="AE313" s="34"/>
     </row>
-    <row r="314" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="314" spans="29:31">
       <c r="AC314" s="34"/>
       <c r="AD314" s="34"/>
       <c r="AE314" s="34"/>
     </row>
-    <row r="315" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="315" spans="29:31">
       <c r="AC315" s="34"/>
       <c r="AD315" s="34"/>
       <c r="AE315" s="34"/>
     </row>
-    <row r="316" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="316" spans="29:31">
       <c r="AC316" s="34"/>
       <c r="AD316" s="34"/>
       <c r="AE316" s="34"/>
     </row>
-    <row r="317" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="317" spans="29:31">
       <c r="AC317" s="34"/>
       <c r="AD317" s="34"/>
       <c r="AE317" s="34"/>
     </row>
-    <row r="318" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="318" spans="29:31">
       <c r="AC318" s="34"/>
       <c r="AD318" s="34"/>
       <c r="AE318" s="34"/>
     </row>
-    <row r="319" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="319" spans="29:31">
       <c r="AC319" s="34"/>
       <c r="AD319" s="34"/>
       <c r="AE319" s="34"/>
     </row>
-    <row r="320" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="320" spans="29:31">
       <c r="AC320" s="34"/>
       <c r="AD320" s="34"/>
       <c r="AE320" s="34"/>
     </row>
-    <row r="321" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="321" spans="29:31">
       <c r="AC321" s="34"/>
       <c r="AD321" s="34"/>
       <c r="AE321" s="34"/>
     </row>
-    <row r="322" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="322" spans="29:31">
       <c r="AC322" s="34"/>
       <c r="AD322" s="34"/>
       <c r="AE322" s="34"/>
     </row>
-    <row r="323" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="323" spans="29:31">
       <c r="AC323" s="34"/>
       <c r="AD323" s="34"/>
       <c r="AE323" s="34"/>
     </row>
-    <row r="324" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="324" spans="29:31">
       <c r="AC324" s="34"/>
       <c r="AD324" s="34"/>
       <c r="AE324" s="34"/>
     </row>
-    <row r="325" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="325" spans="29:31">
       <c r="AC325" s="34"/>
       <c r="AD325" s="34"/>
       <c r="AE325" s="34"/>
     </row>
-    <row r="326" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="326" spans="29:31">
       <c r="AC326" s="34"/>
       <c r="AD326" s="34"/>
       <c r="AE326" s="34"/>
     </row>
-    <row r="327" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="327" spans="29:31">
       <c r="AC327" s="34"/>
       <c r="AD327" s="34"/>
       <c r="AE327" s="34"/>
     </row>
-    <row r="328" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="328" spans="29:31">
       <c r="AC328" s="34"/>
       <c r="AD328" s="34"/>
       <c r="AE328" s="34"/>
     </row>
-    <row r="329" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="329" spans="29:31">
       <c r="AC329" s="34"/>
       <c r="AD329" s="34"/>
       <c r="AE329" s="34"/>
     </row>
-    <row r="330" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="330" spans="29:31">
       <c r="AC330" s="34"/>
       <c r="AD330" s="34"/>
       <c r="AE330" s="34"/>
     </row>
-    <row r="331" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="331" spans="29:31">
       <c r="AC331" s="34"/>
       <c r="AD331" s="34"/>
       <c r="AE331" s="34"/>
     </row>
-    <row r="332" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="332" spans="29:31">
       <c r="AC332" s="34"/>
       <c r="AD332" s="34"/>
       <c r="AE332" s="34"/>
     </row>
-    <row r="333" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="333" spans="29:31">
       <c r="AC333" s="34"/>
       <c r="AD333" s="34"/>
       <c r="AE333" s="34"/>
     </row>
-    <row r="334" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="334" spans="29:31">
       <c r="AC334" s="34"/>
       <c r="AD334" s="34"/>
       <c r="AE334" s="34"/>
     </row>
-    <row r="335" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="335" spans="29:31">
       <c r="AC335" s="34"/>
       <c r="AD335" s="34"/>
       <c r="AE335" s="34"/>
     </row>
-    <row r="336" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="336" spans="29:31">
       <c r="AC336" s="34"/>
       <c r="AD336" s="34"/>
       <c r="AE336" s="34"/>
     </row>
-    <row r="337" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="337" spans="29:31">
       <c r="AC337" s="34"/>
       <c r="AD337" s="34"/>
       <c r="AE337" s="34"/>
     </row>
-    <row r="338" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="338" spans="29:31">
       <c r="AC338" s="34"/>
       <c r="AD338" s="34"/>
       <c r="AE338" s="34"/>
     </row>
-    <row r="339" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="339" spans="29:31">
       <c r="AC339" s="34"/>
       <c r="AD339" s="34"/>
       <c r="AE339" s="34"/>
     </row>
-    <row r="340" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="340" spans="29:31">
       <c r="AC340" s="34"/>
       <c r="AD340" s="34"/>
       <c r="AE340" s="34"/>
     </row>
-    <row r="341" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="341" spans="29:31">
       <c r="AC341" s="34"/>
       <c r="AD341" s="34"/>
       <c r="AE341" s="34"/>
     </row>
-    <row r="342" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="342" spans="29:31">
       <c r="AC342" s="34"/>
       <c r="AD342" s="34"/>
       <c r="AE342" s="34"/>
     </row>
-    <row r="343" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="343" spans="29:31">
       <c r="AC343" s="34"/>
       <c r="AD343" s="34"/>
       <c r="AE343" s="34"/>
     </row>
-    <row r="344" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="344" spans="29:31">
       <c r="AC344" s="34"/>
       <c r="AD344" s="34"/>
       <c r="AE344" s="34"/>
     </row>
-    <row r="345" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="345" spans="29:31">
       <c r="AC345" s="34"/>
       <c r="AD345" s="34"/>
       <c r="AE345" s="34"/>
     </row>
-    <row r="346" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="346" spans="29:31">
       <c r="AC346" s="34"/>
       <c r="AD346" s="34"/>
       <c r="AE346" s="34"/>
     </row>
-    <row r="347" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="347" spans="29:31">
       <c r="AC347" s="34"/>
       <c r="AD347" s="34"/>
       <c r="AE347" s="34"/>
     </row>
-    <row r="348" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="348" spans="29:31">
       <c r="AC348" s="34"/>
       <c r="AD348" s="34"/>
       <c r="AE348" s="34"/>
     </row>
-    <row r="349" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="349" spans="29:31">
       <c r="AC349" s="34"/>
       <c r="AD349" s="34"/>
       <c r="AE349" s="34"/>
     </row>
-    <row r="350" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="350" spans="29:31">
       <c r="AC350" s="34"/>
       <c r="AD350" s="34"/>
       <c r="AE350" s="34"/>
     </row>
-    <row r="351" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="351" spans="29:31">
       <c r="AC351" s="34"/>
       <c r="AD351" s="34"/>
       <c r="AE351" s="34"/>
     </row>
-    <row r="352" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="352" spans="29:31">
       <c r="AC352" s="34"/>
       <c r="AD352" s="34"/>
       <c r="AE352" s="34"/>
     </row>
-    <row r="353" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="353" spans="29:31">
       <c r="AC353" s="34"/>
       <c r="AD353" s="34"/>
       <c r="AE353" s="34"/>
     </row>
-    <row r="354" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="354" spans="29:31">
       <c r="AC354" s="34"/>
       <c r="AD354" s="34"/>
       <c r="AE354" s="34"/>
     </row>
-    <row r="355" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="355" spans="29:31">
       <c r="AC355" s="34"/>
       <c r="AD355" s="34"/>
       <c r="AE355" s="34"/>
     </row>
-    <row r="356" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="356" spans="29:31">
       <c r="AC356" s="34"/>
       <c r="AD356" s="34"/>
       <c r="AE356" s="34"/>
     </row>
-    <row r="357" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="357" spans="29:31">
       <c r="AC357" s="34"/>
       <c r="AD357" s="34"/>
       <c r="AE357" s="34"/>
     </row>
-    <row r="358" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="358" spans="29:31">
       <c r="AC358" s="34"/>
       <c r="AD358" s="34"/>
       <c r="AE358" s="34"/>
     </row>
-    <row r="359" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="359" spans="29:31">
       <c r="AC359" s="34"/>
       <c r="AD359" s="34"/>
       <c r="AE359" s="34"/>
     </row>
-    <row r="360" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="360" spans="29:31">
       <c r="AC360" s="34"/>
       <c r="AD360" s="34"/>
       <c r="AE360" s="34"/>
     </row>
-    <row r="361" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="361" spans="29:31">
       <c r="AC361" s="34"/>
       <c r="AD361" s="34"/>
       <c r="AE361" s="34"/>
     </row>
-    <row r="362" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="362" spans="29:31">
       <c r="AC362" s="34"/>
       <c r="AD362" s="34"/>
       <c r="AE362" s="34"/>
     </row>
-    <row r="363" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="363" spans="29:31">
       <c r="AC363" s="34"/>
       <c r="AD363" s="34"/>
       <c r="AE363" s="34"/>
     </row>
-    <row r="364" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="364" spans="29:31">
       <c r="AC364" s="34"/>
       <c r="AD364" s="34"/>
       <c r="AE364" s="34"/>
     </row>
-    <row r="365" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="365" spans="29:31">
       <c r="AC365" s="34"/>
       <c r="AD365" s="34"/>
       <c r="AE365" s="34"/>
     </row>
-    <row r="366" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="366" spans="29:31">
       <c r="AC366" s="34"/>
       <c r="AD366" s="34"/>
       <c r="AE366" s="34"/>
     </row>
-    <row r="367" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="367" spans="29:31">
       <c r="AC367" s="34"/>
       <c r="AD367" s="34"/>
       <c r="AE367" s="34"/>
     </row>
-    <row r="368" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="368" spans="29:31">
       <c r="AC368" s="34"/>
       <c r="AD368" s="34"/>
       <c r="AE368" s="34"/>
     </row>
-    <row r="369" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="369" spans="29:31">
       <c r="AC369" s="34"/>
       <c r="AD369" s="34"/>
       <c r="AE369" s="34"/>
     </row>
-    <row r="370" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="370" spans="29:31">
       <c r="AC370" s="34"/>
       <c r="AD370" s="34"/>
       <c r="AE370" s="34"/>
     </row>
-    <row r="371" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="371" spans="29:31">
       <c r="AC371" s="34"/>
       <c r="AD371" s="34"/>
       <c r="AE371" s="34"/>
     </row>
-    <row r="372" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="372" spans="29:31">
       <c r="AC372" s="34"/>
       <c r="AD372" s="34"/>
       <c r="AE372" s="34"/>
     </row>
-    <row r="373" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="373" spans="29:31">
       <c r="AC373" s="34"/>
       <c r="AD373" s="34"/>
       <c r="AE373" s="34"/>
     </row>
-    <row r="374" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="374" spans="29:31">
       <c r="AC374" s="34"/>
       <c r="AD374" s="34"/>
       <c r="AE374" s="34"/>
     </row>
-    <row r="375" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="375" spans="29:31">
       <c r="AC375" s="34"/>
       <c r="AD375" s="34"/>
       <c r="AE375" s="34"/>
     </row>
-    <row r="376" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="376" spans="29:31">
       <c r="AC376" s="34"/>
       <c r="AD376" s="34"/>
       <c r="AE376" s="34"/>
     </row>
-    <row r="377" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="377" spans="29:31">
       <c r="AC377" s="34"/>
       <c r="AD377" s="34"/>
       <c r="AE377" s="34"/>
     </row>
-    <row r="378" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="378" spans="29:31">
       <c r="AC378" s="34"/>
       <c r="AD378" s="34"/>
       <c r="AE378" s="34"/>
     </row>
-    <row r="379" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="379" spans="29:31">
       <c r="AC379" s="34"/>
       <c r="AD379" s="34"/>
       <c r="AE379" s="34"/>
     </row>
-    <row r="380" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="380" spans="29:31">
       <c r="AC380" s="34"/>
       <c r="AD380" s="34"/>
       <c r="AE380" s="34"/>
     </row>
-    <row r="381" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="381" spans="29:31">
       <c r="AC381" s="34"/>
       <c r="AD381" s="34"/>
       <c r="AE381" s="34"/>
     </row>
-    <row r="382" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="382" spans="29:31">
       <c r="AC382" s="34"/>
       <c r="AD382" s="34"/>
       <c r="AE382" s="34"/>
     </row>
-    <row r="383" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="383" spans="29:31">
       <c r="AC383" s="34"/>
       <c r="AD383" s="34"/>
       <c r="AE383" s="34"/>
     </row>
-    <row r="384" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="384" spans="29:31">
       <c r="AC384" s="34"/>
       <c r="AD384" s="34"/>
       <c r="AE384" s="34"/>
     </row>
-    <row r="385" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="385" spans="29:31">
       <c r="AC385" s="34"/>
       <c r="AD385" s="34"/>
       <c r="AE385" s="34"/>
     </row>
-    <row r="386" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="386" spans="29:31">
       <c r="AC386" s="34"/>
       <c r="AD386" s="34"/>
       <c r="AE386" s="34"/>
     </row>
-    <row r="387" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="387" spans="29:31">
       <c r="AC387" s="34"/>
       <c r="AD387" s="34"/>
       <c r="AE387" s="34"/>
     </row>
-    <row r="388" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="388" spans="29:31">
       <c r="AC388" s="34"/>
       <c r="AD388" s="34"/>
       <c r="AE388" s="34"/>
     </row>
-    <row r="389" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="389" spans="29:31">
       <c r="AC389" s="34"/>
       <c r="AD389" s="34"/>
       <c r="AE389" s="34"/>
     </row>
-    <row r="390" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="390" spans="29:31">
       <c r="AC390" s="34"/>
       <c r="AD390" s="34"/>
       <c r="AE390" s="34"/>
     </row>
-    <row r="391" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="391" spans="29:31">
       <c r="AC391" s="34"/>
       <c r="AD391" s="34"/>
       <c r="AE391" s="34"/>
     </row>
-    <row r="392" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="392" spans="29:31">
       <c r="AC392" s="34"/>
       <c r="AD392" s="34"/>
       <c r="AE392" s="34"/>
     </row>
-    <row r="393" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="393" spans="29:31">
       <c r="AC393" s="34"/>
       <c r="AD393" s="34"/>
       <c r="AE393" s="34"/>
     </row>
-    <row r="394" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="394" spans="29:31">
       <c r="AC394" s="34"/>
       <c r="AD394" s="34"/>
       <c r="AE394" s="34"/>
     </row>
-    <row r="395" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="395" spans="29:31">
       <c r="AC395" s="34"/>
       <c r="AD395" s="34"/>
       <c r="AE395" s="34"/>
     </row>
-    <row r="396" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="396" spans="29:31">
       <c r="AC396" s="34"/>
       <c r="AD396" s="34"/>
       <c r="AE396" s="34"/>
     </row>
-    <row r="397" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="397" spans="29:31">
       <c r="AC397" s="34"/>
       <c r="AD397" s="34"/>
       <c r="AE397" s="34"/>
     </row>
-    <row r="398" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="398" spans="29:31">
       <c r="AC398" s="34"/>
       <c r="AD398" s="34"/>
       <c r="AE398" s="34"/>
     </row>
-    <row r="399" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="399" spans="29:31">
       <c r="AC399" s="34"/>
       <c r="AD399" s="34"/>
       <c r="AE399" s="34"/>
     </row>
-    <row r="400" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="400" spans="29:31">
       <c r="AC400" s="34"/>
       <c r="AD400" s="34"/>
       <c r="AE400" s="34"/>
     </row>
-    <row r="401" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="401" spans="29:31">
       <c r="AC401" s="34"/>
       <c r="AD401" s="34"/>
       <c r="AE401" s="34"/>
     </row>
-    <row r="402" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="402" spans="29:31">
       <c r="AC402" s="34"/>
       <c r="AD402" s="34"/>
       <c r="AE402" s="34"/>
     </row>
-    <row r="403" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="403" spans="29:31">
       <c r="AC403" s="34"/>
       <c r="AD403" s="34"/>
       <c r="AE403" s="34"/>
     </row>
-    <row r="404" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="404" spans="29:31">
       <c r="AC404" s="34"/>
       <c r="AD404" s="34"/>
       <c r="AE404" s="34"/>
     </row>
-    <row r="405" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="405" spans="29:31">
       <c r="AC405" s="34"/>
       <c r="AD405" s="34"/>
       <c r="AE405" s="34"/>
     </row>
-    <row r="406" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="406" spans="29:31">
       <c r="AC406" s="34"/>
       <c r="AD406" s="34"/>
       <c r="AE406" s="34"/>
     </row>
-    <row r="407" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="407" spans="29:31">
       <c r="AC407" s="34"/>
       <c r="AD407" s="34"/>
       <c r="AE407" s="34"/>
     </row>
-    <row r="408" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="408" spans="29:31">
       <c r="AC408" s="34"/>
       <c r="AD408" s="34"/>
       <c r="AE408" s="34"/>
     </row>
-    <row r="409" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="409" spans="29:31">
       <c r="AC409" s="34"/>
       <c r="AD409" s="34"/>
       <c r="AE409" s="34"/>
     </row>
-    <row r="410" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="410" spans="29:31">
       <c r="AC410" s="34"/>
       <c r="AD410" s="34"/>
       <c r="AE410" s="34"/>
     </row>
-    <row r="411" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="411" spans="29:31">
       <c r="AC411" s="34"/>
       <c r="AD411" s="34"/>
       <c r="AE411" s="34"/>
     </row>
-    <row r="412" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="412" spans="29:31">
       <c r="AC412" s="34"/>
       <c r="AD412" s="34"/>
       <c r="AE412" s="34"/>
     </row>
-    <row r="413" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="413" spans="29:31">
       <c r="AC413" s="34"/>
       <c r="AD413" s="34"/>
       <c r="AE413" s="34"/>
     </row>
-    <row r="414" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="414" spans="29:31">
       <c r="AC414" s="34"/>
       <c r="AD414" s="34"/>
       <c r="AE414" s="34"/>
     </row>
-    <row r="415" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="415" spans="29:31">
       <c r="AC415" s="34"/>
       <c r="AD415" s="34"/>
       <c r="AE415" s="34"/>
     </row>
-    <row r="416" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="416" spans="29:31">
       <c r="AC416" s="34"/>
       <c r="AD416" s="34"/>
       <c r="AE416" s="34"/>
     </row>
-    <row r="417" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="417" spans="29:31">
       <c r="AC417" s="34"/>
       <c r="AD417" s="34"/>
       <c r="AE417" s="34"/>
     </row>
-    <row r="418" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="418" spans="29:31">
       <c r="AC418" s="34"/>
       <c r="AD418" s="34"/>
       <c r="AE418" s="34"/>
     </row>
-    <row r="419" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="419" spans="29:31">
       <c r="AC419" s="34"/>
       <c r="AD419" s="34"/>
       <c r="AE419" s="34"/>
     </row>
-    <row r="420" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="420" spans="29:31">
       <c r="AC420" s="34"/>
       <c r="AD420" s="34"/>
       <c r="AE420" s="34"/>
     </row>
-    <row r="421" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="421" spans="29:31">
       <c r="AC421" s="34"/>
       <c r="AD421" s="34"/>
       <c r="AE421" s="34"/>
     </row>
-    <row r="422" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="422" spans="29:31">
       <c r="AC422" s="34"/>
       <c r="AD422" s="34"/>
       <c r="AE422" s="34"/>
     </row>
-    <row r="423" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="423" spans="29:31">
       <c r="AC423" s="34"/>
       <c r="AD423" s="34"/>
       <c r="AE423" s="34"/>
     </row>
-    <row r="424" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="424" spans="29:31">
       <c r="AC424" s="34"/>
       <c r="AD424" s="34"/>
       <c r="AE424" s="34"/>
     </row>
-    <row r="425" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="425" spans="29:31">
       <c r="AC425" s="34"/>
       <c r="AD425" s="34"/>
       <c r="AE425" s="34"/>
     </row>
-    <row r="426" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="426" spans="29:31">
       <c r="AC426" s="34"/>
       <c r="AD426" s="34"/>
       <c r="AE426" s="34"/>
     </row>
-    <row r="427" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="427" spans="29:31">
       <c r="AC427" s="34"/>
       <c r="AD427" s="34"/>
       <c r="AE427" s="34"/>
     </row>
-    <row r="428" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="428" spans="29:31">
       <c r="AC428" s="34"/>
       <c r="AD428" s="34"/>
       <c r="AE428" s="34"/>
     </row>
-    <row r="429" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="429" spans="29:31">
       <c r="AC429" s="34"/>
       <c r="AD429" s="34"/>
       <c r="AE429" s="34"/>
     </row>
-    <row r="430" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="430" spans="29:31">
       <c r="AC430" s="34"/>
       <c r="AD430" s="34"/>
       <c r="AE430" s="34"/>
     </row>
-    <row r="431" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="431" spans="29:31">
       <c r="AC431" s="34"/>
       <c r="AD431" s="34"/>
       <c r="AE431" s="34"/>
     </row>
-    <row r="432" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="432" spans="29:31">
       <c r="AC432" s="34"/>
       <c r="AD432" s="34"/>
       <c r="AE432" s="34"/>
     </row>
-    <row r="433" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="433" spans="29:31">
       <c r="AC433" s="34"/>
       <c r="AD433" s="34"/>
       <c r="AE433" s="34"/>
     </row>
-    <row r="434" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="434" spans="29:31">
       <c r="AC434" s="34"/>
       <c r="AD434" s="34"/>
       <c r="AE434" s="34"/>
     </row>
-    <row r="435" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="435" spans="29:31">
       <c r="AC435" s="34"/>
       <c r="AD435" s="34"/>
       <c r="AE435" s="34"/>
     </row>
-    <row r="436" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="436" spans="29:31">
       <c r="AC436" s="34"/>
       <c r="AD436" s="34"/>
       <c r="AE436" s="34"/>
     </row>
-    <row r="437" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="437" spans="29:31">
       <c r="AC437" s="34"/>
       <c r="AD437" s="34"/>
       <c r="AE437" s="34"/>
     </row>
-    <row r="438" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="438" spans="29:31">
       <c r="AC438" s="34"/>
       <c r="AD438" s="34"/>
       <c r="AE438" s="34"/>
     </row>
-    <row r="439" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="439" spans="29:31">
       <c r="AC439" s="34"/>
       <c r="AD439" s="34"/>
       <c r="AE439" s="34"/>
     </row>
-    <row r="440" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="440" spans="29:31">
       <c r="AC440" s="34"/>
       <c r="AD440" s="34"/>
       <c r="AE440" s="34"/>
     </row>
-    <row r="441" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="441" spans="29:31">
       <c r="AC441" s="34"/>
       <c r="AD441" s="34"/>
       <c r="AE441" s="34"/>
     </row>
-    <row r="442" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="442" spans="29:31">
       <c r="AC442" s="34"/>
       <c r="AD442" s="34"/>
       <c r="AE442" s="34"/>
     </row>
-    <row r="443" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="443" spans="29:31">
       <c r="AC443" s="34"/>
       <c r="AD443" s="34"/>
       <c r="AE443" s="34"/>
     </row>
-    <row r="444" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="444" spans="29:31">
       <c r="AC444" s="34"/>
       <c r="AD444" s="34"/>
       <c r="AE444" s="34"/>
     </row>
-    <row r="445" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="445" spans="29:31">
       <c r="AC445" s="34"/>
       <c r="AD445" s="34"/>
       <c r="AE445" s="34"/>
     </row>
-    <row r="446" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="446" spans="29:31">
       <c r="AC446" s="34"/>
       <c r="AD446" s="34"/>
       <c r="AE446" s="34"/>
     </row>
-    <row r="447" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="447" spans="29:31">
       <c r="AC447" s="34"/>
       <c r="AD447" s="34"/>
       <c r="AE447" s="34"/>
     </row>
-    <row r="448" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="448" spans="29:31">
       <c r="AC448" s="34"/>
       <c r="AD448" s="34"/>
       <c r="AE448" s="34"/>
     </row>
-    <row r="449" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="449" spans="29:31">
       <c r="AC449" s="34"/>
       <c r="AD449" s="34"/>
       <c r="AE449" s="34"/>
     </row>
-    <row r="450" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="450" spans="29:31">
       <c r="AC450" s="34"/>
       <c r="AD450" s="34"/>
       <c r="AE450" s="34"/>
     </row>
-    <row r="451" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="451" spans="29:31">
       <c r="AC451" s="34"/>
       <c r="AD451" s="34"/>
       <c r="AE451" s="34"/>
     </row>
-    <row r="452" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="452" spans="29:31">
       <c r="AC452" s="34"/>
       <c r="AD452" s="34"/>
       <c r="AE452" s="34"/>
     </row>
-    <row r="453" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="453" spans="29:31">
       <c r="AC453" s="34"/>
       <c r="AD453" s="34"/>
       <c r="AE453" s="34"/>
     </row>
-    <row r="454" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="454" spans="29:31">
       <c r="AC454" s="34"/>
       <c r="AD454" s="34"/>
       <c r="AE454" s="34"/>
     </row>
-    <row r="455" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="455" spans="29:31">
       <c r="AC455" s="34"/>
       <c r="AD455" s="34"/>
       <c r="AE455" s="34"/>
     </row>
-    <row r="456" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="456" spans="29:31">
       <c r="AC456" s="34"/>
       <c r="AD456" s="34"/>
       <c r="AE456" s="34"/>
     </row>
-    <row r="457" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="457" spans="29:31">
       <c r="AC457" s="34"/>
       <c r="AD457" s="34"/>
       <c r="AE457" s="34"/>
     </row>
-    <row r="458" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="458" spans="29:31">
       <c r="AC458" s="34"/>
       <c r="AD458" s="34"/>
       <c r="AE458" s="34"/>
     </row>
-    <row r="459" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="459" spans="29:31">
       <c r="AC459" s="34"/>
       <c r="AD459" s="34"/>
       <c r="AE459" s="34"/>
     </row>
-    <row r="460" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="460" spans="29:31">
       <c r="AC460" s="34"/>
       <c r="AD460" s="34"/>
       <c r="AE460" s="34"/>
     </row>
-    <row r="461" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="461" spans="29:31">
       <c r="AC461" s="34"/>
       <c r="AD461" s="34"/>
       <c r="AE461" s="34"/>
     </row>
-    <row r="462" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="462" spans="29:31">
       <c r="AC462" s="34"/>
       <c r="AD462" s="34"/>
       <c r="AE462" s="34"/>
     </row>
-    <row r="463" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="463" spans="29:31">
       <c r="AC463" s="34"/>
       <c r="AD463" s="34"/>
       <c r="AE463" s="34"/>
     </row>
-    <row r="464" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="464" spans="29:31">
       <c r="AC464" s="34"/>
       <c r="AD464" s="34"/>
       <c r="AE464" s="34"/>
     </row>
-    <row r="465" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="465" spans="29:31">
       <c r="AC465" s="34"/>
       <c r="AD465" s="34"/>
       <c r="AE465" s="34"/>
     </row>
-    <row r="466" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="466" spans="29:31">
       <c r="AC466" s="34"/>
       <c r="AD466" s="34"/>
       <c r="AE466" s="34"/>
     </row>
-    <row r="467" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="467" spans="29:31">
       <c r="AC467" s="34"/>
       <c r="AD467" s="34"/>
       <c r="AE467" s="34"/>
     </row>
-    <row r="468" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="468" spans="29:31">
       <c r="AC468" s="34"/>
       <c r="AD468" s="34"/>
       <c r="AE468" s="34"/>
     </row>
-    <row r="469" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="469" spans="29:31">
       <c r="AC469" s="34"/>
       <c r="AD469" s="34"/>
       <c r="AE469" s="34"/>
     </row>
-    <row r="470" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="470" spans="29:31">
       <c r="AC470" s="34"/>
       <c r="AD470" s="34"/>
       <c r="AE470" s="34"/>
     </row>
-    <row r="471" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="471" spans="29:31">
       <c r="AC471" s="34"/>
       <c r="AD471" s="34"/>
       <c r="AE471" s="34"/>
     </row>
-    <row r="472" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="472" spans="29:31">
       <c r="AC472" s="34"/>
       <c r="AD472" s="34"/>
       <c r="AE472" s="34"/>
     </row>
-    <row r="473" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="473" spans="29:31">
       <c r="AC473" s="34"/>
       <c r="AD473" s="34"/>
       <c r="AE473" s="34"/>
     </row>
-    <row r="474" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="474" spans="29:31">
       <c r="AC474" s="34"/>
       <c r="AD474" s="34"/>
       <c r="AE474" s="34"/>
     </row>
-    <row r="475" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="475" spans="29:31">
       <c r="AC475" s="34"/>
       <c r="AD475" s="34"/>
       <c r="AE475" s="34"/>
     </row>
-    <row r="476" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="476" spans="29:31">
       <c r="AC476" s="34"/>
       <c r="AD476" s="34"/>
       <c r="AE476" s="34"/>
     </row>
-    <row r="477" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="477" spans="29:31">
       <c r="AC477" s="34"/>
       <c r="AD477" s="34"/>
       <c r="AE477" s="34"/>
     </row>
-    <row r="478" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="478" spans="29:31">
       <c r="AC478" s="34"/>
       <c r="AD478" s="34"/>
       <c r="AE478" s="34"/>
     </row>
-    <row r="479" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="479" spans="29:31">
       <c r="AC479" s="34"/>
       <c r="AD479" s="34"/>
       <c r="AE479" s="34"/>
     </row>
-    <row r="480" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="480" spans="29:31">
       <c r="AC480" s="34"/>
       <c r="AD480" s="34"/>
       <c r="AE480" s="34"/>
     </row>
-    <row r="481" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="481" spans="29:31">
       <c r="AC481" s="34"/>
       <c r="AD481" s="34"/>
       <c r="AE481" s="34"/>
     </row>
-    <row r="482" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="482" spans="29:31">
       <c r="AC482" s="34"/>
       <c r="AD482" s="34"/>
       <c r="AE482" s="34"/>
     </row>
-    <row r="483" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="483" spans="29:31">
       <c r="AC483" s="34"/>
       <c r="AD483" s="34"/>
       <c r="AE483" s="34"/>
     </row>
-    <row r="484" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="484" spans="29:31">
       <c r="AC484" s="34"/>
       <c r="AD484" s="34"/>
       <c r="AE484" s="34"/>
     </row>
-    <row r="485" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="485" spans="29:31">
       <c r="AC485" s="34"/>
       <c r="AD485" s="34"/>
       <c r="AE485" s="34"/>
     </row>
-    <row r="486" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="486" spans="29:31">
       <c r="AC486" s="34"/>
       <c r="AD486" s="34"/>
       <c r="AE486" s="34"/>
     </row>
-    <row r="487" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="487" spans="29:31">
       <c r="AC487" s="34"/>
       <c r="AD487" s="34"/>
       <c r="AE487" s="34"/>
     </row>
-    <row r="488" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="488" spans="29:31">
       <c r="AC488" s="34"/>
       <c r="AD488" s="34"/>
       <c r="AE488" s="34"/>
     </row>
-    <row r="489" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="489" spans="29:31">
       <c r="AC489" s="34"/>
       <c r="AD489" s="34"/>
       <c r="AE489" s="34"/>
     </row>
-    <row r="490" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="490" spans="29:31">
       <c r="AC490" s="34"/>
       <c r="AD490" s="34"/>
       <c r="AE490" s="34"/>
     </row>
-    <row r="491" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="491" spans="29:31">
       <c r="AC491" s="34"/>
       <c r="AD491" s="34"/>
       <c r="AE491" s="34"/>
     </row>
-    <row r="492" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="492" spans="29:31">
       <c r="AC492" s="34"/>
       <c r="AD492" s="34"/>
       <c r="AE492" s="34"/>
     </row>
-    <row r="493" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="493" spans="29:31">
       <c r="AC493" s="34"/>
       <c r="AD493" s="34"/>
       <c r="AE493" s="34"/>
     </row>
-    <row r="494" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="494" spans="29:31">
       <c r="AC494" s="34"/>
       <c r="AD494" s="34"/>
       <c r="AE494" s="34"/>
     </row>
-    <row r="495" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="495" spans="29:31">
       <c r="AC495" s="34"/>
       <c r="AD495" s="34"/>
       <c r="AE495" s="34"/>
     </row>
-    <row r="496" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="496" spans="29:31">
       <c r="AC496" s="34"/>
       <c r="AD496" s="34"/>
       <c r="AE496" s="34"/>
     </row>
-    <row r="497" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="497" spans="29:31">
       <c r="AC497" s="34"/>
       <c r="AD497" s="34"/>
       <c r="AE497" s="34"/>
     </row>
-    <row r="498" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="498" spans="29:31">
       <c r="AC498" s="34"/>
       <c r="AD498" s="34"/>
       <c r="AE498" s="34"/>
     </row>
-    <row r="499" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="499" spans="29:31">
       <c r="AC499" s="34"/>
       <c r="AD499" s="34"/>
       <c r="AE499" s="34"/>
     </row>
-    <row r="500" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="500" spans="29:31">
       <c r="AC500" s="34"/>
       <c r="AD500" s="34"/>
       <c r="AE500" s="34"/>
     </row>
-    <row r="501" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="501" spans="29:31">
       <c r="AC501" s="34"/>
       <c r="AD501" s="34"/>
       <c r="AE501" s="34"/>
     </row>
-    <row r="502" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="502" spans="29:31">
       <c r="AC502" s="34"/>
       <c r="AD502" s="34"/>
       <c r="AE502" s="34"/>
     </row>
-    <row r="503" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="503" spans="29:31">
       <c r="AC503" s="34"/>
       <c r="AD503" s="34"/>
       <c r="AE503" s="34"/>
     </row>
-    <row r="504" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="504" spans="29:31">
       <c r="AC504" s="34"/>
       <c r="AD504" s="34"/>
       <c r="AE504" s="34"/>
     </row>
-    <row r="505" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="505" spans="29:31">
       <c r="AC505" s="34"/>
       <c r="AD505" s="34"/>
       <c r="AE505" s="34"/>
     </row>
-    <row r="506" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="506" spans="29:31">
       <c r="AC506" s="34"/>
       <c r="AD506" s="34"/>
       <c r="AE506" s="34"/>
     </row>
-    <row r="507" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="507" spans="29:31">
       <c r="AC507" s="34"/>
       <c r="AD507" s="34"/>
       <c r="AE507" s="34"/>
     </row>
-    <row r="508" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="508" spans="29:31">
       <c r="AC508" s="34"/>
       <c r="AD508" s="34"/>
       <c r="AE508" s="34"/>
     </row>
-    <row r="509" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="509" spans="29:31">
       <c r="AC509" s="34"/>
       <c r="AD509" s="34"/>
       <c r="AE509" s="34"/>
     </row>
-    <row r="510" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="510" spans="29:31">
       <c r="AC510" s="34"/>
       <c r="AD510" s="34"/>
       <c r="AE510" s="34"/>
     </row>
-    <row r="511" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="511" spans="29:31">
       <c r="AC511" s="34"/>
       <c r="AD511" s="34"/>
       <c r="AE511" s="34"/>
     </row>
-    <row r="512" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="512" spans="29:31">
       <c r="AC512" s="34"/>
       <c r="AD512" s="34"/>
       <c r="AE512" s="34"/>
     </row>
-    <row r="513" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="513" spans="29:31">
       <c r="AC513" s="34"/>
       <c r="AD513" s="34"/>
       <c r="AE513" s="34"/>
     </row>
-    <row r="514" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="514" spans="29:31">
       <c r="AC514" s="34"/>
       <c r="AD514" s="34"/>
       <c r="AE514" s="34"/>
     </row>
-    <row r="515" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="515" spans="29:31">
       <c r="AC515" s="34"/>
       <c r="AD515" s="34"/>
       <c r="AE515" s="34"/>
     </row>
-    <row r="516" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="516" spans="29:31">
       <c r="AC516" s="34"/>
       <c r="AD516" s="34"/>
       <c r="AE516" s="34"/>
     </row>
-    <row r="517" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="517" spans="29:31">
       <c r="AC517" s="34"/>
       <c r="AD517" s="34"/>
       <c r="AE517" s="34"/>
     </row>
-    <row r="518" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="518" spans="29:31">
       <c r="AC518" s="34"/>
       <c r="AD518" s="34"/>
       <c r="AE518" s="34"/>
     </row>
-    <row r="519" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="519" spans="29:31">
       <c r="AC519" s="34"/>
       <c r="AD519" s="34"/>
       <c r="AE519" s="34"/>
     </row>
-    <row r="520" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="520" spans="29:31">
       <c r="AC520" s="34"/>
       <c r="AD520" s="34"/>
       <c r="AE520" s="34"/>
     </row>
-    <row r="521" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="521" spans="29:31">
       <c r="AC521" s="34"/>
       <c r="AD521" s="34"/>
       <c r="AE521" s="34"/>
     </row>
-    <row r="522" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="522" spans="29:31">
       <c r="AC522" s="34"/>
       <c r="AD522" s="34"/>
       <c r="AE522" s="34"/>
     </row>
-    <row r="523" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="523" spans="29:31">
       <c r="AC523" s="34"/>
       <c r="AD523" s="34"/>
       <c r="AE523" s="34"/>
     </row>
-    <row r="524" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="524" spans="29:31">
       <c r="AC524" s="34"/>
       <c r="AD524" s="34"/>
       <c r="AE524" s="34"/>
     </row>
-    <row r="525" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="525" spans="29:31">
       <c r="AC525" s="34"/>
       <c r="AD525" s="34"/>
       <c r="AE525" s="34"/>
     </row>
-    <row r="526" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="526" spans="29:31">
       <c r="AC526" s="34"/>
       <c r="AD526" s="34"/>
       <c r="AE526" s="34"/>
     </row>
-    <row r="527" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="527" spans="29:31">
       <c r="AC527" s="34"/>
       <c r="AD527" s="34"/>
       <c r="AE527" s="34"/>
     </row>
-    <row r="528" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="528" spans="29:31">
       <c r="AC528" s="34"/>
       <c r="AD528" s="34"/>
       <c r="AE528" s="34"/>
     </row>
-    <row r="529" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="529" spans="29:31">
       <c r="AC529" s="34"/>
       <c r="AD529" s="34"/>
       <c r="AE529" s="34"/>
     </row>
-    <row r="530" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="530" spans="29:31">
       <c r="AC530" s="34"/>
       <c r="AD530" s="34"/>
       <c r="AE530" s="34"/>
     </row>
-    <row r="531" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="531" spans="29:31">
       <c r="AC531" s="34"/>
       <c r="AD531" s="34"/>
       <c r="AE531" s="34"/>
     </row>
-    <row r="532" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="532" spans="29:31">
       <c r="AC532" s="34"/>
       <c r="AD532" s="34"/>
       <c r="AE532" s="34"/>
     </row>
-    <row r="533" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="533" spans="29:31">
       <c r="AC533" s="34"/>
       <c r="AD533" s="34"/>
       <c r="AE533" s="34"/>
     </row>
-    <row r="534" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="534" spans="29:31">
       <c r="AC534" s="34"/>
       <c r="AD534" s="34"/>
       <c r="AE534" s="34"/>
     </row>
-    <row r="535" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="535" spans="29:31">
       <c r="AC535" s="34"/>
       <c r="AD535" s="34"/>
       <c r="AE535" s="34"/>
     </row>
-    <row r="536" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="536" spans="29:31">
       <c r="AC536" s="34"/>
       <c r="AD536" s="34"/>
       <c r="AE536" s="34"/>
     </row>
-    <row r="537" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="537" spans="29:31">
       <c r="AC537" s="34"/>
       <c r="AD537" s="34"/>
       <c r="AE537" s="34"/>
     </row>
-    <row r="538" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="538" spans="29:31">
       <c r="AC538" s="34"/>
       <c r="AD538" s="34"/>
       <c r="AE538" s="34"/>
     </row>
-    <row r="539" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="539" spans="29:31">
       <c r="AC539" s="34"/>
       <c r="AD539" s="34"/>
       <c r="AE539" s="34"/>
     </row>
-    <row r="540" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="540" spans="29:31">
       <c r="AC540" s="34"/>
       <c r="AD540" s="34"/>
       <c r="AE540" s="34"/>
     </row>
-    <row r="541" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="541" spans="29:31">
       <c r="AC541" s="34"/>
       <c r="AD541" s="34"/>
       <c r="AE541" s="34"/>
     </row>
-    <row r="542" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="542" spans="29:31">
       <c r="AC542" s="34"/>
       <c r="AD542" s="34"/>
       <c r="AE542" s="34"/>
     </row>
-    <row r="543" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="543" spans="29:31">
       <c r="AC543" s="34"/>
       <c r="AD543" s="34"/>
       <c r="AE543" s="34"/>
     </row>
-    <row r="544" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="544" spans="29:31">
       <c r="AC544" s="34"/>
       <c r="AD544" s="34"/>
       <c r="AE544" s="34"/>
     </row>
-    <row r="545" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="545" spans="29:31">
       <c r="AC545" s="34"/>
       <c r="AD545" s="34"/>
       <c r="AE545" s="34"/>
     </row>
-    <row r="546" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="546" spans="29:31">
       <c r="AC546" s="34"/>
       <c r="AD546" s="34"/>
       <c r="AE546" s="34"/>
     </row>
-    <row r="547" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="547" spans="29:31">
       <c r="AC547" s="34"/>
       <c r="AD547" s="34"/>
       <c r="AE547" s="34"/>
     </row>
-    <row r="548" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="548" spans="29:31">
       <c r="AC548" s="34"/>
       <c r="AD548" s="34"/>
       <c r="AE548" s="34"/>
     </row>
-    <row r="549" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="549" spans="29:31">
       <c r="AC549" s="34"/>
       <c r="AD549" s="34"/>
       <c r="AE549" s="34"/>
     </row>
-    <row r="550" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="550" spans="29:31">
       <c r="AC550" s="34"/>
       <c r="AD550" s="34"/>
       <c r="AE550" s="34"/>
     </row>
-    <row r="551" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="551" spans="29:31">
       <c r="AC551" s="34"/>
       <c r="AD551" s="34"/>
       <c r="AE551" s="34"/>
     </row>
-    <row r="552" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="552" spans="29:31">
       <c r="AC552" s="34"/>
       <c r="AD552" s="34"/>
       <c r="AE552" s="34"/>
     </row>
-    <row r="553" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="553" spans="29:31">
       <c r="AC553" s="34"/>
       <c r="AD553" s="34"/>
       <c r="AE553" s="34"/>
     </row>
-    <row r="554" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="554" spans="29:31">
       <c r="AC554" s="34"/>
       <c r="AD554" s="34"/>
       <c r="AE554" s="34"/>
     </row>
-    <row r="555" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="555" spans="29:31">
       <c r="AC555" s="34"/>
       <c r="AD555" s="34"/>
       <c r="AE555" s="34"/>
     </row>
-    <row r="556" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="556" spans="29:31">
       <c r="AC556" s="34"/>
       <c r="AD556" s="34"/>
       <c r="AE556" s="34"/>
     </row>
-    <row r="557" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="557" spans="29:31">
       <c r="AC557" s="34"/>
       <c r="AD557" s="34"/>
       <c r="AE557" s="34"/>
     </row>
-    <row r="558" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="558" spans="29:31">
       <c r="AC558" s="34"/>
       <c r="AD558" s="34"/>
       <c r="AE558" s="34"/>
     </row>
-    <row r="559" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="559" spans="29:31">
       <c r="AC559" s="34"/>
       <c r="AD559" s="34"/>
       <c r="AE559" s="34"/>
     </row>
-    <row r="560" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="560" spans="29:31">
       <c r="AC560" s="34"/>
       <c r="AD560" s="34"/>
       <c r="AE560" s="34"/>
     </row>
-    <row r="561" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="561" spans="29:31">
       <c r="AC561" s="34"/>
       <c r="AD561" s="34"/>
       <c r="AE561" s="34"/>
     </row>
-    <row r="562" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="562" spans="29:31">
       <c r="AC562" s="34"/>
       <c r="AD562" s="34"/>
       <c r="AE562" s="34"/>
     </row>
-    <row r="563" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="563" spans="29:31">
       <c r="AC563" s="34"/>
       <c r="AD563" s="34"/>
       <c r="AE563" s="34"/>
     </row>
-    <row r="564" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="564" spans="29:31">
       <c r="AC564" s="34"/>
       <c r="AD564" s="34"/>
       <c r="AE564" s="34"/>
     </row>
-    <row r="565" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="565" spans="29:31">
       <c r="AC565" s="34"/>
       <c r="AD565" s="34"/>
       <c r="AE565" s="34"/>
     </row>
-    <row r="566" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="566" spans="29:31">
       <c r="AC566" s="34"/>
       <c r="AD566" s="34"/>
       <c r="AE566" s="34"/>
     </row>
-    <row r="567" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="567" spans="29:31">
       <c r="AC567" s="34"/>
       <c r="AD567" s="34"/>
       <c r="AE567" s="34"/>
     </row>
-    <row r="568" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="568" spans="29:31">
       <c r="AC568" s="34"/>
       <c r="AD568" s="34"/>
       <c r="AE568" s="34"/>
     </row>
-    <row r="569" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="569" spans="29:31">
       <c r="AC569" s="34"/>
       <c r="AD569" s="34"/>
       <c r="AE569" s="34"/>
     </row>
-    <row r="570" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="570" spans="29:31">
       <c r="AC570" s="34"/>
       <c r="AD570" s="34"/>
       <c r="AE570" s="34"/>
     </row>
-    <row r="571" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="571" spans="29:31">
       <c r="AC571" s="34"/>
       <c r="AD571" s="34"/>
       <c r="AE571" s="34"/>
     </row>
-    <row r="572" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="572" spans="29:31">
       <c r="AC572" s="34"/>
       <c r="AD572" s="34"/>
       <c r="AE572" s="34"/>
     </row>
-    <row r="573" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="573" spans="29:31">
       <c r="AC573" s="34"/>
       <c r="AD573" s="34"/>
       <c r="AE573" s="34"/>
     </row>
-    <row r="574" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="574" spans="29:31">
       <c r="AC574" s="34"/>
       <c r="AD574" s="34"/>
       <c r="AE574" s="34"/>
     </row>
-    <row r="575" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="575" spans="29:31">
       <c r="AC575" s="34"/>
       <c r="AD575" s="34"/>
       <c r="AE575" s="34"/>
     </row>
-    <row r="576" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="576" spans="29:31">
       <c r="AC576" s="34"/>
       <c r="AD576" s="34"/>
       <c r="AE576" s="34"/>
     </row>
-    <row r="577" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="577" spans="29:31">
       <c r="AC577" s="34"/>
       <c r="AD577" s="34"/>
       <c r="AE577" s="34"/>
     </row>
-    <row r="578" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="578" spans="29:31">
       <c r="AC578" s="34"/>
       <c r="AD578" s="34"/>
       <c r="AE578" s="34"/>
     </row>
-    <row r="579" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="579" spans="29:31">
       <c r="AC579" s="34"/>
       <c r="AD579" s="34"/>
       <c r="AE579" s="34"/>
     </row>
-    <row r="580" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="580" spans="29:31">
       <c r="AC580" s="34"/>
       <c r="AD580" s="34"/>
       <c r="AE580" s="34"/>
     </row>
-    <row r="581" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="581" spans="29:31">
       <c r="AC581" s="34"/>
       <c r="AD581" s="34"/>
       <c r="AE581" s="34"/>
     </row>
-    <row r="582" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="582" spans="29:31">
       <c r="AC582" s="34"/>
       <c r="AD582" s="34"/>
       <c r="AE582" s="34"/>
     </row>
-    <row r="583" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="583" spans="29:31">
       <c r="AC583" s="34"/>
       <c r="AD583" s="34"/>
       <c r="AE583" s="34"/>
     </row>
-    <row r="584" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="584" spans="29:31">
       <c r="AC584" s="34"/>
       <c r="AD584" s="34"/>
       <c r="AE584" s="34"/>
     </row>
-    <row r="585" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="585" spans="29:31">
       <c r="AC585" s="34"/>
       <c r="AD585" s="34"/>
       <c r="AE585" s="34"/>
     </row>
-    <row r="586" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="586" spans="29:31">
       <c r="AC586" s="34"/>
       <c r="AD586" s="34"/>
       <c r="AE586" s="34"/>
     </row>
-    <row r="587" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="587" spans="29:31">
       <c r="AC587" s="34"/>
       <c r="AD587" s="34"/>
       <c r="AE587" s="34"/>
     </row>
-    <row r="588" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="588" spans="29:31">
       <c r="AC588" s="34"/>
       <c r="AD588" s="34"/>
       <c r="AE588" s="34"/>
     </row>
-    <row r="589" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="589" spans="29:31">
       <c r="AC589" s="34"/>
       <c r="AD589" s="34"/>
       <c r="AE589" s="34"/>
     </row>
-    <row r="590" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="590" spans="29:31">
       <c r="AC590" s="34"/>
       <c r="AD590" s="34"/>
       <c r="AE590" s="34"/>
     </row>
-    <row r="591" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="591" spans="29:31">
       <c r="AC591" s="34"/>
       <c r="AD591" s="34"/>
       <c r="AE591" s="34"/>
     </row>
-    <row r="592" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="592" spans="29:31">
       <c r="AC592" s="34"/>
       <c r="AD592" s="34"/>
       <c r="AE592" s="34"/>
     </row>
-    <row r="593" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="593" spans="29:31">
       <c r="AC593" s="34"/>
       <c r="AD593" s="34"/>
       <c r="AE593" s="34"/>
     </row>
-    <row r="594" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="594" spans="29:31">
       <c r="AC594" s="34"/>
       <c r="AD594" s="34"/>
       <c r="AE594" s="34"/>
     </row>
-    <row r="595" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="595" spans="29:31">
       <c r="AC595" s="34"/>
       <c r="AD595" s="34"/>
       <c r="AE595" s="34"/>
     </row>
-    <row r="596" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="596" spans="29:31">
       <c r="AC596" s="34"/>
       <c r="AD596" s="34"/>
       <c r="AE596" s="34"/>
     </row>
-    <row r="597" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="597" spans="29:31">
       <c r="AC597" s="34"/>
       <c r="AD597" s="34"/>
       <c r="AE597" s="34"/>
     </row>
-    <row r="598" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="598" spans="29:31">
       <c r="AC598" s="34"/>
       <c r="AD598" s="34"/>
       <c r="AE598" s="34"/>
     </row>
-    <row r="599" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="599" spans="29:31">
       <c r="AC599" s="34"/>
       <c r="AD599" s="34"/>
       <c r="AE599" s="34"/>
     </row>
-    <row r="600" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="600" spans="29:31">
       <c r="AC600" s="34"/>
       <c r="AD600" s="34"/>
       <c r="AE600" s="34"/>
     </row>
-    <row r="601" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="601" spans="29:31">
       <c r="AC601" s="34"/>
       <c r="AD601" s="34"/>
       <c r="AE601" s="34"/>
     </row>
-    <row r="602" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="602" spans="29:31">
       <c r="AC602" s="34"/>
       <c r="AD602" s="34"/>
       <c r="AE602" s="34"/>
     </row>
-    <row r="603" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="603" spans="29:31">
       <c r="AC603" s="34"/>
       <c r="AD603" s="34"/>
       <c r="AE603" s="34"/>
     </row>
-    <row r="604" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="604" spans="29:31">
       <c r="AC604" s="34"/>
       <c r="AD604" s="34"/>
       <c r="AE604" s="34"/>
     </row>
-    <row r="605" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="605" spans="29:31">
       <c r="AC605" s="34"/>
       <c r="AD605" s="34"/>
       <c r="AE605" s="34"/>
     </row>
-    <row r="606" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="606" spans="29:31">
       <c r="AC606" s="34"/>
       <c r="AD606" s="34"/>
       <c r="AE606" s="34"/>
     </row>
-    <row r="607" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="607" spans="29:31">
       <c r="AC607" s="34"/>
       <c r="AD607" s="34"/>
       <c r="AE607" s="34"/>
     </row>
-    <row r="608" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="608" spans="29:31">
       <c r="AC608" s="34"/>
       <c r="AD608" s="34"/>
       <c r="AE608" s="34"/>
     </row>
-    <row r="609" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="609" spans="29:31">
       <c r="AC609" s="34"/>
       <c r="AD609" s="34"/>
       <c r="AE609" s="34"/>
     </row>
-    <row r="610" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="610" spans="29:31">
       <c r="AC610" s="34"/>
       <c r="AD610" s="34"/>
       <c r="AE610" s="34"/>
     </row>
-    <row r="611" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="611" spans="29:31">
       <c r="AC611" s="34"/>
       <c r="AD611" s="34"/>
       <c r="AE611" s="34"/>
     </row>
-    <row r="612" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="612" spans="29:31">
       <c r="AC612" s="34"/>
       <c r="AD612" s="34"/>
       <c r="AE612" s="34"/>
     </row>
-    <row r="613" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="613" spans="29:31">
       <c r="AC613" s="34"/>
       <c r="AD613" s="34"/>
       <c r="AE613" s="34"/>
     </row>
-    <row r="614" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="614" spans="29:31">
       <c r="AC614" s="34"/>
       <c r="AD614" s="34"/>
       <c r="AE614" s="34"/>
     </row>
-    <row r="615" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="615" spans="29:31">
       <c r="AC615" s="34"/>
       <c r="AD615" s="34"/>
       <c r="AE615" s="34"/>
     </row>
-    <row r="616" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="616" spans="29:31">
       <c r="AC616" s="34"/>
       <c r="AD616" s="34"/>
       <c r="AE616" s="34"/>
     </row>
-    <row r="617" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="617" spans="29:31">
       <c r="AC617" s="34"/>
       <c r="AD617" s="34"/>
       <c r="AE617" s="34"/>
     </row>
-    <row r="618" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="618" spans="29:31">
       <c r="AC618" s="34"/>
       <c r="AD618" s="34"/>
       <c r="AE618" s="34"/>
     </row>
-    <row r="619" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="619" spans="29:31">
       <c r="AC619" s="34"/>
       <c r="AD619" s="34"/>
       <c r="AE619" s="34"/>
     </row>
-    <row r="620" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="620" spans="29:31">
       <c r="AC620" s="34"/>
       <c r="AD620" s="34"/>
       <c r="AE620" s="34"/>
     </row>
-    <row r="621" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="621" spans="29:31">
       <c r="AC621" s="34"/>
       <c r="AD621" s="34"/>
       <c r="AE621" s="34"/>
     </row>
-    <row r="622" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="622" spans="29:31">
       <c r="AC622" s="34"/>
       <c r="AD622" s="34"/>
       <c r="AE622" s="34"/>
     </row>
-    <row r="623" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="623" spans="29:31">
       <c r="AC623" s="34"/>
       <c r="AD623" s="34"/>
       <c r="AE623" s="34"/>
     </row>
-    <row r="624" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="624" spans="29:31">
       <c r="AC624" s="34"/>
       <c r="AD624" s="34"/>
       <c r="AE624" s="34"/>
     </row>
-    <row r="625" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="625" spans="29:31">
       <c r="AC625" s="34"/>
       <c r="AD625" s="34"/>
       <c r="AE625" s="34"/>
     </row>
-    <row r="626" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="626" spans="29:31">
       <c r="AC626" s="34"/>
       <c r="AD626" s="34"/>
       <c r="AE626" s="34"/>
     </row>
-    <row r="627" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="627" spans="29:31">
       <c r="AC627" s="34"/>
       <c r="AD627" s="34"/>
       <c r="AE627" s="34"/>
     </row>
-    <row r="628" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="628" spans="29:31">
       <c r="AC628" s="34"/>
       <c r="AD628" s="34"/>
       <c r="AE628" s="34"/>
     </row>
-    <row r="629" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="629" spans="29:31">
       <c r="AC629" s="34"/>
       <c r="AD629" s="34"/>
       <c r="AE629" s="34"/>
     </row>
-    <row r="630" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="630" spans="29:31">
       <c r="AC630" s="34"/>
       <c r="AD630" s="34"/>
       <c r="AE630" s="34"/>
     </row>
-    <row r="631" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="631" spans="29:31">
       <c r="AC631" s="34"/>
       <c r="AD631" s="34"/>
       <c r="AE631" s="34"/>
     </row>
-    <row r="632" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="632" spans="29:31">
       <c r="AC632" s="34"/>
       <c r="AD632" s="34"/>
       <c r="AE632" s="34"/>
     </row>
-    <row r="633" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="633" spans="29:31">
       <c r="AC633" s="34"/>
       <c r="AD633" s="34"/>
       <c r="AE633" s="34"/>
     </row>
-    <row r="634" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="634" spans="29:31">
       <c r="AC634" s="34"/>
       <c r="AD634" s="34"/>
       <c r="AE634" s="34"/>
     </row>
-    <row r="635" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="635" spans="29:31">
       <c r="AC635" s="34"/>
       <c r="AD635" s="34"/>
       <c r="AE635" s="34"/>
     </row>
-    <row r="636" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="636" spans="29:31">
       <c r="AC636" s="34"/>
       <c r="AD636" s="34"/>
       <c r="AE636" s="34"/>
     </row>
-    <row r="637" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="637" spans="29:31">
       <c r="AC637" s="34"/>
       <c r="AD637" s="34"/>
       <c r="AE637" s="34"/>
     </row>
-    <row r="638" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="638" spans="29:31">
       <c r="AC638" s="34"/>
       <c r="AD638" s="34"/>
       <c r="AE638" s="34"/>
     </row>
-    <row r="639" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="639" spans="29:31">
       <c r="AC639" s="34"/>
       <c r="AD639" s="34"/>
       <c r="AE639" s="34"/>
     </row>
-    <row r="640" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="640" spans="29:31">
       <c r="AC640" s="34"/>
       <c r="AD640" s="34"/>
       <c r="AE640" s="34"/>
     </row>
-    <row r="641" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="641" spans="29:31">
       <c r="AC641" s="34"/>
       <c r="AD641" s="34"/>
       <c r="AE641" s="34"/>
     </row>
-    <row r="642" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="642" spans="29:31">
       <c r="AC642" s="34"/>
       <c r="AD642" s="34"/>
       <c r="AE642" s="34"/>
     </row>
-    <row r="643" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="643" spans="29:31">
       <c r="AC643" s="34"/>
       <c r="AD643" s="34"/>
       <c r="AE643" s="34"/>
     </row>
-    <row r="644" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="644" spans="29:31">
       <c r="AC644" s="34"/>
       <c r="AD644" s="34"/>
       <c r="AE644" s="34"/>
     </row>
-    <row r="645" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="645" spans="29:31">
       <c r="AC645" s="34"/>
       <c r="AD645" s="34"/>
       <c r="AE645" s="34"/>
     </row>
-    <row r="646" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="646" spans="29:31">
       <c r="AC646" s="34"/>
       <c r="AD646" s="34"/>
       <c r="AE646" s="34"/>
     </row>
-    <row r="647" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="647" spans="29:31">
       <c r="AC647" s="34"/>
       <c r="AD647" s="34"/>
       <c r="AE647" s="34"/>
     </row>
-    <row r="648" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="648" spans="29:31">
       <c r="AC648" s="34"/>
       <c r="AD648" s="34"/>
       <c r="AE648" s="34"/>
     </row>
-    <row r="649" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="649" spans="29:31">
       <c r="AC649" s="34"/>
       <c r="AD649" s="34"/>
       <c r="AE649" s="34"/>
     </row>
-    <row r="650" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="650" spans="29:31">
       <c r="AC650" s="34"/>
       <c r="AD650" s="34"/>
       <c r="AE650" s="34"/>
     </row>
-    <row r="651" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="651" spans="29:31">
       <c r="AC651" s="34"/>
       <c r="AD651" s="34"/>
       <c r="AE651" s="34"/>
     </row>
-    <row r="652" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="652" spans="29:31">
       <c r="AC652" s="34"/>
       <c r="AD652" s="34"/>
       <c r="AE652" s="34"/>
     </row>
-    <row r="653" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="653" spans="29:31">
       <c r="AC653" s="34"/>
       <c r="AD653" s="34"/>
       <c r="AE653" s="34"/>
     </row>
-    <row r="654" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="654" spans="29:31">
       <c r="AC654" s="34"/>
       <c r="AD654" s="34"/>
       <c r="AE654" s="34"/>
     </row>
-    <row r="655" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="655" spans="29:31">
       <c r="AC655" s="34"/>
       <c r="AD655" s="34"/>
       <c r="AE655" s="34"/>
     </row>
-    <row r="656" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="656" spans="29:31">
       <c r="AC656" s="34"/>
       <c r="AD656" s="34"/>
       <c r="AE656" s="34"/>
     </row>
-    <row r="657" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="657" spans="29:31">
       <c r="AC657" s="34"/>
       <c r="AD657" s="34"/>
       <c r="AE657" s="34"/>
     </row>
-    <row r="658" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="658" spans="29:31">
       <c r="AC658" s="34"/>
       <c r="AD658" s="34"/>
       <c r="AE658" s="34"/>
     </row>
-    <row r="659" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="659" spans="29:31">
       <c r="AC659" s="34"/>
       <c r="AD659" s="34"/>
       <c r="AE659" s="34"/>
     </row>
-    <row r="660" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="660" spans="29:31">
       <c r="AC660" s="34"/>
       <c r="AD660" s="34"/>
       <c r="AE660" s="34"/>
     </row>
-    <row r="661" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="661" spans="29:31">
       <c r="AC661" s="34"/>
       <c r="AD661" s="34"/>
       <c r="AE661" s="34"/>
     </row>
-    <row r="662" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="662" spans="29:31">
       <c r="AC662" s="34"/>
       <c r="AD662" s="34"/>
       <c r="AE662" s="34"/>
     </row>
-    <row r="663" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="663" spans="29:31">
       <c r="AC663" s="34"/>
       <c r="AD663" s="34"/>
       <c r="AE663" s="34"/>
     </row>
-    <row r="664" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="664" spans="29:31">
       <c r="AC664" s="34"/>
       <c r="AD664" s="34"/>
       <c r="AE664" s="34"/>
     </row>
-    <row r="665" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="665" spans="29:31">
       <c r="AC665" s="34"/>
       <c r="AD665" s="34"/>
       <c r="AE665" s="34"/>
     </row>
-    <row r="666" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="666" spans="29:31">
       <c r="AC666" s="34"/>
       <c r="AD666" s="34"/>
       <c r="AE666" s="34"/>
     </row>
-    <row r="667" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="667" spans="29:31">
       <c r="AC667" s="34"/>
       <c r="AD667" s="34"/>
       <c r="AE667" s="34"/>
     </row>
-    <row r="668" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="668" spans="29:31">
       <c r="AC668" s="34"/>
       <c r="AD668" s="34"/>
       <c r="AE668" s="34"/>
     </row>
-    <row r="669" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="669" spans="29:31">
       <c r="AC669" s="34"/>
       <c r="AD669" s="34"/>
       <c r="AE669" s="34"/>
     </row>
-    <row r="670" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="670" spans="29:31">
       <c r="AC670" s="34"/>
       <c r="AD670" s="34"/>
       <c r="AE670" s="34"/>
     </row>
-    <row r="671" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="671" spans="29:31">
       <c r="AC671" s="34"/>
       <c r="AD671" s="34"/>
       <c r="AE671" s="34"/>
     </row>
-    <row r="672" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="672" spans="29:31">
       <c r="AC672" s="34"/>
       <c r="AD672" s="34"/>
       <c r="AE672" s="34"/>
     </row>
-    <row r="673" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="673" spans="29:31">
       <c r="AC673" s="34"/>
       <c r="AD673" s="34"/>
       <c r="AE673" s="34"/>
     </row>
-    <row r="674" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="674" spans="29:31">
       <c r="AC674" s="34"/>
       <c r="AD674" s="34"/>
       <c r="AE674" s="34"/>
     </row>
-    <row r="675" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="675" spans="29:31">
       <c r="AC675" s="34"/>
       <c r="AD675" s="34"/>
       <c r="AE675" s="34"/>
     </row>
-    <row r="676" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="676" spans="29:31">
       <c r="AC676" s="34"/>
       <c r="AD676" s="34"/>
       <c r="AE676" s="34"/>
     </row>
-    <row r="677" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="677" spans="29:31">
       <c r="AC677" s="34"/>
       <c r="AD677" s="34"/>
       <c r="AE677" s="34"/>
     </row>
-    <row r="678" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="678" spans="29:31">
       <c r="AC678" s="34"/>
       <c r="AD678" s="34"/>
       <c r="AE678" s="34"/>
     </row>
-    <row r="679" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="679" spans="29:31">
       <c r="AC679" s="34"/>
       <c r="AD679" s="34"/>
       <c r="AE679" s="34"/>
     </row>
-    <row r="680" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="680" spans="29:31">
       <c r="AC680" s="34"/>
       <c r="AD680" s="34"/>
       <c r="AE680" s="34"/>
     </row>
-    <row r="681" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="681" spans="29:31">
       <c r="AC681" s="34"/>
       <c r="AD681" s="34"/>
       <c r="AE681" s="34"/>
     </row>
-    <row r="682" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="682" spans="29:31">
       <c r="AC682" s="34"/>
       <c r="AD682" s="34"/>
       <c r="AE682" s="34"/>
     </row>
-    <row r="683" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="683" spans="29:31">
       <c r="AC683" s="34"/>
       <c r="AD683" s="34"/>
       <c r="AE683" s="34"/>
     </row>
-    <row r="684" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="684" spans="29:31">
       <c r="AC684" s="34"/>
       <c r="AD684" s="34"/>
       <c r="AE684" s="34"/>
     </row>
-    <row r="685" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="685" spans="29:31">
       <c r="AC685" s="34"/>
       <c r="AD685" s="34"/>
       <c r="AE685" s="34"/>
     </row>
-    <row r="686" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="686" spans="29:31">
       <c r="AC686" s="34"/>
       <c r="AD686" s="34"/>
       <c r="AE686" s="34"/>
     </row>
-    <row r="687" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="687" spans="29:31">
       <c r="AC687" s="34"/>
       <c r="AD687" s="34"/>
       <c r="AE687" s="34"/>
     </row>
-    <row r="688" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="688" spans="29:31">
       <c r="AC688" s="34"/>
       <c r="AD688" s="34"/>
       <c r="AE688" s="34"/>
     </row>
-    <row r="689" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="689" spans="29:31">
       <c r="AC689" s="34"/>
       <c r="AD689" s="34"/>
       <c r="AE689" s="34"/>
     </row>
-    <row r="690" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="690" spans="29:31">
       <c r="AC690" s="34"/>
       <c r="AD690" s="34"/>
       <c r="AE690" s="34"/>
     </row>
-    <row r="691" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="691" spans="29:31">
       <c r="AC691" s="34"/>
       <c r="AD691" s="34"/>
       <c r="AE691" s="34"/>
     </row>
-    <row r="692" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="692" spans="29:31">
       <c r="AC692" s="34"/>
       <c r="AD692" s="34"/>
       <c r="AE692" s="34"/>
     </row>
-    <row r="693" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="693" spans="29:31">
       <c r="AC693" s="34"/>
       <c r="AD693" s="34"/>
       <c r="AE693" s="34"/>
     </row>
-    <row r="694" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="694" spans="29:31">
       <c r="AC694" s="34"/>
       <c r="AD694" s="34"/>
       <c r="AE694" s="34"/>
     </row>
-    <row r="695" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="695" spans="29:31">
       <c r="AC695" s="34"/>
       <c r="AD695" s="34"/>
       <c r="AE695" s="34"/>
     </row>
-    <row r="696" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="696" spans="29:31">
       <c r="AC696" s="34"/>
       <c r="AD696" s="34"/>
       <c r="AE696" s="34"/>
     </row>
-    <row r="697" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="697" spans="29:31">
       <c r="AC697" s="34"/>
       <c r="AD697" s="34"/>
       <c r="AE697" s="34"/>
     </row>
-    <row r="698" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="698" spans="29:31">
       <c r="AC698" s="34"/>
       <c r="AD698" s="34"/>
       <c r="AE698" s="34"/>
     </row>
-    <row r="699" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="699" spans="29:31">
       <c r="AC699" s="34"/>
       <c r="AD699" s="34"/>
       <c r="AE699" s="34"/>
     </row>
-    <row r="700" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="700" spans="29:31">
       <c r="AC700" s="34"/>
       <c r="AD700" s="34"/>
       <c r="AE700" s="34"/>
     </row>
-    <row r="701" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="701" spans="29:31">
       <c r="AC701" s="34"/>
       <c r="AD701" s="34"/>
       <c r="AE701" s="34"/>
     </row>
-    <row r="702" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="702" spans="29:31">
       <c r="AC702" s="34"/>
       <c r="AD702" s="34"/>
       <c r="AE702" s="34"/>
     </row>
-    <row r="703" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="703" spans="29:31">
       <c r="AC703" s="34"/>
       <c r="AD703" s="34"/>
       <c r="AE703" s="34"/>
     </row>
-    <row r="704" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="704" spans="29:31">
       <c r="AC704" s="34"/>
       <c r="AD704" s="34"/>
       <c r="AE704" s="34"/>
     </row>
-    <row r="705" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="705" spans="29:31">
       <c r="AC705" s="34"/>
       <c r="AD705" s="34"/>
       <c r="AE705" s="34"/>
     </row>
-    <row r="706" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="706" spans="29:31">
       <c r="AC706" s="34"/>
       <c r="AD706" s="34"/>
       <c r="AE706" s="34"/>
     </row>
-    <row r="707" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="707" spans="29:31">
       <c r="AC707" s="34"/>
       <c r="AD707" s="34"/>
       <c r="AE707" s="34"/>
     </row>
-    <row r="708" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="708" spans="29:31">
       <c r="AC708" s="34"/>
       <c r="AD708" s="34"/>
       <c r="AE708" s="34"/>
     </row>
-    <row r="709" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="709" spans="29:31">
       <c r="AC709" s="34"/>
       <c r="AD709" s="34"/>
       <c r="AE709" s="34"/>
     </row>
-    <row r="710" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="710" spans="29:31">
       <c r="AC710" s="34"/>
       <c r="AD710" s="34"/>
       <c r="AE710" s="34"/>
     </row>
-    <row r="711" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="711" spans="29:31">
       <c r="AC711" s="34"/>
       <c r="AD711" s="34"/>
       <c r="AE711" s="34"/>
     </row>
-    <row r="712" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="712" spans="29:31">
       <c r="AC712" s="34"/>
       <c r="AD712" s="34"/>
       <c r="AE712" s="34"/>
     </row>
-    <row r="713" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="713" spans="29:31">
       <c r="AC713" s="34"/>
       <c r="AD713" s="34"/>
       <c r="AE713" s="34"/>
     </row>
-    <row r="714" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="714" spans="29:31">
       <c r="AC714" s="34"/>
       <c r="AD714" s="34"/>
       <c r="AE714" s="34"/>
     </row>
-    <row r="715" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="715" spans="29:31">
       <c r="AC715" s="34"/>
       <c r="AD715" s="34"/>
       <c r="AE715" s="34"/>
     </row>
-    <row r="716" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="716" spans="29:31">
       <c r="AC716" s="34"/>
       <c r="AD716" s="34"/>
       <c r="AE716" s="34"/>
     </row>
-    <row r="717" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="717" spans="29:31">
       <c r="AC717" s="34"/>
       <c r="AD717" s="34"/>
       <c r="AE717" s="34"/>
     </row>
-    <row r="718" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="718" spans="29:31">
       <c r="AC718" s="34"/>
       <c r="AD718" s="34"/>
       <c r="AE718" s="34"/>
     </row>
-    <row r="719" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="719" spans="29:31">
       <c r="AC719" s="34"/>
       <c r="AD719" s="34"/>
       <c r="AE719" s="34"/>
     </row>
-    <row r="720" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="720" spans="29:31">
       <c r="AC720" s="34"/>
       <c r="AD720" s="34"/>
       <c r="AE720" s="34"/>
     </row>
-    <row r="721" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="721" spans="29:31">
       <c r="AC721" s="34"/>
       <c r="AD721" s="34"/>
       <c r="AE721" s="34"/>
     </row>
-    <row r="722" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="722" spans="29:31">
       <c r="AC722" s="34"/>
       <c r="AD722" s="34"/>
       <c r="AE722" s="34"/>
     </row>
-    <row r="723" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="723" spans="29:31">
       <c r="AC723" s="34"/>
       <c r="AD723" s="34"/>
       <c r="AE723" s="34"/>
     </row>
-    <row r="724" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="724" spans="29:31">
       <c r="AC724" s="34"/>
       <c r="AD724" s="34"/>
       <c r="AE724" s="34"/>
     </row>
-    <row r="725" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="725" spans="29:31">
       <c r="AC725" s="34"/>
       <c r="AD725" s="34"/>
       <c r="AE725" s="34"/>
     </row>
-    <row r="726" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="726" spans="29:31">
       <c r="AC726" s="34"/>
       <c r="AD726" s="34"/>
       <c r="AE726" s="34"/>
     </row>
-    <row r="727" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="727" spans="29:31">
       <c r="AC727" s="34"/>
       <c r="AD727" s="34"/>
       <c r="AE727" s="34"/>
     </row>
-    <row r="728" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="728" spans="29:31">
       <c r="AC728" s="34"/>
       <c r="AD728" s="34"/>
       <c r="AE728" s="34"/>
     </row>
-    <row r="729" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="729" spans="29:31">
       <c r="AC729" s="34"/>
       <c r="AD729" s="34"/>
       <c r="AE729" s="34"/>
     </row>
-    <row r="730" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="730" spans="29:31">
       <c r="AC730" s="34"/>
       <c r="AD730" s="34"/>
       <c r="AE730" s="34"/>
     </row>
-    <row r="731" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="731" spans="29:31">
       <c r="AC731" s="34"/>
       <c r="AD731" s="34"/>
       <c r="AE731" s="34"/>
     </row>
-    <row r="732" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="732" spans="29:31">
       <c r="AC732" s="34"/>
       <c r="AD732" s="34"/>
       <c r="AE732" s="34"/>
     </row>
-    <row r="733" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="733" spans="29:31">
       <c r="AC733" s="34"/>
       <c r="AD733" s="34"/>
       <c r="AE733" s="34"/>
     </row>
-    <row r="734" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="734" spans="29:31">
       <c r="AC734" s="34"/>
       <c r="AD734" s="34"/>
       <c r="AE734" s="34"/>
     </row>
-    <row r="735" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="735" spans="29:31">
       <c r="AC735" s="34"/>
       <c r="AD735" s="34"/>
       <c r="AE735" s="34"/>
     </row>
-    <row r="736" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="736" spans="29:31">
       <c r="AC736" s="34"/>
       <c r="AD736" s="34"/>
       <c r="AE736" s="34"/>
     </row>
-    <row r="737" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="737" spans="29:31">
       <c r="AC737" s="34"/>
       <c r="AD737" s="34"/>
       <c r="AE737" s="34"/>
     </row>
-    <row r="738" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="738" spans="29:31">
       <c r="AC738" s="34"/>
       <c r="AD738" s="34"/>
       <c r="AE738" s="34"/>
     </row>
-    <row r="739" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="739" spans="29:31">
       <c r="AC739" s="34"/>
       <c r="AD739" s="34"/>
       <c r="AE739" s="34"/>
     </row>
-    <row r="740" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="740" spans="29:31">
       <c r="AC740" s="34"/>
       <c r="AD740" s="34"/>
       <c r="AE740" s="34"/>
     </row>
-    <row r="741" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="741" spans="29:31">
       <c r="AC741" s="34"/>
       <c r="AD741" s="34"/>
       <c r="AE741" s="34"/>
     </row>
-    <row r="742" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="742" spans="29:31">
       <c r="AC742" s="34"/>
       <c r="AD742" s="34"/>
       <c r="AE742" s="34"/>
     </row>
-    <row r="743" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="743" spans="29:31">
       <c r="AC743" s="34"/>
       <c r="AD743" s="34"/>
       <c r="AE743" s="34"/>
     </row>
-    <row r="744" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="744" spans="29:31">
       <c r="AC744" s="34"/>
       <c r="AD744" s="34"/>
       <c r="AE744" s="34"/>
     </row>
-    <row r="745" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="745" spans="29:31">
       <c r="AC745" s="34"/>
       <c r="AD745" s="34"/>
       <c r="AE745" s="34"/>
     </row>
-    <row r="746" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="746" spans="29:31">
       <c r="AC746" s="34"/>
       <c r="AD746" s="34"/>
       <c r="AE746" s="34"/>
     </row>
-    <row r="747" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="747" spans="29:31">
       <c r="AC747" s="34"/>
       <c r="AD747" s="34"/>
       <c r="AE747" s="34"/>
     </row>
-    <row r="748" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="748" spans="29:31">
       <c r="AC748" s="34"/>
       <c r="AD748" s="34"/>
       <c r="AE748" s="34"/>
     </row>
-    <row r="749" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="749" spans="29:31">
       <c r="AC749" s="34"/>
       <c r="AD749" s="34"/>
       <c r="AE749" s="34"/>
     </row>
-    <row r="750" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="750" spans="29:31">
       <c r="AC750" s="34"/>
       <c r="AD750" s="34"/>
       <c r="AE750" s="34"/>
     </row>
-    <row r="751" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="751" spans="29:31">
       <c r="AC751" s="34"/>
       <c r="AD751" s="34"/>
       <c r="AE751" s="34"/>
     </row>
-    <row r="752" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="752" spans="29:31">
       <c r="AC752" s="34"/>
       <c r="AD752" s="34"/>
       <c r="AE752" s="34"/>
     </row>
-    <row r="753" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="753" spans="29:31">
       <c r="AC753" s="34"/>
       <c r="AD753" s="34"/>
       <c r="AE753" s="34"/>
     </row>
-    <row r="754" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="754" spans="29:31">
       <c r="AC754" s="34"/>
       <c r="AD754" s="34"/>
       <c r="AE754" s="34"/>
     </row>
-    <row r="755" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="755" spans="29:31">
       <c r="AC755" s="34"/>
       <c r="AD755" s="34"/>
       <c r="AE755" s="34"/>
     </row>
-    <row r="756" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="756" spans="29:31">
       <c r="AC756" s="34"/>
       <c r="AD756" s="34"/>
       <c r="AE756" s="34"/>
     </row>
-    <row r="757" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="757" spans="29:31">
       <c r="AC757" s="34"/>
       <c r="AD757" s="34"/>
       <c r="AE757" s="34"/>
     </row>
-    <row r="758" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="758" spans="29:31">
       <c r="AC758" s="34"/>
       <c r="AD758" s="34"/>
       <c r="AE758" s="34"/>
     </row>
-    <row r="759" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="759" spans="29:31">
       <c r="AC759" s="34"/>
       <c r="AD759" s="34"/>
       <c r="AE759" s="34"/>
     </row>
-    <row r="760" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="760" spans="29:31">
       <c r="AC760" s="34"/>
       <c r="AD760" s="34"/>
       <c r="AE760" s="34"/>
     </row>
-    <row r="761" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="761" spans="29:31">
       <c r="AC761" s="34"/>
       <c r="AD761" s="34"/>
       <c r="AE761" s="34"/>
     </row>
-    <row r="762" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="762" spans="29:31">
       <c r="AC762" s="34"/>
       <c r="AD762" s="34"/>
       <c r="AE762" s="34"/>
     </row>
-    <row r="763" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="763" spans="29:31">
       <c r="AC763" s="34"/>
       <c r="AD763" s="34"/>
       <c r="AE763" s="34"/>
     </row>
-    <row r="764" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="764" spans="29:31">
       <c r="AC764" s="34"/>
       <c r="AD764" s="34"/>
       <c r="AE764" s="34"/>
     </row>
-    <row r="765" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="765" spans="29:31">
       <c r="AC765" s="34"/>
       <c r="AD765" s="34"/>
       <c r="AE765" s="34"/>
     </row>
-    <row r="766" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="766" spans="29:31">
       <c r="AC766" s="34"/>
       <c r="AD766" s="34"/>
       <c r="AE766" s="34"/>
     </row>
-    <row r="767" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="767" spans="29:31">
       <c r="AC767" s="34"/>
       <c r="AD767" s="34"/>
       <c r="AE767" s="34"/>
     </row>
-    <row r="768" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="768" spans="29:31">
       <c r="AC768" s="34"/>
       <c r="AD768" s="34"/>
       <c r="AE768" s="34"/>
     </row>
-    <row r="769" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="769" spans="29:31">
       <c r="AC769" s="34"/>
       <c r="AD769" s="34"/>
       <c r="AE769" s="34"/>
     </row>
-    <row r="770" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="770" spans="29:31">
       <c r="AC770" s="34"/>
       <c r="AD770" s="34"/>
       <c r="AE770" s="34"/>
     </row>
-    <row r="771" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="771" spans="29:31">
       <c r="AC771" s="34"/>
       <c r="AD771" s="34"/>
       <c r="AE771" s="34"/>
     </row>
-    <row r="772" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="772" spans="29:31">
       <c r="AC772" s="34"/>
       <c r="AD772" s="34"/>
       <c r="AE772" s="34"/>
     </row>
-    <row r="773" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="773" spans="29:31">
       <c r="AC773" s="34"/>
       <c r="AD773" s="34"/>
       <c r="AE773" s="34"/>
     </row>
-    <row r="774" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="774" spans="29:31">
       <c r="AC774" s="34"/>
       <c r="AD774" s="34"/>
       <c r="AE774" s="34"/>
     </row>
-    <row r="775" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="775" spans="29:31">
       <c r="AC775" s="34"/>
       <c r="AD775" s="34"/>
       <c r="AE775" s="34"/>
     </row>
-    <row r="776" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="776" spans="29:31">
       <c r="AC776" s="34"/>
       <c r="AD776" s="34"/>
       <c r="AE776" s="34"/>
     </row>
-    <row r="777" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="777" spans="29:31">
       <c r="AC777" s="34"/>
       <c r="AD777" s="34"/>
       <c r="AE777" s="34"/>
     </row>
-    <row r="778" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="778" spans="29:31">
       <c r="AC778" s="34"/>
       <c r="AD778" s="34"/>
       <c r="AE778" s="34"/>
     </row>
-    <row r="779" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="779" spans="29:31">
       <c r="AC779" s="34"/>
       <c r="AD779" s="34"/>
       <c r="AE779" s="34"/>
     </row>
-    <row r="780" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="780" spans="29:31">
       <c r="AC780" s="34"/>
       <c r="AD780" s="34"/>
       <c r="AE780" s="34"/>
     </row>
-    <row r="781" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="781" spans="29:31">
       <c r="AC781" s="34"/>
       <c r="AD781" s="34"/>
       <c r="AE781" s="34"/>
     </row>
-    <row r="782" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="782" spans="29:31">
       <c r="AC782" s="34"/>
       <c r="AD782" s="34"/>
       <c r="AE782" s="34"/>
     </row>
-    <row r="783" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="783" spans="29:31">
       <c r="AC783" s="34"/>
       <c r="AD783" s="34"/>
       <c r="AE783" s="34"/>
     </row>
-    <row r="784" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="784" spans="29:31">
       <c r="AC784" s="34"/>
       <c r="AD784" s="34"/>
       <c r="AE784" s="34"/>
     </row>
-    <row r="785" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="785" spans="29:31">
       <c r="AC785" s="34"/>
       <c r="AD785" s="34"/>
       <c r="AE785" s="34"/>
     </row>
-    <row r="786" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="786" spans="29:31">
       <c r="AC786" s="34"/>
       <c r="AD786" s="34"/>
       <c r="AE786" s="34"/>
     </row>
-    <row r="787" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="787" spans="29:31">
       <c r="AC787" s="34"/>
       <c r="AD787" s="34"/>
       <c r="AE787" s="34"/>
     </row>
-    <row r="788" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="788" spans="29:31">
       <c r="AC788" s="34"/>
       <c r="AD788" s="34"/>
       <c r="AE788" s="34"/>
     </row>
-    <row r="789" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="789" spans="29:31">
       <c r="AC789" s="34"/>
       <c r="AD789" s="34"/>
       <c r="AE789" s="34"/>
     </row>
-    <row r="790" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="790" spans="29:31">
       <c r="AC790" s="34"/>
       <c r="AD790" s="34"/>
       <c r="AE790" s="34"/>
     </row>
-    <row r="791" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="791" spans="29:31">
       <c r="AC791" s="34"/>
       <c r="AD791" s="34"/>
       <c r="AE791" s="34"/>
     </row>
-    <row r="792" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="792" spans="29:31">
       <c r="AC792" s="34"/>
       <c r="AD792" s="34"/>
       <c r="AE792" s="34"/>
     </row>
-    <row r="793" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="793" spans="29:31">
       <c r="AC793" s="34"/>
       <c r="AD793" s="34"/>
       <c r="AE793" s="34"/>
     </row>
-    <row r="794" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="794" spans="29:31">
       <c r="AC794" s="34"/>
       <c r="AD794" s="34"/>
       <c r="AE794" s="34"/>
     </row>
-    <row r="795" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="795" spans="29:31">
       <c r="AC795" s="34"/>
       <c r="AD795" s="34"/>
       <c r="AE795" s="34"/>
     </row>
-    <row r="796" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="796" spans="29:31">
       <c r="AC796" s="34"/>
       <c r="AD796" s="34"/>
       <c r="AE796" s="34"/>
     </row>
-    <row r="797" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="797" spans="29:31">
       <c r="AC797" s="34"/>
       <c r="AD797" s="34"/>
       <c r="AE797" s="34"/>
     </row>
-    <row r="798" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="798" spans="29:31">
       <c r="AC798" s="34"/>
       <c r="AD798" s="34"/>
       <c r="AE798" s="34"/>
     </row>
-    <row r="799" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="799" spans="29:31">
       <c r="AC799" s="34"/>
       <c r="AD799" s="34"/>
       <c r="AE799" s="34"/>
     </row>
-    <row r="800" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="800" spans="29:31">
       <c r="AC800" s="34"/>
       <c r="AD800" s="34"/>
       <c r="AE800" s="34"/>
     </row>
-    <row r="801" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="801" spans="29:31">
       <c r="AC801" s="34"/>
       <c r="AD801" s="34"/>
       <c r="AE801" s="34"/>
     </row>
-    <row r="802" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="802" spans="29:31">
       <c r="AC802" s="34"/>
       <c r="AD802" s="34"/>
       <c r="AE802" s="34"/>
     </row>
-    <row r="803" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="803" spans="29:31">
       <c r="AC803" s="34"/>
       <c r="AD803" s="34"/>
       <c r="AE803" s="34"/>
     </row>
-    <row r="804" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="804" spans="29:31">
       <c r="AC804" s="34"/>
       <c r="AD804" s="34"/>
       <c r="AE804" s="34"/>
     </row>
-    <row r="805" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="805" spans="29:31">
       <c r="AC805" s="34"/>
       <c r="AD805" s="34"/>
       <c r="AE805" s="34"/>
     </row>
-    <row r="806" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="806" spans="29:31">
       <c r="AC806" s="34"/>
       <c r="AD806" s="34"/>
       <c r="AE806" s="34"/>
     </row>
-    <row r="807" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="807" spans="29:31">
       <c r="AC807" s="34"/>
       <c r="AD807" s="34"/>
       <c r="AE807" s="34"/>
     </row>
-    <row r="808" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="808" spans="29:31">
       <c r="AC808" s="34"/>
       <c r="AD808" s="34"/>
       <c r="AE808" s="34"/>
     </row>
-    <row r="809" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="809" spans="29:31">
       <c r="AC809" s="34"/>
       <c r="AD809" s="34"/>
       <c r="AE809" s="34"/>
     </row>
-    <row r="810" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="810" spans="29:31">
       <c r="AC810" s="34"/>
       <c r="AD810" s="34"/>
       <c r="AE810" s="34"/>
     </row>
-    <row r="811" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="811" spans="29:31">
       <c r="AC811" s="34"/>
       <c r="AD811" s="34"/>
       <c r="AE811" s="34"/>
     </row>
-    <row r="812" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="812" spans="29:31">
       <c r="AC812" s="34"/>
       <c r="AD812" s="34"/>
       <c r="AE812" s="34"/>
     </row>
-    <row r="813" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="813" spans="29:31">
       <c r="AC813" s="34"/>
       <c r="AD813" s="34"/>
       <c r="AE813" s="34"/>
     </row>
-    <row r="814" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="814" spans="29:31">
       <c r="AC814" s="34"/>
       <c r="AD814" s="34"/>
       <c r="AE814" s="34"/>
     </row>
-    <row r="815" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="815" spans="29:31">
       <c r="AC815" s="34"/>
       <c r="AD815" s="34"/>
       <c r="AE815" s="34"/>
     </row>
-    <row r="816" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="816" spans="29:31">
       <c r="AC816" s="34"/>
       <c r="AD816" s="34"/>
       <c r="AE816" s="34"/>
     </row>
-    <row r="817" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="817" spans="29:31">
       <c r="AC817" s="34"/>
       <c r="AD817" s="34"/>
       <c r="AE817" s="34"/>
     </row>
-    <row r="818" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="818" spans="29:31">
       <c r="AC818" s="34"/>
       <c r="AD818" s="34"/>
       <c r="AE818" s="34"/>
     </row>
-    <row r="819" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="819" spans="29:31">
       <c r="AC819" s="34"/>
       <c r="AD819" s="34"/>
       <c r="AE819" s="34"/>
     </row>
-    <row r="820" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="820" spans="29:31">
       <c r="AC820" s="34"/>
       <c r="AD820" s="34"/>
       <c r="AE820" s="34"/>
     </row>
-    <row r="821" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="821" spans="29:31">
       <c r="AC821" s="34"/>
       <c r="AD821" s="34"/>
       <c r="AE821" s="34"/>
     </row>
-    <row r="822" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="822" spans="29:31">
       <c r="AC822" s="34"/>
       <c r="AD822" s="34"/>
       <c r="AE822" s="34"/>
     </row>
-    <row r="823" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="823" spans="29:31">
       <c r="AC823" s="34"/>
       <c r="AD823" s="34"/>
       <c r="AE823" s="34"/>
     </row>
-    <row r="824" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="824" spans="29:31">
       <c r="AC824" s="34"/>
       <c r="AD824" s="34"/>
       <c r="AE824" s="34"/>
     </row>
-    <row r="825" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="825" spans="29:31">
       <c r="AC825" s="34"/>
       <c r="AD825" s="34"/>
       <c r="AE825" s="34"/>
     </row>
-    <row r="826" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="826" spans="29:31">
       <c r="AC826" s="34"/>
       <c r="AD826" s="34"/>
       <c r="AE826" s="34"/>
     </row>
-    <row r="827" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="827" spans="29:31">
       <c r="AC827" s="34"/>
       <c r="AD827" s="34"/>
       <c r="AE827" s="34"/>
     </row>
-    <row r="828" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="828" spans="29:31">
       <c r="AC828" s="34"/>
       <c r="AD828" s="34"/>
       <c r="AE828" s="34"/>
     </row>
-    <row r="829" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="829" spans="29:31">
       <c r="AC829" s="34"/>
       <c r="AD829" s="34"/>
       <c r="AE829" s="34"/>
     </row>
-    <row r="830" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="830" spans="29:31">
       <c r="AC830" s="34"/>
       <c r="AD830" s="34"/>
       <c r="AE830" s="34"/>
     </row>
-    <row r="831" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="831" spans="29:31">
       <c r="AC831" s="34"/>
       <c r="AD831" s="34"/>
       <c r="AE831" s="34"/>
     </row>
-    <row r="832" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="832" spans="29:31">
       <c r="AC832" s="34"/>
       <c r="AD832" s="34"/>
       <c r="AE832" s="34"/>
     </row>
-    <row r="833" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="833" spans="29:31">
       <c r="AC833" s="34"/>
       <c r="AD833" s="34"/>
       <c r="AE833" s="34"/>
     </row>
-    <row r="834" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="834" spans="29:31">
       <c r="AC834" s="34"/>
       <c r="AD834" s="34"/>
       <c r="AE834" s="34"/>
     </row>
-    <row r="835" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="835" spans="29:31">
       <c r="AC835" s="34"/>
       <c r="AD835" s="34"/>
       <c r="AE835" s="34"/>
     </row>
-    <row r="836" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="836" spans="29:31">
       <c r="AC836" s="34"/>
       <c r="AD836" s="34"/>
       <c r="AE836" s="34"/>
     </row>
-    <row r="837" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="837" spans="29:31">
       <c r="AC837" s="34"/>
       <c r="AD837" s="34"/>
       <c r="AE837" s="34"/>
     </row>
-    <row r="838" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="838" spans="29:31">
       <c r="AC838" s="34"/>
       <c r="AD838" s="34"/>
       <c r="AE838" s="34"/>
     </row>
-    <row r="839" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="839" spans="29:31">
       <c r="AC839" s="34"/>
       <c r="AD839" s="34"/>
       <c r="AE839" s="34"/>
     </row>
-    <row r="840" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="840" spans="29:31">
       <c r="AC840" s="34"/>
       <c r="AD840" s="34"/>
       <c r="AE840" s="34"/>
     </row>
-    <row r="841" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="841" spans="29:31">
       <c r="AC841" s="34"/>
       <c r="AD841" s="34"/>
       <c r="AE841" s="34"/>
     </row>
-    <row r="842" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="842" spans="29:31">
       <c r="AC842" s="34"/>
       <c r="AD842" s="34"/>
       <c r="AE842" s="34"/>
     </row>
-    <row r="843" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="843" spans="29:31">
       <c r="AC843" s="34"/>
       <c r="AD843" s="34"/>
       <c r="AE843" s="34"/>
     </row>
-    <row r="844" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="844" spans="29:31">
       <c r="AC844" s="34"/>
       <c r="AD844" s="34"/>
       <c r="AE844" s="34"/>
     </row>
-    <row r="845" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="845" spans="29:31">
       <c r="AC845" s="34"/>
       <c r="AD845" s="34"/>
       <c r="AE845" s="34"/>
     </row>
-    <row r="846" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="846" spans="29:31">
       <c r="AC846" s="34"/>
       <c r="AD846" s="34"/>
       <c r="AE846" s="34"/>
     </row>
-    <row r="847" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="847" spans="29:31">
       <c r="AC847" s="34"/>
       <c r="AD847" s="34"/>
       <c r="AE847" s="34"/>
     </row>
-    <row r="848" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="848" spans="29:31">
       <c r="AC848" s="34"/>
       <c r="AD848" s="34"/>
       <c r="AE848" s="34"/>
     </row>
-    <row r="849" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="849" spans="29:31">
       <c r="AC849" s="34"/>
       <c r="AD849" s="34"/>
       <c r="AE849" s="34"/>
     </row>
-    <row r="850" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="850" spans="29:31">
       <c r="AC850" s="34"/>
       <c r="AD850" s="34"/>
       <c r="AE850" s="34"/>
     </row>
-    <row r="851" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="851" spans="29:31">
       <c r="AC851" s="34"/>
       <c r="AD851" s="34"/>
       <c r="AE851" s="34"/>
     </row>
-    <row r="852" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="852" spans="29:31">
       <c r="AC852" s="34"/>
       <c r="AD852" s="34"/>
       <c r="AE852" s="34"/>
     </row>
-    <row r="853" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="853" spans="29:31">
       <c r="AC853" s="34"/>
       <c r="AD853" s="34"/>
       <c r="AE853" s="34"/>
     </row>
-    <row r="854" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="854" spans="29:31">
       <c r="AC854" s="34"/>
       <c r="AD854" s="34"/>
       <c r="AE854" s="34"/>
     </row>
-    <row r="855" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="855" spans="29:31">
       <c r="AC855" s="34"/>
       <c r="AD855" s="34"/>
       <c r="AE855" s="34"/>
     </row>
-    <row r="856" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="856" spans="29:31">
       <c r="AC856" s="34"/>
       <c r="AD856" s="34"/>
       <c r="AE856" s="34"/>
     </row>
-    <row r="857" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="857" spans="29:31">
       <c r="AC857" s="34"/>
       <c r="AD857" s="34"/>
       <c r="AE857" s="34"/>
     </row>
-    <row r="858" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="858" spans="29:31">
       <c r="AC858" s="34"/>
       <c r="AD858" s="34"/>
       <c r="AE858" s="34"/>
     </row>
-    <row r="859" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="859" spans="29:31">
       <c r="AC859" s="34"/>
       <c r="AD859" s="34"/>
       <c r="AE859" s="34"/>
     </row>
-    <row r="860" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="860" spans="29:31">
       <c r="AC860" s="34"/>
       <c r="AD860" s="34"/>
       <c r="AE860" s="34"/>
     </row>
-    <row r="861" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="861" spans="29:31">
       <c r="AC861" s="34"/>
       <c r="AD861" s="34"/>
       <c r="AE861" s="34"/>
     </row>
-    <row r="862" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="862" spans="29:31">
       <c r="AC862" s="34"/>
       <c r="AD862" s="34"/>
       <c r="AE862" s="34"/>
     </row>
-    <row r="863" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="863" spans="29:31">
       <c r="AC863" s="34"/>
       <c r="AD863" s="34"/>
       <c r="AE863" s="34"/>
     </row>
-    <row r="864" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="864" spans="29:31">
       <c r="AC864" s="34"/>
       <c r="AD864" s="34"/>
       <c r="AE864" s="34"/>
     </row>
-    <row r="865" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="865" spans="29:31">
       <c r="AC865" s="34"/>
       <c r="AD865" s="34"/>
       <c r="AE865" s="34"/>
     </row>
-    <row r="866" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="866" spans="29:31">
       <c r="AC866" s="34"/>
       <c r="AD866" s="34"/>
       <c r="AE866" s="34"/>
     </row>
-    <row r="867" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="867" spans="29:31">
       <c r="AC867" s="34"/>
       <c r="AD867" s="34"/>
       <c r="AE867" s="34"/>
     </row>
-    <row r="868" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="868" spans="29:31">
       <c r="AC868" s="34"/>
       <c r="AD868" s="34"/>
       <c r="AE868" s="34"/>
     </row>
-    <row r="869" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="869" spans="29:31">
       <c r="AC869" s="34"/>
       <c r="AD869" s="34"/>
       <c r="AE869" s="34"/>
     </row>
-    <row r="870" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="870" spans="29:31">
       <c r="AC870" s="34"/>
       <c r="AD870" s="34"/>
       <c r="AE870" s="34"/>
     </row>
-    <row r="871" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="871" spans="29:31">
       <c r="AC871" s="34"/>
       <c r="AD871" s="34"/>
       <c r="AE871" s="34"/>
     </row>
-    <row r="872" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="872" spans="29:31">
       <c r="AC872" s="34"/>
       <c r="AD872" s="34"/>
       <c r="AE872" s="34"/>
     </row>
-    <row r="873" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="873" spans="29:31">
       <c r="AC873" s="34"/>
       <c r="AD873" s="34"/>
       <c r="AE873" s="34"/>
     </row>
-    <row r="874" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="874" spans="29:31">
       <c r="AC874" s="34"/>
       <c r="AD874" s="34"/>
       <c r="AE874" s="34"/>
     </row>
-    <row r="875" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="875" spans="29:31">
       <c r="AC875" s="34"/>
       <c r="AD875" s="34"/>
       <c r="AE875" s="34"/>
     </row>
-    <row r="876" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="876" spans="29:31">
       <c r="AC876" s="34"/>
       <c r="AD876" s="34"/>
       <c r="AE876" s="34"/>
     </row>
-    <row r="877" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="877" spans="29:31">
       <c r="AC877" s="34"/>
       <c r="AD877" s="34"/>
       <c r="AE877" s="34"/>
     </row>
-    <row r="878" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="878" spans="29:31">
       <c r="AC878" s="34"/>
       <c r="AD878" s="34"/>
       <c r="AE878" s="34"/>
     </row>
-    <row r="879" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="879" spans="29:31">
       <c r="AC879" s="34"/>
       <c r="AD879" s="34"/>
       <c r="AE879" s="34"/>
     </row>
-    <row r="880" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="880" spans="29:31">
       <c r="AC880" s="34"/>
       <c r="AD880" s="34"/>
       <c r="AE880" s="34"/>
     </row>
-    <row r="881" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="881" spans="29:31">
       <c r="AC881" s="34"/>
       <c r="AD881" s="34"/>
       <c r="AE881" s="34"/>
     </row>
-    <row r="882" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="882" spans="29:31">
       <c r="AC882" s="34"/>
       <c r="AD882" s="34"/>
       <c r="AE882" s="34"/>
     </row>
-    <row r="883" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="883" spans="29:31">
       <c r="AC883" s="34"/>
       <c r="AD883" s="34"/>
       <c r="AE883" s="34"/>
     </row>
-    <row r="884" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="884" spans="29:31">
       <c r="AC884" s="34"/>
       <c r="AD884" s="34"/>
       <c r="AE884" s="34"/>
     </row>
-    <row r="885" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="885" spans="29:31">
       <c r="AC885" s="34"/>
       <c r="AD885" s="34"/>
       <c r="AE885" s="34"/>
     </row>
-    <row r="886" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="886" spans="29:31">
       <c r="AC886" s="34"/>
       <c r="AD886" s="34"/>
       <c r="AE886" s="34"/>
     </row>
-    <row r="887" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="887" spans="29:31">
       <c r="AC887" s="34"/>
       <c r="AD887" s="34"/>
       <c r="AE887" s="34"/>
     </row>
-    <row r="888" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="888" spans="29:31">
       <c r="AC888" s="34"/>
       <c r="AD888" s="34"/>
       <c r="AE888" s="34"/>
     </row>
-    <row r="889" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="889" spans="29:31">
       <c r="AC889" s="34"/>
       <c r="AD889" s="34"/>
       <c r="AE889" s="34"/>
     </row>
-    <row r="890" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="890" spans="29:31">
       <c r="AC890" s="34"/>
       <c r="AD890" s="34"/>
       <c r="AE890" s="34"/>
     </row>
-    <row r="891" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="891" spans="29:31">
       <c r="AC891" s="34"/>
       <c r="AD891" s="34"/>
       <c r="AE891" s="34"/>
     </row>
-    <row r="892" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="892" spans="29:31">
       <c r="AC892" s="34"/>
       <c r="AD892" s="34"/>
       <c r="AE892" s="34"/>
     </row>
-    <row r="893" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="893" spans="29:31">
       <c r="AC893" s="34"/>
       <c r="AD893" s="34"/>
       <c r="AE893" s="34"/>
     </row>
-    <row r="894" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="894" spans="29:31">
       <c r="AC894" s="34"/>
       <c r="AD894" s="34"/>
       <c r="AE894" s="34"/>
     </row>
-    <row r="895" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="895" spans="29:31">
       <c r="AC895" s="34"/>
       <c r="AD895" s="34"/>
       <c r="AE895" s="34"/>
     </row>
-    <row r="896" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="896" spans="29:31">
       <c r="AC896" s="34"/>
       <c r="AD896" s="34"/>
       <c r="AE896" s="34"/>
     </row>
-    <row r="897" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="897" spans="29:31">
       <c r="AC897" s="34"/>
       <c r="AD897" s="34"/>
       <c r="AE897" s="34"/>
     </row>
-    <row r="898" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="898" spans="29:31">
       <c r="AC898" s="34"/>
       <c r="AD898" s="34"/>
       <c r="AE898" s="34"/>
     </row>
-    <row r="899" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="899" spans="29:31">
       <c r="AC899" s="34"/>
       <c r="AD899" s="34"/>
       <c r="AE899" s="34"/>
     </row>
-    <row r="900" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="900" spans="29:31">
       <c r="AC900" s="34"/>
       <c r="AD900" s="34"/>
       <c r="AE900" s="34"/>
     </row>
-    <row r="901" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="901" spans="29:31">
       <c r="AC901" s="34"/>
       <c r="AD901" s="34"/>
       <c r="AE901" s="34"/>
     </row>
-    <row r="902" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="902" spans="29:31">
       <c r="AC902" s="34"/>
       <c r="AD902" s="34"/>
       <c r="AE902" s="34"/>
     </row>
-    <row r="903" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="903" spans="29:31">
       <c r="AC903" s="34"/>
       <c r="AD903" s="34"/>
       <c r="AE903" s="34"/>
     </row>
-    <row r="904" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="904" spans="29:31">
       <c r="AC904" s="34"/>
       <c r="AD904" s="34"/>
       <c r="AE904" s="34"/>
     </row>
-    <row r="905" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="905" spans="29:31">
       <c r="AC905" s="34"/>
       <c r="AD905" s="34"/>
       <c r="AE905" s="34"/>
     </row>
-    <row r="906" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="906" spans="29:31">
       <c r="AC906" s="34"/>
       <c r="AD906" s="34"/>
       <c r="AE906" s="34"/>
     </row>
-    <row r="907" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="907" spans="29:31">
       <c r="AC907" s="34"/>
       <c r="AD907" s="34"/>
       <c r="AE907" s="34"/>
     </row>
-    <row r="908" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="908" spans="29:31">
       <c r="AC908" s="34"/>
       <c r="AD908" s="34"/>
       <c r="AE908" s="34"/>
     </row>
-    <row r="909" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="909" spans="29:31">
       <c r="AC909" s="34"/>
       <c r="AD909" s="34"/>
       <c r="AE909" s="34"/>
     </row>
-    <row r="910" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="910" spans="29:31">
       <c r="AC910" s="34"/>
       <c r="AD910" s="34"/>
       <c r="AE910" s="34"/>
     </row>
-    <row r="911" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="911" spans="29:31">
       <c r="AC911" s="34"/>
       <c r="AD911" s="34"/>
       <c r="AE911" s="34"/>
     </row>
-    <row r="912" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="912" spans="29:31">
       <c r="AC912" s="34"/>
       <c r="AD912" s="34"/>
       <c r="AE912" s="34"/>
     </row>
-    <row r="913" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="913" spans="29:31">
       <c r="AC913" s="34"/>
       <c r="AD913" s="34"/>
       <c r="AE913" s="34"/>
     </row>
-    <row r="914" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="914" spans="29:31">
       <c r="AC914" s="34"/>
       <c r="AD914" s="34"/>
       <c r="AE914" s="34"/>
     </row>
-    <row r="915" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="915" spans="29:31">
       <c r="AC915" s="34"/>
       <c r="AD915" s="34"/>
       <c r="AE915" s="34"/>
     </row>
-    <row r="916" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="916" spans="29:31">
       <c r="AC916" s="34"/>
       <c r="AD916" s="34"/>
       <c r="AE916" s="34"/>
     </row>
-    <row r="917" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="917" spans="29:31">
       <c r="AC917" s="34"/>
       <c r="AD917" s="34"/>
       <c r="AE917" s="34"/>
     </row>
-    <row r="918" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="918" spans="29:31">
       <c r="AC918" s="34"/>
       <c r="AD918" s="34"/>
       <c r="AE918" s="34"/>
     </row>
-    <row r="919" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="919" spans="29:31">
       <c r="AC919" s="34"/>
       <c r="AD919" s="34"/>
       <c r="AE919" s="34"/>
     </row>
-    <row r="920" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="920" spans="29:31">
       <c r="AC920" s="34"/>
       <c r="AD920" s="34"/>
       <c r="AE920" s="34"/>
     </row>
-    <row r="921" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="921" spans="29:31">
       <c r="AC921" s="34"/>
       <c r="AD921" s="34"/>
       <c r="AE921" s="34"/>
     </row>
-    <row r="922" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="922" spans="29:31">
       <c r="AC922" s="34"/>
       <c r="AD922" s="34"/>
       <c r="AE922" s="34"/>
     </row>
-    <row r="923" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="923" spans="29:31">
       <c r="AC923" s="34"/>
       <c r="AD923" s="34"/>
       <c r="AE923" s="34"/>
     </row>
-    <row r="924" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="924" spans="29:31">
       <c r="AC924" s="34"/>
       <c r="AD924" s="34"/>
       <c r="AE924" s="34"/>
     </row>
-    <row r="925" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="925" spans="29:31">
       <c r="AC925" s="34"/>
       <c r="AD925" s="34"/>
       <c r="AE925" s="34"/>
     </row>
-    <row r="926" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="926" spans="29:31">
       <c r="AC926" s="34"/>
       <c r="AD926" s="34"/>
       <c r="AE926" s="34"/>
     </row>
-    <row r="927" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="927" spans="29:31">
       <c r="AC927" s="34"/>
       <c r="AD927" s="34"/>
       <c r="AE927" s="34"/>
     </row>
-    <row r="928" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="928" spans="29:31">
       <c r="AC928" s="34"/>
       <c r="AD928" s="34"/>
       <c r="AE928" s="34"/>
     </row>
-    <row r="929" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="929" spans="29:31">
       <c r="AC929" s="34"/>
       <c r="AD929" s="34"/>
       <c r="AE929" s="34"/>
     </row>
-    <row r="930" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="930" spans="29:31">
       <c r="AC930" s="34"/>
       <c r="AD930" s="34"/>
       <c r="AE930" s="34"/>
     </row>
-    <row r="931" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="931" spans="29:31">
       <c r="AC931" s="34"/>
       <c r="AD931" s="34"/>
       <c r="AE931" s="34"/>
     </row>
-    <row r="932" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="932" spans="29:31">
       <c r="AC932" s="34"/>
       <c r="AD932" s="34"/>
       <c r="AE932" s="34"/>
     </row>
-    <row r="933" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="933" spans="29:31">
       <c r="AC933" s="34"/>
       <c r="AD933" s="34"/>
       <c r="AE933" s="34"/>
     </row>
-    <row r="934" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="934" spans="29:31">
       <c r="AC934" s="34"/>
       <c r="AD934" s="34"/>
       <c r="AE934" s="34"/>
     </row>
-    <row r="935" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="935" spans="29:31">
       <c r="AC935" s="34"/>
       <c r="AD935" s="34"/>
       <c r="AE935" s="34"/>
     </row>
-    <row r="936" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="936" spans="29:31">
       <c r="AC936" s="34"/>
       <c r="AD936" s="34"/>
       <c r="AE936" s="34"/>
     </row>
-    <row r="937" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="937" spans="29:31">
       <c r="AC937" s="34"/>
       <c r="AD937" s="34"/>
       <c r="AE937" s="34"/>
     </row>
-    <row r="938" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="938" spans="29:31">
       <c r="AC938" s="34"/>
       <c r="AD938" s="34"/>
       <c r="AE938" s="34"/>
     </row>
-    <row r="939" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="939" spans="29:31">
       <c r="AC939" s="34"/>
       <c r="AD939" s="34"/>
       <c r="AE939" s="34"/>
     </row>
-    <row r="940" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="940" spans="29:31">
       <c r="AC940" s="34"/>
       <c r="AD940" s="34"/>
       <c r="AE940" s="34"/>
     </row>
-    <row r="941" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="941" spans="29:31">
       <c r="AC941" s="34"/>
       <c r="AD941" s="34"/>
       <c r="AE941" s="34"/>
     </row>
-    <row r="942" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="942" spans="29:31">
       <c r="AC942" s="34"/>
       <c r="AD942" s="34"/>
       <c r="AE942" s="34"/>
     </row>
-    <row r="943" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="943" spans="29:31">
       <c r="AC943" s="34"/>
       <c r="AD943" s="34"/>
       <c r="AE943" s="34"/>
     </row>
-    <row r="944" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="944" spans="29:31">
       <c r="AC944" s="34"/>
       <c r="AD944" s="34"/>
       <c r="AE944" s="34"/>
     </row>
-    <row r="945" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="945" spans="29:31">
       <c r="AC945" s="34"/>
       <c r="AD945" s="34"/>
       <c r="AE945" s="34"/>
     </row>
-    <row r="946" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="946" spans="29:31">
       <c r="AC946" s="34"/>
       <c r="AD946" s="34"/>
       <c r="AE946" s="34"/>
     </row>
-    <row r="947" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="947" spans="29:31">
       <c r="AC947" s="34"/>
       <c r="AD947" s="34"/>
       <c r="AE947" s="34"/>
     </row>
-    <row r="948" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="948" spans="29:31">
       <c r="AC948" s="34"/>
       <c r="AD948" s="34"/>
       <c r="AE948" s="34"/>
     </row>
-    <row r="949" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="949" spans="29:31">
       <c r="AC949" s="34"/>
       <c r="AD949" s="34"/>
       <c r="AE949" s="34"/>
     </row>
-    <row r="950" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="950" spans="29:31">
       <c r="AC950" s="34"/>
       <c r="AD950" s="34"/>
       <c r="AE950" s="34"/>
     </row>
-    <row r="951" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="951" spans="29:31">
       <c r="AC951" s="34"/>
       <c r="AD951" s="34"/>
       <c r="AE951" s="34"/>
     </row>
-    <row r="952" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="952" spans="29:31">
       <c r="AC952" s="34"/>
       <c r="AD952" s="34"/>
       <c r="AE952" s="34"/>
     </row>
-    <row r="953" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="953" spans="29:31">
       <c r="AC953" s="34"/>
       <c r="AD953" s="34"/>
       <c r="AE953" s="34"/>
     </row>
-    <row r="954" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="954" spans="29:31">
       <c r="AC954" s="34"/>
       <c r="AD954" s="34"/>
       <c r="AE954" s="34"/>
     </row>
-    <row r="955" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="955" spans="29:31">
       <c r="AC955" s="34"/>
       <c r="AD955" s="34"/>
       <c r="AE955" s="34"/>
     </row>
-    <row r="956" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="956" spans="29:31">
       <c r="AC956" s="34"/>
       <c r="AD956" s="34"/>
       <c r="AE956" s="34"/>
     </row>
-    <row r="957" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="957" spans="29:31">
       <c r="AC957" s="34"/>
       <c r="AD957" s="34"/>
       <c r="AE957" s="34"/>
     </row>
-    <row r="958" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="958" spans="29:31">
       <c r="AC958" s="34"/>
       <c r="AD958" s="34"/>
       <c r="AE958" s="34"/>
     </row>
-    <row r="959" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="959" spans="29:31">
       <c r="AC959" s="34"/>
       <c r="AD959" s="34"/>
       <c r="AE959" s="34"/>
     </row>
-    <row r="960" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="960" spans="29:31">
       <c r="AC960" s="34"/>
       <c r="AD960" s="34"/>
       <c r="AE960" s="34"/>
     </row>
-    <row r="961" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="961" spans="29:31">
       <c r="AC961" s="34"/>
       <c r="AD961" s="34"/>
       <c r="AE961" s="34"/>
     </row>
-    <row r="962" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="962" spans="29:31">
       <c r="AC962" s="34"/>
       <c r="AD962" s="34"/>
       <c r="AE962" s="34"/>
     </row>
-    <row r="963" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="963" spans="29:31">
       <c r="AC963" s="34"/>
       <c r="AD963" s="34"/>
       <c r="AE963" s="34"/>
     </row>
-    <row r="964" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="964" spans="29:31">
       <c r="AC964" s="34"/>
       <c r="AD964" s="34"/>
       <c r="AE964" s="34"/>
     </row>
-    <row r="965" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="965" spans="29:31">
       <c r="AC965" s="34"/>
       <c r="AD965" s="34"/>
       <c r="AE965" s="34"/>
     </row>
-    <row r="966" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="966" spans="29:31">
       <c r="AC966" s="34"/>
       <c r="AD966" s="34"/>
       <c r="AE966" s="34"/>
     </row>
-    <row r="967" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="967" spans="29:31">
       <c r="AC967" s="34"/>
       <c r="AD967" s="34"/>
       <c r="AE967" s="34"/>
     </row>
-    <row r="968" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="968" spans="29:31">
       <c r="AC968" s="34"/>
       <c r="AD968" s="34"/>
       <c r="AE968" s="34"/>
     </row>
-    <row r="969" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="969" spans="29:31">
       <c r="AC969" s="34"/>
       <c r="AD969" s="34"/>
       <c r="AE969" s="34"/>
     </row>
-    <row r="970" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="970" spans="29:31">
       <c r="AC970" s="34"/>
       <c r="AD970" s="34"/>
       <c r="AE970" s="34"/>
     </row>
-    <row r="971" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="971" spans="29:31">
       <c r="AC971" s="34"/>
       <c r="AD971" s="34"/>
       <c r="AE971" s="34"/>
     </row>
-    <row r="972" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="972" spans="29:31">
       <c r="AC972" s="34"/>
       <c r="AD972" s="34"/>
       <c r="AE972" s="34"/>
     </row>
-    <row r="973" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="973" spans="29:31">
       <c r="AC973" s="34"/>
       <c r="AD973" s="34"/>
       <c r="AE973" s="34"/>
     </row>
-    <row r="974" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="974" spans="29:31">
       <c r="AC974" s="34"/>
       <c r="AD974" s="34"/>
       <c r="AE974" s="34"/>
     </row>
-    <row r="975" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="975" spans="29:31">
       <c r="AC975" s="34"/>
       <c r="AD975" s="34"/>
       <c r="AE975" s="34"/>
     </row>
-    <row r="976" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="976" spans="29:31">
       <c r="AC976" s="34"/>
       <c r="AD976" s="34"/>
       <c r="AE976" s="34"/>
     </row>
-    <row r="977" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="977" spans="29:31">
       <c r="AC977" s="34"/>
       <c r="AD977" s="34"/>
       <c r="AE977" s="34"/>
     </row>
-    <row r="978" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="978" spans="29:31">
       <c r="AC978" s="34"/>
       <c r="AD978" s="34"/>
       <c r="AE978" s="34"/>
     </row>
-    <row r="979" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="979" spans="29:31">
       <c r="AC979" s="34"/>
       <c r="AD979" s="34"/>
       <c r="AE979" s="34"/>
     </row>
-    <row r="980" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="980" spans="29:31">
       <c r="AC980" s="34"/>
       <c r="AD980" s="34"/>
       <c r="AE980" s="34"/>
     </row>
-    <row r="981" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="981" spans="29:31">
       <c r="AC981" s="34"/>
       <c r="AD981" s="34"/>
       <c r="AE981" s="34"/>
     </row>
-    <row r="982" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="982" spans="29:31">
       <c r="AC982" s="34"/>
       <c r="AD982" s="34"/>
       <c r="AE982" s="34"/>
     </row>
-    <row r="983" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="983" spans="29:31">
       <c r="AC983" s="34"/>
       <c r="AD983" s="34"/>
       <c r="AE983" s="34"/>
     </row>
-    <row r="984" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="984" spans="29:31">
       <c r="AC984" s="34"/>
       <c r="AD984" s="34"/>
       <c r="AE984" s="34"/>
     </row>
-    <row r="985" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="985" spans="29:31">
       <c r="AC985" s="34"/>
       <c r="AD985" s="34"/>
       <c r="AE985" s="34"/>
     </row>
-    <row r="986" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="986" spans="29:31">
       <c r="AC986" s="34"/>
       <c r="AD986" s="34"/>
       <c r="AE986" s="34"/>
     </row>
-    <row r="987" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="987" spans="29:31">
       <c r="AC987" s="34"/>
       <c r="AD987" s="34"/>
       <c r="AE987" s="34"/>
     </row>
-    <row r="988" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="988" spans="29:31">
       <c r="AC988" s="34"/>
       <c r="AD988" s="34"/>
       <c r="AE988" s="34"/>
     </row>
-    <row r="989" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="989" spans="29:31">
       <c r="AC989" s="34"/>
       <c r="AD989" s="34"/>
       <c r="AE989" s="34"/>
     </row>
-    <row r="990" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="990" spans="29:31">
       <c r="AC990" s="34"/>
       <c r="AD990" s="34"/>
       <c r="AE990" s="34"/>
     </row>
-    <row r="991" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="991" spans="29:31">
       <c r="AC991" s="34"/>
       <c r="AD991" s="34"/>
       <c r="AE991" s="34"/>
     </row>
-    <row r="992" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="992" spans="29:31">
       <c r="AC992" s="34"/>
       <c r="AD992" s="34"/>
       <c r="AE992" s="34"/>
     </row>
-    <row r="993" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="993" spans="29:31">
       <c r="AC993" s="34"/>
       <c r="AD993" s="34"/>
       <c r="AE993" s="34"/>
     </row>
-    <row r="994" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="994" spans="29:31">
       <c r="AC994" s="34"/>
       <c r="AD994" s="34"/>
       <c r="AE994" s="34"/>
     </row>
-    <row r="995" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="995" spans="29:31">
       <c r="AC995" s="34"/>
       <c r="AD995" s="34"/>
       <c r="AE995" s="34"/>
     </row>
-    <row r="996" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="996" spans="29:31">
       <c r="AC996" s="34"/>
       <c r="AD996" s="34"/>
       <c r="AE996" s="34"/>
     </row>
-    <row r="997" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="997" spans="29:31">
       <c r="AC997" s="34"/>
       <c r="AD997" s="34"/>
       <c r="AE997" s="34"/>
     </row>
-    <row r="998" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="998" spans="29:31">
       <c r="AC998" s="34"/>
       <c r="AD998" s="34"/>
       <c r="AE998" s="34"/>
     </row>
-    <row r="999" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="999" spans="29:31">
       <c r="AC999" s="34"/>
       <c r="AD999" s="34"/>
       <c r="AE999" s="34"/>
     </row>
-    <row r="1000" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1000" spans="29:31">
       <c r="AC1000" s="34"/>
       <c r="AD1000" s="34"/>
       <c r="AE1000" s="34"/>
     </row>
-    <row r="1001" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1001" spans="29:31">
       <c r="AC1001" s="34"/>
       <c r="AD1001" s="34"/>
       <c r="AE1001" s="34"/>
     </row>
-    <row r="1002" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1002" spans="29:31">
       <c r="AC1002" s="34"/>
       <c r="AD1002" s="34"/>
       <c r="AE1002" s="34"/>
     </row>
-    <row r="1003" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1003" spans="29:31">
       <c r="AC1003" s="34"/>
       <c r="AD1003" s="34"/>
       <c r="AE1003" s="34"/>
     </row>
-    <row r="1004" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1004" spans="29:31">
       <c r="AC1004" s="34"/>
       <c r="AD1004" s="34"/>
       <c r="AE1004" s="34"/>
     </row>
-    <row r="1005" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1005" spans="29:31">
       <c r="AC1005" s="34"/>
       <c r="AD1005" s="34"/>
       <c r="AE1005" s="34"/>
     </row>
-    <row r="1006" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1006" spans="29:31">
       <c r="AC1006" s="34"/>
       <c r="AD1006" s="34"/>
       <c r="AE1006" s="34"/>
     </row>
-    <row r="1007" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1007" spans="29:31">
       <c r="AC1007" s="34"/>
       <c r="AD1007" s="34"/>
       <c r="AE1007" s="34"/>
     </row>
-    <row r="1008" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1008" spans="29:31">
       <c r="AC1008" s="34"/>
       <c r="AD1008" s="34"/>
       <c r="AE1008" s="34"/>
     </row>
-    <row r="1009" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1009" spans="29:31">
       <c r="AC1009" s="34"/>
       <c r="AD1009" s="34"/>
       <c r="AE1009" s="34"/>
     </row>
-    <row r="1010" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1010" spans="29:31">
       <c r="AC1010" s="34"/>
       <c r="AD1010" s="34"/>
       <c r="AE1010" s="34"/>
     </row>
-    <row r="1011" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1011" spans="29:31">
       <c r="AC1011" s="34"/>
       <c r="AD1011" s="34"/>
       <c r="AE1011" s="34"/>
     </row>
-    <row r="1012" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1012" spans="29:31">
       <c r="AC1012" s="34"/>
       <c r="AD1012" s="34"/>
       <c r="AE1012" s="34"/>
     </row>
-    <row r="1013" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1013" spans="29:31">
       <c r="AC1013" s="34"/>
       <c r="AD1013" s="34"/>
       <c r="AE1013" s="34"/>
     </row>
-    <row r="1014" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1014" spans="29:31">
       <c r="AC1014" s="34"/>
       <c r="AD1014" s="34"/>
       <c r="AE1014" s="34"/>
     </row>
-    <row r="1015" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1015" spans="29:31">
       <c r="AC1015" s="34"/>
       <c r="AD1015" s="34"/>
       <c r="AE1015" s="34"/>
     </row>
-    <row r="1016" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1016" spans="29:31">
       <c r="AC1016" s="34"/>
       <c r="AD1016" s="34"/>
       <c r="AE1016" s="34"/>
     </row>
-    <row r="1017" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1017" spans="29:31">
       <c r="AC1017" s="34"/>
       <c r="AD1017" s="34"/>
       <c r="AE1017" s="34"/>
     </row>
-    <row r="1018" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1018" spans="29:31">
       <c r="AC1018" s="34"/>
       <c r="AD1018" s="34"/>
       <c r="AE1018" s="34"/>
     </row>
-    <row r="1019" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1019" spans="29:31">
       <c r="AC1019" s="34"/>
       <c r="AD1019" s="34"/>
       <c r="AE1019" s="34"/>
     </row>
-    <row r="1020" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1020" spans="29:31">
       <c r="AC1020" s="34"/>
       <c r="AD1020" s="34"/>
       <c r="AE1020" s="34"/>
     </row>
-    <row r="1021" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1021" spans="29:31">
       <c r="AC1021" s="34"/>
       <c r="AD1021" s="34"/>
       <c r="AE1021" s="34"/>
     </row>
-    <row r="1022" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1022" spans="29:31">
       <c r="AC1022" s="34"/>
       <c r="AD1022" s="34"/>
       <c r="AE1022" s="34"/>
     </row>
-    <row r="1023" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1023" spans="29:31">
       <c r="AC1023" s="34"/>
       <c r="AD1023" s="34"/>
       <c r="AE1023" s="34"/>
     </row>
-    <row r="1024" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1024" spans="29:31">
       <c r="AC1024" s="34"/>
       <c r="AD1024" s="34"/>
       <c r="AE1024" s="34"/>
     </row>
-    <row r="1025" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1025" spans="29:31">
       <c r="AC1025" s="34"/>
       <c r="AD1025" s="34"/>
       <c r="AE1025" s="34"/>
     </row>
-    <row r="1026" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1026" spans="29:31">
       <c r="AC1026" s="34"/>
       <c r="AD1026" s="34"/>
       <c r="AE1026" s="34"/>
     </row>
-    <row r="1027" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1027" spans="29:31">
       <c r="AC1027" s="34"/>
       <c r="AD1027" s="34"/>
       <c r="AE1027" s="34"/>
     </row>
-    <row r="1028" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1028" spans="29:31">
       <c r="AC1028" s="34"/>
       <c r="AD1028" s="34"/>
       <c r="AE1028" s="34"/>
     </row>
-    <row r="1029" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1029" spans="29:31">
       <c r="AC1029" s="34"/>
       <c r="AD1029" s="34"/>
       <c r="AE1029" s="34"/>
     </row>
-    <row r="1030" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1030" spans="29:31">
       <c r="AC1030" s="34"/>
       <c r="AD1030" s="34"/>
       <c r="AE1030" s="34"/>
     </row>
-    <row r="1031" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1031" spans="29:31">
       <c r="AC1031" s="34"/>
       <c r="AD1031" s="34"/>
       <c r="AE1031" s="34"/>
     </row>
-    <row r="1032" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1032" spans="29:31">
       <c r="AC1032" s="34"/>
       <c r="AD1032" s="34"/>
       <c r="AE1032" s="34"/>
     </row>
-    <row r="1033" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1033" spans="29:31">
       <c r="AC1033" s="34"/>
       <c r="AD1033" s="34"/>
       <c r="AE1033" s="34"/>
     </row>
-    <row r="1034" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1034" spans="29:31">
       <c r="AC1034" s="34"/>
       <c r="AD1034" s="34"/>
       <c r="AE1034" s="34"/>
     </row>
-    <row r="1035" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1035" spans="29:31">
       <c r="AC1035" s="34"/>
       <c r="AD1035" s="34"/>
       <c r="AE1035" s="34"/>
     </row>
-    <row r="1036" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1036" spans="29:31">
       <c r="AC1036" s="34"/>
       <c r="AD1036" s="34"/>
       <c r="AE1036" s="34"/>
     </row>
-    <row r="1037" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1037" spans="29:31">
       <c r="AC1037" s="34"/>
       <c r="AD1037" s="34"/>
       <c r="AE1037" s="34"/>
     </row>
-    <row r="1038" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1038" spans="29:31">
       <c r="AC1038" s="34"/>
       <c r="AD1038" s="34"/>
       <c r="AE1038" s="34"/>
     </row>
-    <row r="1039" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1039" spans="29:31">
       <c r="AC1039" s="34"/>
       <c r="AD1039" s="34"/>
       <c r="AE1039" s="34"/>
     </row>
-    <row r="1040" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1040" spans="29:31">
       <c r="AC1040" s="34"/>
       <c r="AD1040" s="34"/>
       <c r="AE1040" s="34"/>
     </row>
-    <row r="1041" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1041" spans="29:31">
       <c r="AC1041" s="34"/>
       <c r="AD1041" s="34"/>
       <c r="AE1041" s="34"/>
     </row>
-    <row r="1042" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1042" spans="29:31">
       <c r="AC1042" s="34"/>
       <c r="AD1042" s="34"/>
       <c r="AE1042" s="34"/>
     </row>
-    <row r="1043" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1043" spans="29:31">
       <c r="AC1043" s="34"/>
       <c r="AD1043" s="34"/>
       <c r="AE1043" s="34"/>
     </row>
-    <row r="1044" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1044" spans="29:31">
       <c r="AC1044" s="34"/>
       <c r="AD1044" s="34"/>
       <c r="AE1044" s="34"/>
     </row>
-    <row r="1045" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1045" spans="29:31">
       <c r="AC1045" s="34"/>
       <c r="AD1045" s="34"/>
       <c r="AE1045" s="34"/>
     </row>
-    <row r="1046" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1046" spans="29:31">
       <c r="AC1046" s="34"/>
       <c r="AD1046" s="34"/>
       <c r="AE1046" s="34"/>
     </row>
-    <row r="1047" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1047" spans="29:31">
       <c r="AC1047" s="34"/>
       <c r="AD1047" s="34"/>
       <c r="AE1047" s="34"/>
     </row>
-    <row r="1048" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1048" spans="29:31">
       <c r="AC1048" s="34"/>
       <c r="AD1048" s="34"/>
       <c r="AE1048" s="34"/>
     </row>
-    <row r="1049" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1049" spans="29:31">
       <c r="AC1049" s="34"/>
       <c r="AD1049" s="34"/>
       <c r="AE1049" s="34"/>
     </row>
-    <row r="1050" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1050" spans="29:31">
       <c r="AC1050" s="34"/>
       <c r="AD1050" s="34"/>
       <c r="AE1050" s="34"/>
     </row>
-    <row r="1051" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1051" spans="29:31">
       <c r="AC1051" s="34"/>
       <c r="AD1051" s="34"/>
       <c r="AE1051" s="34"/>
     </row>
-    <row r="1052" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1052" spans="29:31">
       <c r="AC1052" s="34"/>
       <c r="AD1052" s="34"/>
       <c r="AE1052" s="34"/>
     </row>
-    <row r="1053" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1053" spans="29:31">
       <c r="AC1053" s="34"/>
       <c r="AD1053" s="34"/>
       <c r="AE1053" s="34"/>
     </row>
-    <row r="1054" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1054" spans="29:31">
       <c r="AC1054" s="34"/>
       <c r="AD1054" s="34"/>
       <c r="AE1054" s="34"/>
     </row>
-    <row r="1055" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1055" spans="29:31">
       <c r="AC1055" s="34"/>
       <c r="AD1055" s="34"/>
       <c r="AE1055" s="34"/>
     </row>
-    <row r="1056" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1056" spans="29:31">
       <c r="AC1056" s="34"/>
       <c r="AD1056" s="34"/>
       <c r="AE1056" s="34"/>
     </row>
-    <row r="1057" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1057" spans="29:31">
       <c r="AC1057" s="34"/>
       <c r="AD1057" s="34"/>
       <c r="AE1057" s="34"/>
     </row>
-    <row r="1058" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1058" spans="29:31">
       <c r="AC1058" s="34"/>
       <c r="AD1058" s="34"/>
       <c r="AE1058" s="34"/>
     </row>
-    <row r="1059" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1059" spans="29:31">
       <c r="AC1059" s="34"/>
       <c r="AD1059" s="34"/>
       <c r="AE1059" s="34"/>
     </row>
-    <row r="1060" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1060" spans="29:31">
       <c r="AC1060" s="34"/>
       <c r="AD1060" s="34"/>
       <c r="AE1060" s="34"/>
     </row>
-    <row r="1061" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1061" spans="29:31">
       <c r="AC1061" s="34"/>
       <c r="AD1061" s="34"/>
       <c r="AE1061" s="34"/>
     </row>
-    <row r="1062" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1062" spans="29:31">
       <c r="AC1062" s="34"/>
       <c r="AD1062" s="34"/>
       <c r="AE1062" s="34"/>
     </row>
-    <row r="1063" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1063" spans="29:31">
       <c r="AC1063" s="34"/>
       <c r="AD1063" s="34"/>
       <c r="AE1063" s="34"/>
     </row>
-    <row r="1064" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1064" spans="29:31">
       <c r="AC1064" s="34"/>
       <c r="AD1064" s="34"/>
       <c r="AE1064" s="34"/>
     </row>
-    <row r="1065" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1065" spans="29:31">
       <c r="AC1065" s="34"/>
       <c r="AD1065" s="34"/>
       <c r="AE1065" s="34"/>
     </row>
-    <row r="1066" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1066" spans="29:31">
       <c r="AC1066" s="34"/>
       <c r="AD1066" s="34"/>
       <c r="AE1066" s="34"/>
     </row>
-    <row r="1067" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1067" spans="29:31">
       <c r="AC1067" s="34"/>
       <c r="AD1067" s="34"/>
       <c r="AE1067" s="34"/>
     </row>
-    <row r="1068" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1068" spans="29:31">
       <c r="AC1068" s="34"/>
       <c r="AD1068" s="34"/>
       <c r="AE1068" s="34"/>
     </row>
-    <row r="1069" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1069" spans="29:31">
       <c r="AC1069" s="34"/>
       <c r="AD1069" s="34"/>
       <c r="AE1069" s="34"/>
     </row>
-    <row r="1070" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1070" spans="29:31">
       <c r="AC1070" s="34"/>
       <c r="AD1070" s="34"/>
       <c r="AE1070" s="34"/>
     </row>
-    <row r="1071" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1071" spans="29:31">
       <c r="AC1071" s="34"/>
       <c r="AD1071" s="34"/>
       <c r="AE1071" s="34"/>
     </row>
-    <row r="1072" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1072" spans="29:31">
       <c r="AC1072" s="34"/>
       <c r="AD1072" s="34"/>
       <c r="AE1072" s="34"/>
     </row>
-    <row r="1073" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1073" spans="29:31">
       <c r="AC1073" s="34"/>
       <c r="AD1073" s="34"/>
       <c r="AE1073" s="34"/>
     </row>
-    <row r="1074" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1074" spans="29:31">
       <c r="AC1074" s="34"/>
       <c r="AD1074" s="34"/>
       <c r="AE1074" s="34"/>
     </row>
-    <row r="1075" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1075" spans="29:31">
       <c r="AC1075" s="34"/>
       <c r="AD1075" s="34"/>
       <c r="AE1075" s="34"/>
     </row>
-    <row r="1076" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1076" spans="29:31">
       <c r="AC1076" s="34"/>
       <c r="AD1076" s="34"/>
       <c r="AE1076" s="34"/>
     </row>
-    <row r="1077" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1077" spans="29:31">
       <c r="AC1077" s="34"/>
       <c r="AD1077" s="34"/>
       <c r="AE1077" s="34"/>
     </row>
-    <row r="1078" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1078" spans="29:31">
       <c r="AC1078" s="34"/>
       <c r="AD1078" s="34"/>
       <c r="AE1078" s="34"/>
     </row>
-    <row r="1079" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1079" spans="29:31">
       <c r="AC1079" s="34"/>
       <c r="AD1079" s="34"/>
       <c r="AE1079" s="34"/>
     </row>
-    <row r="1080" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1080" spans="29:31">
       <c r="AC1080" s="34"/>
       <c r="AD1080" s="34"/>
       <c r="AE1080" s="34"/>
     </row>
-    <row r="1081" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1081" spans="29:31">
       <c r="AC1081" s="34"/>
       <c r="AD1081" s="34"/>
       <c r="AE1081" s="34"/>
     </row>
-    <row r="1082" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1082" spans="29:31">
       <c r="AC1082" s="34"/>
       <c r="AD1082" s="34"/>
       <c r="AE1082" s="34"/>
     </row>
-    <row r="1083" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1083" spans="29:31">
       <c r="AC1083" s="34"/>
       <c r="AD1083" s="34"/>
       <c r="AE1083" s="34"/>
     </row>
-    <row r="1084" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1084" spans="29:31">
       <c r="AC1084" s="34"/>
       <c r="AD1084" s="34"/>
       <c r="AE1084" s="34"/>
     </row>
-    <row r="1085" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1085" spans="29:31">
       <c r="AC1085" s="34"/>
       <c r="AD1085" s="34"/>
       <c r="AE1085" s="34"/>
     </row>
-    <row r="1086" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1086" spans="29:31">
       <c r="AC1086" s="34"/>
       <c r="AD1086" s="34"/>
       <c r="AE1086" s="34"/>
     </row>
-    <row r="1087" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1087" spans="29:31">
       <c r="AC1087" s="34"/>
       <c r="AD1087" s="34"/>
       <c r="AE1087" s="34"/>
     </row>
-    <row r="1088" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1088" spans="29:31">
       <c r="AC1088" s="34"/>
       <c r="AD1088" s="34"/>
       <c r="AE1088" s="34"/>
     </row>
-    <row r="1089" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1089" spans="29:31">
       <c r="AC1089" s="34"/>
       <c r="AD1089" s="34"/>
       <c r="AE1089" s="34"/>
     </row>
-    <row r="1090" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1090" spans="29:31">
       <c r="AC1090" s="34"/>
       <c r="AD1090" s="34"/>
       <c r="AE1090" s="34"/>
     </row>
-    <row r="1091" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1091" spans="29:31">
       <c r="AC1091" s="34"/>
       <c r="AD1091" s="34"/>
       <c r="AE1091" s="34"/>
     </row>
-    <row r="1092" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1092" spans="29:31">
       <c r="AC1092" s="34"/>
       <c r="AD1092" s="34"/>
       <c r="AE1092" s="34"/>
     </row>
-    <row r="1093" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1093" spans="29:31">
       <c r="AC1093" s="34"/>
       <c r="AD1093" s="34"/>
       <c r="AE1093" s="34"/>
     </row>
-    <row r="1094" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1094" spans="29:31">
       <c r="AC1094" s="34"/>
       <c r="AD1094" s="34"/>
       <c r="AE1094" s="34"/>
     </row>
-    <row r="1095" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1095" spans="29:31">
       <c r="AC1095" s="34"/>
       <c r="AD1095" s="34"/>
       <c r="AE1095" s="34"/>
     </row>
-    <row r="1096" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1096" spans="29:31">
       <c r="AC1096" s="34"/>
       <c r="AD1096" s="34"/>
       <c r="AE1096" s="34"/>
     </row>
-    <row r="1097" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1097" spans="29:31">
       <c r="AC1097" s="34"/>
       <c r="AD1097" s="34"/>
       <c r="AE1097" s="34"/>
     </row>
-    <row r="1098" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1098" spans="29:31">
       <c r="AC1098" s="34"/>
       <c r="AD1098" s="34"/>
       <c r="AE1098" s="34"/>
     </row>
-    <row r="1099" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1099" spans="29:31">
       <c r="AC1099" s="34"/>
       <c r="AD1099" s="34"/>
       <c r="AE1099" s="34"/>
     </row>
-    <row r="1100" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1100" spans="29:31">
       <c r="AC1100" s="34"/>
       <c r="AD1100" s="34"/>
       <c r="AE1100" s="34"/>
     </row>
-    <row r="1101" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1101" spans="29:31">
       <c r="AC1101" s="34"/>
       <c r="AD1101" s="34"/>
       <c r="AE1101" s="34"/>
     </row>
-    <row r="1102" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1102" spans="29:31">
       <c r="AC1102" s="34"/>
       <c r="AD1102" s="34"/>
       <c r="AE1102" s="34"/>
     </row>
-    <row r="1103" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1103" spans="29:31">
       <c r="AC1103" s="34"/>
       <c r="AD1103" s="34"/>
       <c r="AE1103" s="34"/>
     </row>
-    <row r="1104" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1104" spans="29:31">
       <c r="AC1104" s="34"/>
       <c r="AD1104" s="34"/>
       <c r="AE1104" s="34"/>
     </row>
-    <row r="1105" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1105" spans="29:31">
       <c r="AC1105" s="34"/>
       <c r="AD1105" s="34"/>
       <c r="AE1105" s="34"/>
     </row>
-    <row r="1106" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1106" spans="29:31">
       <c r="AC1106" s="34"/>
       <c r="AD1106" s="34"/>
       <c r="AE1106" s="34"/>
     </row>
-    <row r="1107" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1107" spans="29:31">
       <c r="AC1107" s="34"/>
       <c r="AD1107" s="34"/>
       <c r="AE1107" s="34"/>
     </row>
-    <row r="1108" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1108" spans="29:31">
       <c r="AC1108" s="34"/>
       <c r="AD1108" s="34"/>
       <c r="AE1108" s="34"/>
     </row>
-    <row r="1109" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1109" spans="29:31">
       <c r="AC1109" s="34"/>
       <c r="AD1109" s="34"/>
       <c r="AE1109" s="34"/>
     </row>
-    <row r="1110" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1110" spans="29:31">
       <c r="AC1110" s="34"/>
       <c r="AD1110" s="34"/>
       <c r="AE1110" s="34"/>
     </row>
-    <row r="1111" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1111" spans="29:31">
       <c r="AC1111" s="34"/>
       <c r="AD1111" s="34"/>
       <c r="AE1111" s="34"/>
     </row>
-    <row r="1112" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1112" spans="29:31">
       <c r="AC1112" s="34"/>
       <c r="AD1112" s="34"/>
       <c r="AE1112" s="34"/>
     </row>
-    <row r="1113" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1113" spans="29:31">
       <c r="AC1113" s="34"/>
       <c r="AD1113" s="34"/>
       <c r="AE1113" s="34"/>
     </row>
-    <row r="1114" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1114" spans="29:31">
       <c r="AC1114" s="34"/>
       <c r="AD1114" s="34"/>
       <c r="AE1114" s="34"/>
     </row>
-    <row r="1115" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1115" spans="29:31">
       <c r="AC1115" s="34"/>
       <c r="AD1115" s="34"/>
       <c r="AE1115" s="34"/>
     </row>
-    <row r="1116" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1116" spans="29:31">
       <c r="AC1116" s="34"/>
       <c r="AD1116" s="34"/>
       <c r="AE1116" s="34"/>
     </row>
-    <row r="1117" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1117" spans="29:31">
       <c r="AC1117" s="34"/>
       <c r="AD1117" s="34"/>
       <c r="AE1117" s="34"/>
     </row>
-    <row r="1118" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1118" spans="29:31">
       <c r="AC1118" s="34"/>
       <c r="AD1118" s="34"/>
       <c r="AE1118" s="34"/>
     </row>
-    <row r="1119" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1119" spans="29:31">
       <c r="AC1119" s="34"/>
       <c r="AD1119" s="34"/>
       <c r="AE1119" s="34"/>
     </row>
-    <row r="1120" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1120" spans="29:31">
       <c r="AC1120" s="34"/>
       <c r="AD1120" s="34"/>
       <c r="AE1120" s="34"/>
     </row>
-    <row r="1121" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1121" spans="29:31">
       <c r="AC1121" s="34"/>
       <c r="AD1121" s="34"/>
       <c r="AE1121" s="34"/>
     </row>
-    <row r="1122" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1122" spans="29:31">
       <c r="AC1122" s="34"/>
       <c r="AD1122" s="34"/>
       <c r="AE1122" s="34"/>
     </row>
-    <row r="1123" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1123" spans="29:31">
       <c r="AC1123" s="34"/>
       <c r="AD1123" s="34"/>
       <c r="AE1123" s="34"/>
     </row>
-    <row r="1124" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1124" spans="29:31">
       <c r="AC1124" s="34"/>
       <c r="AD1124" s="34"/>
       <c r="AE1124" s="34"/>
     </row>
-    <row r="1125" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1125" spans="29:31">
       <c r="AC1125" s="34"/>
       <c r="AD1125" s="34"/>
       <c r="AE1125" s="34"/>
     </row>
-    <row r="1126" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1126" spans="29:31">
       <c r="AC1126" s="34"/>
       <c r="AD1126" s="34"/>
       <c r="AE1126" s="34"/>
     </row>
-    <row r="1127" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1127" spans="29:31">
       <c r="AC1127" s="34"/>
       <c r="AD1127" s="34"/>
       <c r="AE1127" s="34"/>
     </row>
-    <row r="1128" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1128" spans="29:31">
       <c r="AC1128" s="34"/>
       <c r="AD1128" s="34"/>
       <c r="AE1128" s="34"/>
     </row>
-    <row r="1129" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1129" spans="29:31">
       <c r="AC1129" s="34"/>
       <c r="AD1129" s="34"/>
       <c r="AE1129" s="34"/>
     </row>
-    <row r="1130" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1130" spans="29:31">
       <c r="AC1130" s="34"/>
       <c r="AD1130" s="34"/>
       <c r="AE1130" s="34"/>
     </row>
-    <row r="1131" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1131" spans="29:31">
       <c r="AC1131" s="34"/>
       <c r="AD1131" s="34"/>
       <c r="AE1131" s="34"/>
     </row>
-    <row r="1132" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1132" spans="29:31">
       <c r="AC1132" s="34"/>
       <c r="AD1132" s="34"/>
       <c r="AE1132" s="34"/>
     </row>
-    <row r="1133" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1133" spans="29:31">
       <c r="AC1133" s="34"/>
       <c r="AD1133" s="34"/>
       <c r="AE1133" s="34"/>
     </row>
-    <row r="1134" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1134" spans="29:31">
       <c r="AC1134" s="34"/>
       <c r="AD1134" s="34"/>
       <c r="AE1134" s="34"/>
     </row>
-    <row r="1135" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1135" spans="29:31">
       <c r="AC1135" s="34"/>
       <c r="AD1135" s="34"/>
       <c r="AE1135" s="34"/>
     </row>
-    <row r="1136" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1136" spans="29:31">
       <c r="AC1136" s="34"/>
       <c r="AD1136" s="34"/>
       <c r="AE1136" s="34"/>
     </row>
-    <row r="1137" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1137" spans="29:31">
       <c r="AC1137" s="34"/>
       <c r="AD1137" s="34"/>
       <c r="AE1137" s="34"/>
     </row>
-    <row r="1138" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1138" spans="29:31">
       <c r="AC1138" s="34"/>
       <c r="AD1138" s="34"/>
       <c r="AE1138" s="34"/>
     </row>
-    <row r="1139" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1139" spans="29:31">
       <c r="AC1139" s="34"/>
       <c r="AD1139" s="34"/>
       <c r="AE1139" s="34"/>
     </row>
-    <row r="1140" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1140" spans="29:31">
       <c r="AC1140" s="34"/>
       <c r="AD1140" s="34"/>
       <c r="AE1140" s="34"/>
     </row>
-    <row r="1141" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1141" spans="29:31">
       <c r="AC1141" s="34"/>
       <c r="AD1141" s="34"/>
       <c r="AE1141" s="34"/>
     </row>
-    <row r="1142" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1142" spans="29:31">
       <c r="AC1142" s="34"/>
       <c r="AD1142" s="34"/>
       <c r="AE1142" s="34"/>
     </row>
-    <row r="1143" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1143" spans="29:31">
       <c r="AC1143" s="34"/>
       <c r="AD1143" s="34"/>
       <c r="AE1143" s="34"/>
     </row>
-    <row r="1144" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1144" spans="29:31">
       <c r="AC1144" s="34"/>
       <c r="AD1144" s="34"/>
       <c r="AE1144" s="34"/>
     </row>
-    <row r="1145" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1145" spans="29:31">
       <c r="AC1145" s="34"/>
       <c r="AD1145" s="34"/>
       <c r="AE1145" s="34"/>
     </row>
-    <row r="1146" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1146" spans="29:31">
       <c r="AC1146" s="34"/>
       <c r="AD1146" s="34"/>
       <c r="AE1146" s="34"/>
     </row>
-    <row r="1147" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1147" spans="29:31">
       <c r="AC1147" s="34"/>
       <c r="AD1147" s="34"/>
       <c r="AE1147" s="34"/>
     </row>
-    <row r="1148" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1148" spans="29:31">
       <c r="AC1148" s="34"/>
       <c r="AD1148" s="34"/>
       <c r="AE1148" s="34"/>
     </row>
-    <row r="1149" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1149" spans="29:31">
       <c r="AC1149" s="34"/>
       <c r="AD1149" s="34"/>
       <c r="AE1149" s="34"/>
     </row>
-    <row r="1150" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1150" spans="29:31">
       <c r="AC1150" s="34"/>
       <c r="AD1150" s="34"/>
       <c r="AE1150" s="34"/>
     </row>
-    <row r="1151" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1151" spans="29:31">
       <c r="AC1151" s="34"/>
       <c r="AD1151" s="34"/>
       <c r="AE1151" s="34"/>
     </row>
-    <row r="1152" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1152" spans="29:31">
       <c r="AC1152" s="34"/>
       <c r="AD1152" s="34"/>
       <c r="AE1152" s="34"/>
     </row>
-    <row r="1153" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1153" spans="29:31">
       <c r="AC1153" s="34"/>
       <c r="AD1153" s="34"/>
       <c r="AE1153" s="34"/>
     </row>
-    <row r="1154" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1154" spans="29:31">
       <c r="AC1154" s="34"/>
       <c r="AD1154" s="34"/>
       <c r="AE1154" s="34"/>
     </row>
-    <row r="1155" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1155" spans="29:31">
       <c r="AC1155" s="34"/>
       <c r="AD1155" s="34"/>
       <c r="AE1155" s="34"/>
     </row>
-    <row r="1156" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1156" spans="29:31">
       <c r="AC1156" s="34"/>
       <c r="AD1156" s="34"/>
       <c r="AE1156" s="34"/>
     </row>
-    <row r="1157" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1157" spans="29:31">
       <c r="AC1157" s="34"/>
       <c r="AD1157" s="34"/>
       <c r="AE1157" s="34"/>
     </row>
-    <row r="1158" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1158" spans="29:31">
       <c r="AC1158" s="34"/>
       <c r="AD1158" s="34"/>
       <c r="AE1158" s="34"/>
     </row>
-    <row r="1159" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1159" spans="29:31">
       <c r="AC1159" s="34"/>
       <c r="AD1159" s="34"/>
       <c r="AE1159" s="34"/>
     </row>
-    <row r="1160" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1160" spans="29:31">
       <c r="AC1160" s="34"/>
       <c r="AD1160" s="34"/>
       <c r="AE1160" s="34"/>
     </row>
-    <row r="1161" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1161" spans="29:31">
       <c r="AC1161" s="34"/>
       <c r="AD1161" s="34"/>
       <c r="AE1161" s="34"/>
     </row>
-    <row r="1162" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1162" spans="29:31">
       <c r="AC1162" s="34"/>
       <c r="AD1162" s="34"/>
       <c r="AE1162" s="34"/>
     </row>
-    <row r="1163" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1163" spans="29:31">
       <c r="AC1163" s="34"/>
       <c r="AD1163" s="34"/>
       <c r="AE1163" s="34"/>
     </row>
-    <row r="1164" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1164" spans="29:31">
       <c r="AC1164" s="34"/>
       <c r="AD1164" s="34"/>
       <c r="AE1164" s="34"/>
     </row>
-    <row r="1165" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1165" spans="29:31">
       <c r="AC1165" s="34"/>
       <c r="AD1165" s="34"/>
       <c r="AE1165" s="34"/>
     </row>
-    <row r="1166" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1166" spans="29:31">
       <c r="AC1166" s="34"/>
       <c r="AD1166" s="34"/>
       <c r="AE1166" s="34"/>
     </row>
-    <row r="1167" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1167" spans="29:31">
       <c r="AC1167" s="34"/>
       <c r="AD1167" s="34"/>
       <c r="AE1167" s="34"/>
     </row>
-    <row r="1168" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1168" spans="29:31">
       <c r="AC1168" s="34"/>
       <c r="AD1168" s="34"/>
       <c r="AE1168" s="34"/>
     </row>
-    <row r="1169" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1169" spans="29:31">
       <c r="AC1169" s="34"/>
       <c r="AD1169" s="34"/>
       <c r="AE1169" s="34"/>
     </row>
-    <row r="1170" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1170" spans="29:31">
       <c r="AC1170" s="34"/>
       <c r="AD1170" s="34"/>
       <c r="AE1170" s="34"/>
     </row>
-    <row r="1171" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1171" spans="29:31">
       <c r="AC1171" s="34"/>
       <c r="AD1171" s="34"/>
       <c r="AE1171" s="34"/>
     </row>
-    <row r="1172" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1172" spans="29:31">
       <c r="AC1172" s="34"/>
       <c r="AD1172" s="34"/>
       <c r="AE1172" s="34"/>
     </row>
-    <row r="1173" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1173" spans="29:31">
       <c r="AC1173" s="34"/>
       <c r="AD1173" s="34"/>
       <c r="AE1173" s="34"/>
     </row>
-    <row r="1174" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1174" spans="29:31">
       <c r="AC1174" s="34"/>
       <c r="AD1174" s="34"/>
       <c r="AE1174" s="34"/>
     </row>
-    <row r="1175" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1175" spans="29:31">
       <c r="AC1175" s="34"/>
       <c r="AD1175" s="34"/>
       <c r="AE1175" s="34"/>
     </row>
-    <row r="1176" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1176" spans="29:31">
       <c r="AC1176" s="34"/>
       <c r="AD1176" s="34"/>
       <c r="AE1176" s="34"/>
     </row>
-    <row r="1177" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1177" spans="29:31">
       <c r="AC1177" s="34"/>
       <c r="AD1177" s="34"/>
       <c r="AE1177" s="34"/>
     </row>
-    <row r="1178" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1178" spans="29:31">
       <c r="AC1178" s="34"/>
       <c r="AD1178" s="34"/>
       <c r="AE1178" s="34"/>
     </row>
-    <row r="1179" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1179" spans="29:31">
       <c r="AC1179" s="34"/>
       <c r="AD1179" s="34"/>
       <c r="AE1179" s="34"/>
     </row>
-    <row r="1180" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1180" spans="29:31">
       <c r="AC1180" s="34"/>
       <c r="AD1180" s="34"/>
       <c r="AE1180" s="34"/>
     </row>
-    <row r="1181" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1181" spans="29:31">
       <c r="AC1181" s="34"/>
       <c r="AD1181" s="34"/>
       <c r="AE1181" s="34"/>
     </row>
-    <row r="1182" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1182" spans="29:31">
       <c r="AC1182" s="34"/>
       <c r="AD1182" s="34"/>
       <c r="AE1182" s="34"/>
     </row>
-    <row r="1183" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1183" spans="29:31">
       <c r="AC1183" s="34"/>
       <c r="AD1183" s="34"/>
       <c r="AE1183" s="34"/>
     </row>
-    <row r="1184" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1184" spans="29:31">
       <c r="AC1184" s="34"/>
       <c r="AD1184" s="34"/>
       <c r="AE1184" s="34"/>
     </row>
-    <row r="1185" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1185" spans="29:31">
       <c r="AC1185" s="34"/>
       <c r="AD1185" s="34"/>
       <c r="AE1185" s="34"/>
     </row>
-    <row r="1186" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1186" spans="29:31">
       <c r="AC1186" s="34"/>
       <c r="AD1186" s="34"/>
       <c r="AE1186" s="34"/>
     </row>
-    <row r="1187" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1187" spans="29:31">
       <c r="AC1187" s="34"/>
       <c r="AD1187" s="34"/>
       <c r="AE1187" s="34"/>
     </row>
-    <row r="1188" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1188" spans="29:31">
       <c r="AC1188" s="34"/>
       <c r="AD1188" s="34"/>
       <c r="AE1188" s="34"/>
     </row>
-    <row r="1189" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1189" spans="29:31">
       <c r="AC1189" s="34"/>
       <c r="AD1189" s="34"/>
       <c r="AE1189" s="34"/>
     </row>
-    <row r="1190" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1190" spans="29:31">
       <c r="AC1190" s="34"/>
       <c r="AD1190" s="34"/>
       <c r="AE1190" s="34"/>
     </row>
-    <row r="1191" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1191" spans="29:31">
       <c r="AC1191" s="34"/>
       <c r="AD1191" s="34"/>
       <c r="AE1191" s="34"/>
     </row>
-    <row r="1192" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1192" spans="29:31">
       <c r="AC1192" s="34"/>
       <c r="AD1192" s="34"/>
       <c r="AE1192" s="34"/>
     </row>
-    <row r="1193" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1193" spans="29:31">
       <c r="AC1193" s="34"/>
       <c r="AD1193" s="34"/>
       <c r="AE1193" s="34"/>
     </row>
-    <row r="1194" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1194" spans="29:31">
       <c r="AC1194" s="34"/>
       <c r="AD1194" s="34"/>
       <c r="AE1194" s="34"/>
     </row>
-    <row r="1195" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1195" spans="29:31">
       <c r="AC1195" s="34"/>
       <c r="AD1195" s="34"/>
       <c r="AE1195" s="34"/>
     </row>
-    <row r="1196" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1196" spans="29:31">
       <c r="AC1196" s="34"/>
       <c r="AD1196" s="34"/>
       <c r="AE1196" s="34"/>
     </row>
-    <row r="1197" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1197" spans="29:31">
       <c r="AC1197" s="34"/>
       <c r="AD1197" s="34"/>
       <c r="AE1197" s="34"/>
     </row>
-    <row r="1198" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1198" spans="29:31">
       <c r="AC1198" s="34"/>
       <c r="AD1198" s="34"/>
       <c r="AE1198" s="34"/>
     </row>
-    <row r="1199" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1199" spans="29:31">
       <c r="AC1199" s="34"/>
       <c r="AD1199" s="34"/>
       <c r="AE1199" s="34"/>
     </row>
-    <row r="1200" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1200" spans="29:31">
       <c r="AC1200" s="34"/>
       <c r="AD1200" s="34"/>
       <c r="AE1200" s="34"/>
     </row>
-    <row r="1201" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1201" spans="29:31">
       <c r="AC1201" s="34"/>
       <c r="AD1201" s="34"/>
       <c r="AE1201" s="34"/>
     </row>
-    <row r="1202" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1202" spans="29:31">
       <c r="AC1202" s="34"/>
       <c r="AD1202" s="34"/>
       <c r="AE1202" s="34"/>
     </row>
-    <row r="1203" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1203" spans="29:31">
       <c r="AC1203" s="34"/>
       <c r="AD1203" s="34"/>
       <c r="AE1203" s="34"/>
     </row>
-    <row r="1204" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1204" spans="29:31">
       <c r="AC1204" s="34"/>
       <c r="AD1204" s="34"/>
       <c r="AE1204" s="34"/>
     </row>
-    <row r="1205" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1205" spans="29:31">
       <c r="AC1205" s="34"/>
       <c r="AD1205" s="34"/>
       <c r="AE1205" s="34"/>
     </row>
-    <row r="1206" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1206" spans="29:31">
       <c r="AC1206" s="34"/>
       <c r="AD1206" s="34"/>
       <c r="AE1206" s="34"/>
     </row>
-    <row r="1207" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1207" spans="29:31">
       <c r="AC1207" s="34"/>
       <c r="AD1207" s="34"/>
       <c r="AE1207" s="34"/>
     </row>
-    <row r="1208" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1208" spans="29:31">
       <c r="AC1208" s="34"/>
       <c r="AD1208" s="34"/>
       <c r="AE1208" s="34"/>
     </row>
-    <row r="1209" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1209" spans="29:31">
       <c r="AC1209" s="34"/>
       <c r="AD1209" s="34"/>
       <c r="AE1209" s="34"/>
     </row>
-    <row r="1210" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1210" spans="29:31">
       <c r="AC1210" s="34"/>
       <c r="AD1210" s="34"/>
       <c r="AE1210" s="34"/>
     </row>
-    <row r="1211" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1211" spans="29:31">
       <c r="AC1211" s="34"/>
       <c r="AD1211" s="34"/>
       <c r="AE1211" s="34"/>
     </row>
-    <row r="1212" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1212" spans="29:31">
       <c r="AC1212" s="34"/>
       <c r="AD1212" s="34"/>
       <c r="AE1212" s="34"/>
     </row>
-    <row r="1213" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1213" spans="29:31">
       <c r="AC1213" s="34"/>
       <c r="AD1213" s="34"/>
       <c r="AE1213" s="34"/>
     </row>
-    <row r="1214" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1214" spans="29:31">
       <c r="AC1214" s="34"/>
       <c r="AD1214" s="34"/>
       <c r="AE1214" s="34"/>
     </row>
-    <row r="1215" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1215" spans="29:31">
       <c r="AC1215" s="34"/>
       <c r="AD1215" s="34"/>
       <c r="AE1215" s="34"/>
     </row>
-    <row r="1216" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1216" spans="29:31">
       <c r="AC1216" s="34"/>
       <c r="AD1216" s="34"/>
       <c r="AE1216" s="34"/>
     </row>
-    <row r="1217" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1217" spans="29:31">
       <c r="AC1217" s="34"/>
       <c r="AD1217" s="34"/>
       <c r="AE1217" s="34"/>
     </row>
-    <row r="1218" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1218" spans="29:31">
       <c r="AC1218" s="34"/>
       <c r="AD1218" s="34"/>
       <c r="AE1218" s="34"/>
     </row>
-    <row r="1219" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1219" spans="29:31">
       <c r="AC1219" s="34"/>
       <c r="AD1219" s="34"/>
       <c r="AE1219" s="34"/>
     </row>
-    <row r="1220" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1220" spans="29:31">
       <c r="AC1220" s="34"/>
       <c r="AD1220" s="34"/>
       <c r="AE1220" s="34"/>
     </row>
-    <row r="1221" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1221" spans="29:31">
       <c r="AC1221" s="34"/>
       <c r="AD1221" s="34"/>
       <c r="AE1221" s="34"/>
     </row>
-    <row r="1222" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1222" spans="29:31">
       <c r="AC1222" s="34"/>
       <c r="AD1222" s="34"/>
       <c r="AE1222" s="34"/>
     </row>
-    <row r="1223" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1223" spans="29:31">
       <c r="AC1223" s="34"/>
       <c r="AD1223" s="34"/>
       <c r="AE1223" s="34"/>
     </row>
-    <row r="1224" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1224" spans="29:31">
       <c r="AC1224" s="34"/>
       <c r="AD1224" s="34"/>
       <c r="AE1224" s="34"/>
     </row>
-    <row r="1225" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1225" spans="29:31">
       <c r="AC1225" s="34"/>
       <c r="AD1225" s="34"/>
       <c r="AE1225" s="34"/>
     </row>
-    <row r="1226" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1226" spans="29:31">
       <c r="AC1226" s="34"/>
       <c r="AD1226" s="34"/>
       <c r="AE1226" s="34"/>
     </row>
-    <row r="1227" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1227" spans="29:31">
       <c r="AC1227" s="34"/>
       <c r="AD1227" s="34"/>
       <c r="AE1227" s="34"/>
     </row>
-    <row r="1228" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1228" spans="29:31">
       <c r="AC1228" s="34"/>
       <c r="AD1228" s="34"/>
       <c r="AE1228" s="34"/>
     </row>
-    <row r="1229" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1229" spans="29:31">
       <c r="AC1229" s="34"/>
       <c r="AD1229" s="34"/>
       <c r="AE1229" s="34"/>
     </row>
-    <row r="1230" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1230" spans="29:31">
       <c r="AC1230" s="34"/>
       <c r="AD1230" s="34"/>
       <c r="AE1230" s="34"/>
     </row>
-    <row r="1231" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1231" spans="29:31">
       <c r="AC1231" s="34"/>
       <c r="AD1231" s="34"/>
       <c r="AE1231" s="34"/>
     </row>
-    <row r="1232" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1232" spans="29:31">
       <c r="AC1232" s="34"/>
       <c r="AD1232" s="34"/>
       <c r="AE1232" s="34"/>
     </row>
-    <row r="1233" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1233" spans="29:31">
       <c r="AC1233" s="34"/>
       <c r="AD1233" s="34"/>
       <c r="AE1233" s="34"/>
     </row>
-    <row r="1234" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1234" spans="29:31">
       <c r="AC1234" s="34"/>
       <c r="AD1234" s="34"/>
       <c r="AE1234" s="34"/>
     </row>
-    <row r="1235" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1235" spans="29:31">
       <c r="AC1235" s="34"/>
       <c r="AD1235" s="34"/>
       <c r="AE1235" s="34"/>
     </row>
-    <row r="1236" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1236" spans="29:31">
       <c r="AC1236" s="34"/>
       <c r="AD1236" s="34"/>
       <c r="AE1236" s="34"/>
     </row>
-    <row r="1237" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1237" spans="29:31">
       <c r="AC1237" s="34"/>
       <c r="AD1237" s="34"/>
       <c r="AE1237" s="34"/>
     </row>
-    <row r="1238" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1238" spans="29:31">
       <c r="AC1238" s="34"/>
       <c r="AD1238" s="34"/>
       <c r="AE1238" s="34"/>
     </row>
-    <row r="1239" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1239" spans="29:31">
       <c r="AC1239" s="34"/>
       <c r="AD1239" s="34"/>
       <c r="AE1239" s="34"/>
     </row>
-    <row r="1240" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1240" spans="29:31">
       <c r="AC1240" s="34"/>
       <c r="AD1240" s="34"/>
       <c r="AE1240" s="34"/>
     </row>
-    <row r="1241" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1241" spans="29:31">
       <c r="AC1241" s="34"/>
       <c r="AD1241" s="34"/>
       <c r="AE1241" s="34"/>
     </row>
-    <row r="1242" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1242" spans="29:31">
       <c r="AC1242" s="34"/>
       <c r="AD1242" s="34"/>
       <c r="AE1242" s="34"/>
     </row>
-    <row r="1243" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1243" spans="29:31">
       <c r="AC1243" s="34"/>
       <c r="AD1243" s="34"/>
       <c r="AE1243" s="34"/>
     </row>
-    <row r="1244" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1244" spans="29:31">
       <c r="AC1244" s="34"/>
       <c r="AD1244" s="34"/>
       <c r="AE1244" s="34"/>
     </row>
-    <row r="1245" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1245" spans="29:31">
       <c r="AC1245" s="34"/>
       <c r="AD1245" s="34"/>
       <c r="AE1245" s="34"/>
     </row>
-    <row r="1246" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1246" spans="29:31">
       <c r="AC1246" s="34"/>
       <c r="AD1246" s="34"/>
       <c r="AE1246" s="34"/>
     </row>
-    <row r="1247" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1247" spans="29:31">
       <c r="AC1247" s="34"/>
       <c r="AD1247" s="34"/>
       <c r="AE1247" s="34"/>
     </row>
-    <row r="1248" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1248" spans="29:31">
       <c r="AC1248" s="34"/>
       <c r="AD1248" s="34"/>
       <c r="AE1248" s="34"/>
     </row>
-    <row r="1249" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1249" spans="29:31">
       <c r="AC1249" s="34"/>
       <c r="AD1249" s="34"/>
       <c r="AE1249" s="34"/>
     </row>
-    <row r="1250" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1250" spans="29:31">
       <c r="AC1250" s="34"/>
       <c r="AD1250" s="34"/>
       <c r="AE1250" s="34"/>
     </row>
-    <row r="1251" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1251" spans="29:31">
       <c r="AC1251" s="34"/>
       <c r="AD1251" s="34"/>
       <c r="AE1251" s="34"/>
     </row>
-    <row r="1252" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1252" spans="29:31">
       <c r="AC1252" s="34"/>
       <c r="AD1252" s="34"/>
       <c r="AE1252" s="34"/>
     </row>
-    <row r="1253" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1253" spans="29:31">
       <c r="AC1253" s="34"/>
       <c r="AD1253" s="34"/>
       <c r="AE1253" s="34"/>
     </row>
-    <row r="1254" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1254" spans="29:31">
       <c r="AC1254" s="34"/>
       <c r="AD1254" s="34"/>
       <c r="AE1254" s="34"/>
     </row>
-    <row r="1255" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1255" spans="29:31">
       <c r="AC1255" s="34"/>
       <c r="AD1255" s="34"/>
       <c r="AE1255" s="34"/>
     </row>
-    <row r="1256" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1256" spans="29:31">
       <c r="AC1256" s="34"/>
       <c r="AD1256" s="34"/>
       <c r="AE1256" s="34"/>
     </row>
-    <row r="1257" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1257" spans="29:31">
       <c r="AC1257" s="34"/>
       <c r="AD1257" s="34"/>
       <c r="AE1257" s="34"/>
     </row>
-    <row r="1258" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1258" spans="29:31">
       <c r="AC1258" s="34"/>
       <c r="AD1258" s="34"/>
       <c r="AE1258" s="34"/>
     </row>
-    <row r="1259" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1259" spans="29:31">
       <c r="AC1259" s="34"/>
       <c r="AD1259" s="34"/>
       <c r="AE1259" s="34"/>
     </row>
-    <row r="1260" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1260" spans="29:31">
       <c r="AC1260" s="34"/>
       <c r="AD1260" s="34"/>
       <c r="AE1260" s="34"/>
     </row>
-    <row r="1261" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1261" spans="29:31">
       <c r="AC1261" s="34"/>
       <c r="AD1261" s="34"/>
       <c r="AE1261" s="34"/>
     </row>
-    <row r="1262" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1262" spans="29:31">
       <c r="AC1262" s="34"/>
       <c r="AD1262" s="34"/>
       <c r="AE1262" s="34"/>
     </row>
-    <row r="1263" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1263" spans="29:31">
       <c r="AC1263" s="34"/>
       <c r="AD1263" s="34"/>
       <c r="AE1263" s="34"/>
     </row>
-    <row r="1264" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1264" spans="29:31">
       <c r="AC1264" s="34"/>
       <c r="AD1264" s="34"/>
       <c r="AE1264" s="34"/>
     </row>
-    <row r="1265" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1265" spans="29:31">
       <c r="AC1265" s="34"/>
       <c r="AD1265" s="34"/>
       <c r="AE1265" s="34"/>
     </row>
-    <row r="1266" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1266" spans="29:31">
       <c r="AC1266" s="34"/>
       <c r="AD1266" s="34"/>
       <c r="AE1266" s="34"/>
     </row>
-    <row r="1267" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1267" spans="29:31">
       <c r="AC1267" s="34"/>
       <c r="AD1267" s="34"/>
       <c r="AE1267" s="34"/>
     </row>
-    <row r="1268" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1268" spans="29:31">
       <c r="AC1268" s="34"/>
       <c r="AD1268" s="34"/>
       <c r="AE1268" s="34"/>
     </row>
-    <row r="1269" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1269" spans="29:31">
       <c r="AC1269" s="34"/>
       <c r="AD1269" s="34"/>
       <c r="AE1269" s="34"/>
     </row>
-    <row r="1270" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1270" spans="29:31">
       <c r="AC1270" s="34"/>
       <c r="AD1270" s="34"/>
       <c r="AE1270" s="34"/>
     </row>
-    <row r="1271" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1271" spans="29:31">
       <c r="AC1271" s="34"/>
       <c r="AD1271" s="34"/>
       <c r="AE1271" s="34"/>
     </row>
-    <row r="1272" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1272" spans="29:31">
       <c r="AC1272" s="34"/>
       <c r="AD1272" s="34"/>
       <c r="AE1272" s="34"/>
     </row>
-    <row r="1273" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1273" spans="29:31">
       <c r="AC1273" s="34"/>
       <c r="AD1273" s="34"/>
       <c r="AE1273" s="34"/>
     </row>
-    <row r="1274" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1274" spans="29:31">
       <c r="AC1274" s="34"/>
       <c r="AD1274" s="34"/>
       <c r="AE1274" s="34"/>
     </row>
-    <row r="1275" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1275" spans="29:31">
       <c r="AC1275" s="34"/>
       <c r="AD1275" s="34"/>
       <c r="AE1275" s="34"/>
     </row>
-    <row r="1276" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1276" spans="29:31">
       <c r="AC1276" s="34"/>
       <c r="AD1276" s="34"/>
       <c r="AE1276" s="34"/>
     </row>
-    <row r="1277" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1277" spans="29:31">
       <c r="AC1277" s="34"/>
       <c r="AD1277" s="34"/>
       <c r="AE1277" s="34"/>
     </row>
-    <row r="1278" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1278" spans="29:31">
       <c r="AC1278" s="34"/>
       <c r="AD1278" s="34"/>
       <c r="AE1278" s="34"/>
     </row>
-    <row r="1279" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1279" spans="29:31">
       <c r="AC1279" s="34"/>
       <c r="AD1279" s="34"/>
       <c r="AE1279" s="34"/>
     </row>
-    <row r="1280" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1280" spans="29:31">
       <c r="AC1280" s="34"/>
       <c r="AD1280" s="34"/>
       <c r="AE1280" s="34"/>
     </row>
-    <row r="1281" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1281" spans="29:31">
       <c r="AC1281" s="34"/>
       <c r="AD1281" s="34"/>
       <c r="AE1281" s="34"/>
     </row>
-    <row r="1282" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1282" spans="29:31">
       <c r="AC1282" s="34"/>
       <c r="AD1282" s="34"/>
       <c r="AE1282" s="34"/>
     </row>
-    <row r="1283" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1283" spans="29:31">
       <c r="AC1283" s="34"/>
       <c r="AD1283" s="34"/>
       <c r="AE1283" s="34"/>
     </row>
-    <row r="1284" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1284" spans="29:31">
       <c r="AC1284" s="34"/>
       <c r="AD1284" s="34"/>
       <c r="AE1284" s="34"/>
     </row>
-    <row r="1285" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1285" spans="29:31">
       <c r="AC1285" s="34"/>
       <c r="AD1285" s="34"/>
       <c r="AE1285" s="34"/>
     </row>
-    <row r="1286" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1286" spans="29:31">
       <c r="AC1286" s="34"/>
       <c r="AD1286" s="34"/>
       <c r="AE1286" s="34"/>
     </row>
-    <row r="1287" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1287" spans="29:31">
       <c r="AC1287" s="34"/>
       <c r="AD1287" s="34"/>
       <c r="AE1287" s="34"/>
     </row>
-    <row r="1288" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1288" spans="29:31">
       <c r="AC1288" s="34"/>
       <c r="AD1288" s="34"/>
       <c r="AE1288" s="34"/>
     </row>
-    <row r="1289" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1289" spans="29:31">
       <c r="AC1289" s="34"/>
       <c r="AD1289" s="34"/>
       <c r="AE1289" s="34"/>
     </row>
-    <row r="1290" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1290" spans="29:31">
       <c r="AC1290" s="34"/>
       <c r="AD1290" s="34"/>
       <c r="AE1290" s="34"/>
     </row>
-    <row r="1291" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1291" spans="29:31">
       <c r="AC1291" s="34"/>
       <c r="AD1291" s="34"/>
       <c r="AE1291" s="34"/>
     </row>
-    <row r="1292" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1292" spans="29:31">
       <c r="AC1292" s="34"/>
       <c r="AD1292" s="34"/>
       <c r="AE1292" s="34"/>
     </row>
-    <row r="1293" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1293" spans="29:31">
       <c r="AC1293" s="34"/>
       <c r="AD1293" s="34"/>
       <c r="AE1293" s="34"/>
     </row>
-    <row r="1294" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1294" spans="29:31">
       <c r="AC1294" s="34"/>
       <c r="AD1294" s="34"/>
       <c r="AE1294" s="34"/>
     </row>
-    <row r="1295" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1295" spans="29:31">
       <c r="AC1295" s="34"/>
       <c r="AD1295" s="34"/>
       <c r="AE1295" s="34"/>
     </row>
-    <row r="1296" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1296" spans="29:31">
       <c r="AC1296" s="34"/>
       <c r="AD1296" s="34"/>
       <c r="AE1296" s="34"/>
     </row>
-    <row r="1297" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1297" spans="29:31">
       <c r="AC1297" s="34"/>
       <c r="AD1297" s="34"/>
       <c r="AE1297" s="34"/>
     </row>
-    <row r="1298" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1298" spans="29:31">
       <c r="AC1298" s="34"/>
       <c r="AD1298" s="34"/>
       <c r="AE1298" s="34"/>
     </row>
-    <row r="1299" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1299" spans="29:31">
       <c r="AC1299" s="34"/>
       <c r="AD1299" s="34"/>
       <c r="AE1299" s="34"/>
     </row>
-    <row r="1300" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1300" spans="29:31">
       <c r="AC1300" s="34"/>
       <c r="AD1300" s="34"/>
       <c r="AE1300" s="34"/>
     </row>
-    <row r="1301" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1301" spans="29:31">
       <c r="AC1301" s="34"/>
       <c r="AD1301" s="34"/>
       <c r="AE1301" s="34"/>
     </row>
-    <row r="1302" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1302" spans="29:31">
       <c r="AC1302" s="34"/>
       <c r="AD1302" s="34"/>
       <c r="AE1302" s="34"/>
     </row>
-    <row r="1303" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1303" spans="29:31">
       <c r="AC1303" s="34"/>
       <c r="AD1303" s="34"/>
       <c r="AE1303" s="34"/>
     </row>
-    <row r="1304" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1304" spans="29:31">
       <c r="AC1304" s="34"/>
       <c r="AD1304" s="34"/>
       <c r="AE1304" s="34"/>
     </row>
-    <row r="1305" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1305" spans="29:31">
       <c r="AC1305" s="34"/>
       <c r="AD1305" s="34"/>
       <c r="AE1305" s="34"/>
     </row>
-    <row r="1306" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1306" spans="29:31">
       <c r="AC1306" s="34"/>
       <c r="AD1306" s="34"/>
       <c r="AE1306" s="34"/>
     </row>
-    <row r="1307" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1307" spans="29:31">
       <c r="AC1307" s="34"/>
       <c r="AD1307" s="34"/>
       <c r="AE1307" s="34"/>
     </row>
-    <row r="1308" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1308" spans="29:31">
       <c r="AC1308" s="34"/>
       <c r="AD1308" s="34"/>
       <c r="AE1308" s="34"/>
     </row>
-    <row r="1309" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1309" spans="29:31">
       <c r="AC1309" s="34"/>
       <c r="AD1309" s="34"/>
       <c r="AE1309" s="34"/>
     </row>
-    <row r="1310" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1310" spans="29:31">
       <c r="AC1310" s="34"/>
       <c r="AD1310" s="34"/>
       <c r="AE1310" s="34"/>
     </row>
-    <row r="1311" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1311" spans="29:31">
       <c r="AC1311" s="34"/>
       <c r="AD1311" s="34"/>
       <c r="AE1311" s="34"/>
     </row>
-    <row r="1312" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1312" spans="29:31">
       <c r="AC1312" s="34"/>
       <c r="AD1312" s="34"/>
       <c r="AE1312" s="34"/>
     </row>
-    <row r="1313" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1313" spans="29:31">
       <c r="AC1313" s="34"/>
       <c r="AD1313" s="34"/>
       <c r="AE1313" s="34"/>
     </row>
-    <row r="1314" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1314" spans="29:31">
       <c r="AC1314" s="34"/>
       <c r="AD1314" s="34"/>
       <c r="AE1314" s="34"/>
     </row>
-    <row r="1315" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1315" spans="29:31">
       <c r="AC1315" s="34"/>
       <c r="AD1315" s="34"/>
       <c r="AE1315" s="34"/>
     </row>
-    <row r="1316" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1316" spans="29:31">
       <c r="AC1316" s="34"/>
       <c r="AD1316" s="34"/>
       <c r="AE1316" s="34"/>
     </row>
-    <row r="1317" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1317" spans="29:31">
       <c r="AC1317" s="34"/>
       <c r="AD1317" s="34"/>
       <c r="AE1317" s="34"/>
     </row>
-    <row r="1318" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1318" spans="29:31">
       <c r="AC1318" s="34"/>
       <c r="AD1318" s="34"/>
       <c r="AE1318" s="34"/>
     </row>
-    <row r="1319" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1319" spans="29:31">
       <c r="AC1319" s="34"/>
       <c r="AD1319" s="34"/>
       <c r="AE1319" s="34"/>
     </row>
-    <row r="1320" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1320" spans="29:31">
       <c r="AC1320" s="34"/>
       <c r="AD1320" s="34"/>
       <c r="AE1320" s="34"/>
     </row>
-    <row r="1321" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1321" spans="29:31">
       <c r="AC1321" s="34"/>
       <c r="AD1321" s="34"/>
       <c r="AE1321" s="34"/>
     </row>
-    <row r="1322" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1322" spans="29:31">
       <c r="AC1322" s="34"/>
       <c r="AD1322" s="34"/>
       <c r="AE1322" s="34"/>
     </row>
-    <row r="1323" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1323" spans="29:31">
       <c r="AC1323" s="34"/>
       <c r="AD1323" s="34"/>
       <c r="AE1323" s="34"/>
     </row>
-    <row r="1324" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1324" spans="29:31">
       <c r="AC1324" s="34"/>
       <c r="AD1324" s="34"/>
       <c r="AE1324" s="34"/>
     </row>
-    <row r="1325" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1325" spans="29:31">
       <c r="AC1325" s="34"/>
       <c r="AD1325" s="34"/>
       <c r="AE1325" s="34"/>
     </row>
-    <row r="1326" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1326" spans="29:31">
       <c r="AC1326" s="34"/>
       <c r="AD1326" s="34"/>
       <c r="AE1326" s="34"/>
     </row>
-    <row r="1327" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1327" spans="29:31">
       <c r="AC1327" s="34"/>
       <c r="AD1327" s="34"/>
       <c r="AE1327" s="34"/>
     </row>
-    <row r="1328" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1328" spans="29:31">
       <c r="AC1328" s="34"/>
       <c r="AD1328" s="34"/>
       <c r="AE1328" s="34"/>
     </row>
-    <row r="1329" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1329" spans="29:31">
       <c r="AC1329" s="34"/>
       <c r="AD1329" s="34"/>
       <c r="AE1329" s="34"/>
     </row>
-    <row r="1330" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1330" spans="29:31">
       <c r="AC1330" s="34"/>
       <c r="AD1330" s="34"/>
       <c r="AE1330" s="34"/>
     </row>
-    <row r="1331" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1331" spans="29:31">
       <c r="AC1331" s="34"/>
       <c r="AD1331" s="34"/>
       <c r="AE1331" s="34"/>
     </row>
-    <row r="1332" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1332" spans="29:31">
       <c r="AC1332" s="34"/>
       <c r="AD1332" s="34"/>
       <c r="AE1332" s="34"/>
     </row>
-    <row r="1333" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1333" spans="29:31">
       <c r="AC1333" s="34"/>
       <c r="AD1333" s="34"/>
       <c r="AE1333" s="34"/>
     </row>
-    <row r="1334" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1334" spans="29:31">
       <c r="AC1334" s="34"/>
       <c r="AD1334" s="34"/>
       <c r="AE1334" s="34"/>
     </row>
-    <row r="1335" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1335" spans="29:31">
       <c r="AC1335" s="34"/>
       <c r="AD1335" s="34"/>
       <c r="AE1335" s="34"/>
     </row>
-    <row r="1336" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1336" spans="29:31">
       <c r="AC1336" s="34"/>
       <c r="AD1336" s="34"/>
       <c r="AE1336" s="34"/>
     </row>
-    <row r="1337" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1337" spans="29:31">
       <c r="AC1337" s="34"/>
       <c r="AD1337" s="34"/>
       <c r="AE1337" s="34"/>
     </row>
-    <row r="1338" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1338" spans="29:31">
       <c r="AC1338" s="34"/>
       <c r="AD1338" s="34"/>
       <c r="AE1338" s="34"/>
     </row>
-    <row r="1339" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1339" spans="29:31">
       <c r="AC1339" s="34"/>
       <c r="AD1339" s="34"/>
       <c r="AE1339" s="34"/>
     </row>
-    <row r="1340" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1340" spans="29:31">
       <c r="AC1340" s="34"/>
       <c r="AD1340" s="34"/>
       <c r="AE1340" s="34"/>
     </row>
-    <row r="1341" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1341" spans="29:31">
       <c r="AC1341" s="34"/>
       <c r="AD1341" s="34"/>
       <c r="AE1341" s="34"/>
     </row>
-    <row r="1342" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1342" spans="29:31">
       <c r="AC1342" s="34"/>
       <c r="AD1342" s="34"/>
       <c r="AE1342" s="34"/>
     </row>
-    <row r="1343" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1343" spans="29:31">
       <c r="AC1343" s="34"/>
       <c r="AD1343" s="34"/>
       <c r="AE1343" s="34"/>
     </row>
-    <row r="1344" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1344" spans="29:31">
       <c r="AC1344" s="34"/>
       <c r="AD1344" s="34"/>
       <c r="AE1344" s="34"/>
     </row>
-    <row r="1345" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1345" spans="29:31">
       <c r="AC1345" s="34"/>
       <c r="AD1345" s="34"/>
       <c r="AE1345" s="34"/>
     </row>
-    <row r="1346" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1346" spans="29:31">
       <c r="AC1346" s="34"/>
       <c r="AD1346" s="34"/>
       <c r="AE1346" s="34"/>
     </row>
-    <row r="1347" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1347" spans="29:31">
       <c r="AC1347" s="34"/>
       <c r="AD1347" s="34"/>
       <c r="AE1347" s="34"/>
     </row>
-    <row r="1348" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1348" spans="29:31">
       <c r="AC1348" s="34"/>
       <c r="AD1348" s="34"/>
       <c r="AE1348" s="34"/>
     </row>
-    <row r="1349" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1349" spans="29:31">
       <c r="AC1349" s="34"/>
       <c r="AD1349" s="34"/>
       <c r="AE1349" s="34"/>
     </row>
-    <row r="1350" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1350" spans="29:31">
       <c r="AC1350" s="34"/>
       <c r="AD1350" s="34"/>
       <c r="AE1350" s="34"/>
     </row>
-    <row r="1351" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1351" spans="29:31">
       <c r="AC1351" s="34"/>
       <c r="AD1351" s="34"/>
       <c r="AE1351" s="34"/>
     </row>
-    <row r="1352" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1352" spans="29:31">
       <c r="AC1352" s="34"/>
       <c r="AD1352" s="34"/>
       <c r="AE1352" s="34"/>
     </row>
-    <row r="1353" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1353" spans="29:31">
       <c r="AC1353" s="34"/>
       <c r="AD1353" s="34"/>
       <c r="AE1353" s="34"/>
     </row>
-    <row r="1354" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1354" spans="29:31">
       <c r="AC1354" s="34"/>
       <c r="AD1354" s="34"/>
       <c r="AE1354" s="34"/>
     </row>
-    <row r="1355" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1355" spans="29:31">
       <c r="AC1355" s="34"/>
       <c r="AD1355" s="34"/>
       <c r="AE1355" s="34"/>
     </row>
-    <row r="1356" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1356" spans="29:31">
       <c r="AC1356" s="34"/>
       <c r="AD1356" s="34"/>
       <c r="AE1356" s="34"/>
     </row>
-    <row r="1357" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1357" spans="29:31">
       <c r="AC1357" s="34"/>
       <c r="AD1357" s="34"/>
       <c r="AE1357" s="34"/>
     </row>
-    <row r="1358" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1358" spans="29:31">
       <c r="AC1358" s="34"/>
       <c r="AD1358" s="34"/>
       <c r="AE1358" s="34"/>
     </row>
-    <row r="1359" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1359" spans="29:31">
       <c r="AC1359" s="34"/>
       <c r="AD1359" s="34"/>
       <c r="AE1359" s="34"/>
     </row>
-    <row r="1360" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1360" spans="29:31">
       <c r="AC1360" s="34"/>
       <c r="AD1360" s="34"/>
       <c r="AE1360" s="34"/>
     </row>
-    <row r="1361" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1361" spans="29:31">
       <c r="AC1361" s="34"/>
       <c r="AD1361" s="34"/>
       <c r="AE1361" s="34"/>
     </row>
-    <row r="1362" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1362" spans="29:31">
       <c r="AC1362" s="34"/>
       <c r="AD1362" s="34"/>
       <c r="AE1362" s="34"/>
     </row>
-    <row r="1363" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1363" spans="29:31">
       <c r="AC1363" s="34"/>
       <c r="AD1363" s="34"/>
       <c r="AE1363" s="34"/>
     </row>
-    <row r="1364" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1364" spans="29:31">
       <c r="AC1364" s="34"/>
       <c r="AD1364" s="34"/>
       <c r="AE1364" s="34"/>
     </row>
-    <row r="1365" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1365" spans="29:31">
       <c r="AC1365" s="34"/>
       <c r="AD1365" s="34"/>
       <c r="AE1365" s="34"/>
     </row>
-    <row r="1366" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1366" spans="29:31">
       <c r="AC1366" s="34"/>
       <c r="AD1366" s="34"/>
       <c r="AE1366" s="34"/>
     </row>
-    <row r="1367" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1367" spans="29:31">
       <c r="AC1367" s="34"/>
       <c r="AD1367" s="34"/>
       <c r="AE1367" s="34"/>
     </row>
-    <row r="1368" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1368" spans="29:31">
       <c r="AC1368" s="34"/>
       <c r="AD1368" s="34"/>
       <c r="AE1368" s="34"/>
     </row>
-    <row r="1369" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1369" spans="29:31">
       <c r="AC1369" s="34"/>
       <c r="AD1369" s="34"/>
       <c r="AE1369" s="34"/>
     </row>
-    <row r="1370" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1370" spans="29:31">
       <c r="AC1370" s="34"/>
       <c r="AD1370" s="34"/>
       <c r="AE1370" s="34"/>
     </row>
-    <row r="1371" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1371" spans="29:31">
       <c r="AC1371" s="34"/>
       <c r="AD1371" s="34"/>
       <c r="AE1371" s="34"/>
     </row>
-    <row r="1372" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1372" spans="29:31">
       <c r="AC1372" s="34"/>
       <c r="AD1372" s="34"/>
       <c r="AE1372" s="34"/>
     </row>
-    <row r="1373" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1373" spans="29:31">
       <c r="AC1373" s="34"/>
       <c r="AD1373" s="34"/>
       <c r="AE1373" s="34"/>
     </row>
-    <row r="1374" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1374" spans="29:31">
       <c r="AC1374" s="34"/>
       <c r="AD1374" s="34"/>
       <c r="AE1374" s="34"/>
     </row>
-    <row r="1375" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1375" spans="29:31">
       <c r="AC1375" s="34"/>
       <c r="AD1375" s="34"/>
       <c r="AE1375" s="34"/>
     </row>
-    <row r="1376" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1376" spans="29:31">
       <c r="AC1376" s="34"/>
       <c r="AD1376" s="34"/>
       <c r="AE1376" s="34"/>
     </row>
-    <row r="1377" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1377" spans="29:31">
       <c r="AC1377" s="34"/>
       <c r="AD1377" s="34"/>
       <c r="AE1377" s="34"/>
     </row>
-    <row r="1378" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1378" spans="29:31">
       <c r="AC1378" s="34"/>
       <c r="AD1378" s="34"/>
       <c r="AE1378" s="34"/>
     </row>
-    <row r="1379" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1379" spans="29:31">
       <c r="AC1379" s="34"/>
       <c r="AD1379" s="34"/>
       <c r="AE1379" s="34"/>
     </row>
-    <row r="1380" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1380" spans="29:31">
       <c r="AC1380" s="34"/>
       <c r="AD1380" s="34"/>
       <c r="AE1380" s="34"/>
     </row>
-    <row r="1381" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1381" spans="29:31">
       <c r="AC1381" s="34"/>
       <c r="AD1381" s="34"/>
       <c r="AE1381" s="34"/>
     </row>
-    <row r="1382" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1382" spans="29:31">
       <c r="AC1382" s="34"/>
       <c r="AD1382" s="34"/>
       <c r="AE1382" s="34"/>
     </row>
-    <row r="1383" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1383" spans="29:31">
       <c r="AC1383" s="34"/>
       <c r="AD1383" s="34"/>
       <c r="AE1383" s="34"/>
     </row>
-    <row r="1384" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1384" spans="29:31">
       <c r="AC1384" s="34"/>
       <c r="AD1384" s="34"/>
       <c r="AE1384" s="34"/>
     </row>
-    <row r="1385" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1385" spans="29:31">
       <c r="AC1385" s="34"/>
       <c r="AD1385" s="34"/>
       <c r="AE1385" s="34"/>
     </row>
-    <row r="1386" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1386" spans="29:31">
       <c r="AC1386" s="34"/>
       <c r="AD1386" s="34"/>
       <c r="AE1386" s="34"/>
     </row>
-    <row r="1387" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1387" spans="29:31">
       <c r="AC1387" s="34"/>
       <c r="AD1387" s="34"/>
       <c r="AE1387" s="34"/>
     </row>
-    <row r="1388" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1388" spans="29:31">
       <c r="AC1388" s="34"/>
       <c r="AD1388" s="34"/>
       <c r="AE1388" s="34"/>
     </row>
-    <row r="1389" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1389" spans="29:31">
       <c r="AC1389" s="34"/>
       <c r="AD1389" s="34"/>
       <c r="AE1389" s="34"/>
     </row>
-    <row r="1390" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1390" spans="29:31">
       <c r="AC1390" s="34"/>
       <c r="AD1390" s="34"/>
       <c r="AE1390" s="34"/>
     </row>
-    <row r="1391" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1391" spans="29:31">
       <c r="AC1391" s="34"/>
       <c r="AD1391" s="34"/>
       <c r="AE1391" s="34"/>
     </row>
-    <row r="1392" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1392" spans="29:31">
       <c r="AC1392" s="34"/>
       <c r="AD1392" s="34"/>
       <c r="AE1392" s="34"/>
     </row>
-    <row r="1393" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1393" spans="29:31">
       <c r="AC1393" s="34"/>
       <c r="AD1393" s="34"/>
       <c r="AE1393" s="34"/>
     </row>
-    <row r="1394" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1394" spans="29:31">
       <c r="AC1394" s="34"/>
       <c r="AD1394" s="34"/>
       <c r="AE1394" s="34"/>
     </row>
-    <row r="1395" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1395" spans="29:31">
       <c r="AC1395" s="34"/>
       <c r="AD1395" s="34"/>
       <c r="AE1395" s="34"/>
     </row>
-    <row r="1396" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1396" spans="29:31">
       <c r="AC1396" s="34"/>
       <c r="AD1396" s="34"/>
       <c r="AE1396" s="34"/>
     </row>
-    <row r="1397" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1397" spans="29:31">
       <c r="AC1397" s="34"/>
       <c r="AD1397" s="34"/>
       <c r="AE1397" s="34"/>
     </row>
-    <row r="1398" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1398" spans="29:31">
       <c r="AC1398" s="34"/>
       <c r="AD1398" s="34"/>
       <c r="AE1398" s="34"/>
     </row>
-    <row r="1399" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1399" spans="29:31">
       <c r="AC1399" s="34"/>
       <c r="AD1399" s="34"/>
       <c r="AE1399" s="34"/>
     </row>
-    <row r="1400" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1400" spans="29:31">
       <c r="AC1400" s="34"/>
       <c r="AD1400" s="34"/>
       <c r="AE1400" s="34"/>
     </row>
-    <row r="1401" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1401" spans="29:31">
       <c r="AC1401" s="34"/>
       <c r="AD1401" s="34"/>
       <c r="AE1401" s="34"/>
     </row>
-    <row r="1402" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1402" spans="29:31">
       <c r="AC1402" s="34"/>
       <c r="AD1402" s="34"/>
       <c r="AE1402" s="34"/>
     </row>
-    <row r="1403" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1403" spans="29:31">
       <c r="AC1403" s="34"/>
       <c r="AD1403" s="34"/>
       <c r="AE1403" s="34"/>
     </row>
-    <row r="1404" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1404" spans="29:31">
       <c r="AC1404" s="34"/>
       <c r="AD1404" s="34"/>
       <c r="AE1404" s="34"/>
     </row>
-    <row r="1405" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1405" spans="29:31">
       <c r="AC1405" s="34"/>
       <c r="AD1405" s="34"/>
       <c r="AE1405" s="34"/>
     </row>
-    <row r="1406" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1406" spans="29:31">
       <c r="AC1406" s="34"/>
       <c r="AD1406" s="34"/>
       <c r="AE1406" s="34"/>
     </row>
-    <row r="1407" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1407" spans="29:31">
       <c r="AC1407" s="34"/>
       <c r="AD1407" s="34"/>
       <c r="AE1407" s="34"/>
     </row>
-    <row r="1408" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1408" spans="29:31">
       <c r="AC1408" s="34"/>
       <c r="AD1408" s="34"/>
       <c r="AE1408" s="34"/>
     </row>
-    <row r="1409" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1409" spans="29:31">
       <c r="AC1409" s="34"/>
       <c r="AD1409" s="34"/>
       <c r="AE1409" s="34"/>
     </row>
-    <row r="1410" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1410" spans="29:31">
       <c r="AC1410" s="34"/>
       <c r="AD1410" s="34"/>
       <c r="AE1410" s="34"/>
     </row>
-    <row r="1411" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1411" spans="29:31">
       <c r="AC1411" s="34"/>
       <c r="AD1411" s="34"/>
       <c r="AE1411" s="34"/>
     </row>
-    <row r="1412" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1412" spans="29:31">
       <c r="AC1412" s="34"/>
       <c r="AD1412" s="34"/>
       <c r="AE1412" s="34"/>
     </row>
-    <row r="1413" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1413" spans="29:31">
       <c r="AC1413" s="34"/>
       <c r="AD1413" s="34"/>
       <c r="AE1413" s="34"/>
     </row>
-    <row r="1414" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1414" spans="29:31">
       <c r="AC1414" s="34"/>
       <c r="AD1414" s="34"/>
       <c r="AE1414" s="34"/>
     </row>
-    <row r="1415" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1415" spans="29:31">
       <c r="AC1415" s="34"/>
       <c r="AD1415" s="34"/>
       <c r="AE1415" s="34"/>
     </row>
-    <row r="1416" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1416" spans="29:31">
       <c r="AC1416" s="34"/>
       <c r="AD1416" s="34"/>
       <c r="AE1416" s="34"/>
     </row>
-    <row r="1417" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1417" spans="29:31">
       <c r="AC1417" s="34"/>
       <c r="AD1417" s="34"/>
       <c r="AE1417" s="34"/>
     </row>
-    <row r="1418" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1418" spans="29:31">
       <c r="AC1418" s="34"/>
       <c r="AD1418" s="34"/>
       <c r="AE1418" s="34"/>
     </row>
-    <row r="1419" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1419" spans="29:31">
       <c r="AC1419" s="34"/>
       <c r="AD1419" s="34"/>
       <c r="AE1419" s="34"/>
     </row>
-    <row r="1420" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1420" spans="29:31">
       <c r="AC1420" s="34"/>
       <c r="AD1420" s="34"/>
       <c r="AE1420" s="34"/>
     </row>
-    <row r="1421" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1421" spans="29:31">
       <c r="AC1421" s="34"/>
       <c r="AD1421" s="34"/>
       <c r="AE1421" s="34"/>
     </row>
-    <row r="1422" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1422" spans="29:31">
       <c r="AC1422" s="34"/>
       <c r="AD1422" s="34"/>
       <c r="AE1422" s="34"/>
     </row>
-    <row r="1423" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1423" spans="29:31">
       <c r="AC1423" s="34"/>
       <c r="AD1423" s="34"/>
       <c r="AE1423" s="34"/>
     </row>
-    <row r="1424" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1424" spans="29:31">
       <c r="AC1424" s="34"/>
       <c r="AD1424" s="34"/>
       <c r="AE1424" s="34"/>
     </row>
-    <row r="1425" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1425" spans="29:31">
       <c r="AC1425" s="34"/>
       <c r="AD1425" s="34"/>
       <c r="AE1425" s="34"/>
     </row>
-    <row r="1426" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1426" spans="29:31">
       <c r="AC1426" s="34"/>
       <c r="AD1426" s="34"/>
       <c r="AE1426" s="34"/>
     </row>
-    <row r="1427" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1427" spans="29:31">
       <c r="AC1427" s="34"/>
       <c r="AD1427" s="34"/>
       <c r="AE1427" s="34"/>
     </row>
-    <row r="1428" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1428" spans="29:31">
       <c r="AC1428" s="34"/>
       <c r="AD1428" s="34"/>
       <c r="AE1428" s="34"/>
     </row>
-    <row r="1429" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1429" spans="29:31">
       <c r="AC1429" s="34"/>
       <c r="AD1429" s="34"/>
       <c r="AE1429" s="34"/>
     </row>
-    <row r="1430" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1430" spans="29:31">
       <c r="AC1430" s="34"/>
       <c r="AD1430" s="34"/>
       <c r="AE1430" s="34"/>
     </row>
-    <row r="1431" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1431" spans="29:31">
       <c r="AC1431" s="34"/>
       <c r="AD1431" s="34"/>
       <c r="AE1431" s="34"/>
     </row>
-    <row r="1432" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1432" spans="29:31">
       <c r="AC1432" s="34"/>
       <c r="AD1432" s="34"/>
       <c r="AE1432" s="34"/>
     </row>
-    <row r="1433" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1433" spans="29:31">
       <c r="AC1433" s="34"/>
       <c r="AD1433" s="34"/>
       <c r="AE1433" s="34"/>
     </row>
-    <row r="1434" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1434" spans="29:31">
       <c r="AC1434" s="34"/>
       <c r="AD1434" s="34"/>
       <c r="AE1434" s="34"/>
     </row>
-    <row r="1435" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1435" spans="29:31">
       <c r="AC1435" s="34"/>
       <c r="AD1435" s="34"/>
       <c r="AE1435" s="34"/>
     </row>
-    <row r="1436" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1436" spans="29:31">
       <c r="AC1436" s="34"/>
       <c r="AD1436" s="34"/>
       <c r="AE1436" s="34"/>
     </row>
-    <row r="1437" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1437" spans="29:31">
       <c r="AC1437" s="34"/>
       <c r="AD1437" s="34"/>
       <c r="AE1437" s="34"/>
     </row>
-    <row r="1438" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1438" spans="29:31">
       <c r="AC1438" s="34"/>
       <c r="AD1438" s="34"/>
       <c r="AE1438" s="34"/>
     </row>
-    <row r="1439" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1439" spans="29:31">
       <c r="AC1439" s="34"/>
       <c r="AD1439" s="34"/>
       <c r="AE1439" s="34"/>
     </row>
-    <row r="1440" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1440" spans="29:31">
       <c r="AC1440" s="34"/>
       <c r="AD1440" s="34"/>
       <c r="AE1440" s="34"/>
     </row>
-    <row r="1441" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1441" spans="29:31">
       <c r="AC1441" s="34"/>
       <c r="AD1441" s="34"/>
       <c r="AE1441" s="34"/>
     </row>
-    <row r="1442" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1442" spans="29:31">
       <c r="AC1442" s="34"/>
       <c r="AD1442" s="34"/>
       <c r="AE1442" s="34"/>
     </row>
-    <row r="1443" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1443" spans="29:31">
       <c r="AC1443" s="34"/>
       <c r="AD1443" s="34"/>
       <c r="AE1443" s="34"/>
     </row>
-    <row r="1444" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1444" spans="29:31">
       <c r="AC1444" s="34"/>
       <c r="AD1444" s="34"/>
       <c r="AE1444" s="34"/>
     </row>
-    <row r="1445" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1445" spans="29:31">
       <c r="AC1445" s="34"/>
       <c r="AD1445" s="34"/>
       <c r="AE1445" s="34"/>
     </row>
-    <row r="1446" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1446" spans="29:31">
       <c r="AC1446" s="34"/>
       <c r="AD1446" s="34"/>
       <c r="AE1446" s="34"/>
     </row>
-    <row r="1447" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1447" spans="29:31">
       <c r="AC1447" s="34"/>
       <c r="AD1447" s="34"/>
       <c r="AE1447" s="34"/>
     </row>
-    <row r="1448" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1448" spans="29:31">
       <c r="AC1448" s="34"/>
       <c r="AD1448" s="34"/>
       <c r="AE1448" s="34"/>
     </row>
-    <row r="1449" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1449" spans="29:31">
       <c r="AC1449" s="34"/>
       <c r="AD1449" s="34"/>
       <c r="AE1449" s="34"/>
     </row>
-    <row r="1450" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1450" spans="29:31">
       <c r="AC1450" s="34"/>
       <c r="AD1450" s="34"/>
       <c r="AE1450" s="34"/>
     </row>
-    <row r="1451" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1451" spans="29:31">
       <c r="AC1451" s="34"/>
       <c r="AD1451" s="34"/>
       <c r="AE1451" s="34"/>
     </row>
-    <row r="1452" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1452" spans="29:31">
       <c r="AC1452" s="34"/>
       <c r="AD1452" s="34"/>
       <c r="AE1452" s="34"/>
     </row>
-    <row r="1453" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1453" spans="29:31">
       <c r="AC1453" s="34"/>
       <c r="AD1453" s="34"/>
       <c r="AE1453" s="34"/>
     </row>
-    <row r="1454" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1454" spans="29:31">
       <c r="AC1454" s="34"/>
       <c r="AD1454" s="34"/>
       <c r="AE1454" s="34"/>
     </row>
-    <row r="1455" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1455" spans="29:31">
       <c r="AC1455" s="34"/>
       <c r="AD1455" s="34"/>
       <c r="AE1455" s="34"/>
     </row>
-    <row r="1456" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1456" spans="29:31">
       <c r="AC1456" s="34"/>
       <c r="AD1456" s="34"/>
       <c r="AE1456" s="34"/>
     </row>
-    <row r="1457" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1457" spans="29:31">
       <c r="AC1457" s="34"/>
       <c r="AD1457" s="34"/>
       <c r="AE1457" s="34"/>
     </row>
-    <row r="1458" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1458" spans="29:31">
       <c r="AC1458" s="34"/>
       <c r="AD1458" s="34"/>
       <c r="AE1458" s="34"/>
     </row>
-    <row r="1459" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1459" spans="29:31">
       <c r="AC1459" s="34"/>
       <c r="AD1459" s="34"/>
       <c r="AE1459" s="34"/>
     </row>
-    <row r="1460" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1460" spans="29:31">
       <c r="AC1460" s="34"/>
       <c r="AD1460" s="34"/>
       <c r="AE1460" s="34"/>
     </row>
-    <row r="1461" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1461" spans="29:31">
       <c r="AC1461" s="34"/>
       <c r="AD1461" s="34"/>
       <c r="AE1461" s="34"/>
     </row>
-    <row r="1462" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1462" spans="29:31">
       <c r="AC1462" s="34"/>
       <c r="AD1462" s="34"/>
       <c r="AE1462" s="34"/>
     </row>
-    <row r="1463" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1463" spans="29:31">
       <c r="AC1463" s="34"/>
       <c r="AD1463" s="34"/>
       <c r="AE1463" s="34"/>
     </row>
-    <row r="1464" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1464" spans="29:31">
       <c r="AC1464" s="34"/>
       <c r="AD1464" s="34"/>
       <c r="AE1464" s="34"/>
     </row>
-    <row r="1465" spans="29:31" x14ac:dyDescent="0.25">
+    <row r="1465" spans="29:31">
       <c r="AC1465" s="34"/>
       <c r="AD1465" s="34"/>
       <c r="AE1465" s="34"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH113" xr:uid="{07B40DDD-E964-0547-8F6B-638B308384FA}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Pink Salmon"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="O27" r:id="rId1" display="https://www.fisheries.noaa.gov/webdam/download/88698465" xr:uid="{A15AF4E0-AFE8-4EBD-B24A-4B0611E61897}"/>
     <hyperlink ref="O29" r:id="rId2" display="https://www.fisheries.noaa.gov/webdam/download/88129624" xr:uid="{2041AAA1-5169-4F92-B06F-2B0F69184BB9}"/>
